--- a/test_case_data/bmc/bmc_base_info_2021513.xlsx
+++ b/test_case_data/bmc/bmc_base_info_2021513.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="377">
   <si>
     <t>caseNum</t>
   </si>
@@ -292,10 +292,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>caseNum</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>interface</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -343,9 +339,6 @@
     <t>数据库没有该手机号</t>
   </si>
   <si>
-    <t>{"phone":"1577800000","bCityCode":"520100"}</t>
-  </si>
-  <si>
     <t>获取用户登录类型成功，返回正确信息</t>
   </si>
   <si>
@@ -367,15 +360,9 @@
     <t>不传城市编码，获取登录类型成功</t>
   </si>
   <si>
-    <t>{"phone":"1577800000","bCityCode":""}</t>
-  </si>
-  <si>
     <t>手机号位数不足，获取登录类型失败</t>
   </si>
   <si>
-    <t>{"phone":"1520000000","bCityCode":"520100"}</t>
-  </si>
-  <si>
     <t>获取用户登录类型失败，返回错误信息</t>
   </si>
   <si>
@@ -412,9 +399,6 @@
     <t>/sys/captcha</t>
   </si>
   <si>
-    <t>{"bCityCode":"520100","bizType":"1"}</t>
-  </si>
-  <si>
     <t>成功获取图形验证码</t>
   </si>
   <si>
@@ -451,9 +435,6 @@
     <t>/v1/user/login/verifyCode/detail</t>
   </si>
   <si>
-    <t>{"phone":"15999000000","bizType":1,"horPercent":34,"jtId":"b8d1effc-806a-4a9e-a11a-e4caeb8cc793","bCityCode":"520100","bNetTag":"trf_mgt"}</t>
-  </si>
-  <si>
     <t>成功获取验证码</t>
   </si>
   <si>
@@ -466,9 +447,6 @@
     <t>不传手机号，获取短信验证码失败</t>
   </si>
   <si>
-    <t>{"phone":"","bizType":1,"horPercent":34,"jtId":"b8d1effc-806a-4a9e-a11a-e4caeb8cc793","bCityCode":"520100","bNetTag":"trf_mgt"}</t>
-  </si>
-  <si>
     <t>获取验证码失败</t>
   </si>
   <si>
@@ -502,24 +480,12 @@
     <t>X轴百分比不传，获取验证码失败</t>
   </si>
   <si>
-    <t>{"phone":"15999000000","bizType":1,"horPercent":"","jtId":"b8d1effc-806a-4a9e-a11a-e4caeb8cc793","bCityCode":"520100","bNetTag":"trf_mgt"}</t>
-  </si>
-  <si>
     <t>{"success":false,"code":1100002,"msg":"拼图校验失败","errorMsg":"拼图校验失败"}</t>
   </si>
   <si>
-    <t>X轴百分比传错，获取验证码失败</t>
-  </si>
-  <si>
-    <t>{"phone":"15999000000","bizType":1,"horPercent":"1","jtId":"b8d1effc-806a-4a9e-a11a-e4caeb8cc793","bCityCode":"520100","bNetTag":"trf_mgt"}</t>
-  </si>
-  <si>
     <t>图形验证码ID不传，获取验证码失败</t>
   </si>
   <si>
-    <t>{"phone":"15999000000","bizType":1,"horPercent":34,"jtId":"","bCityCode":"520100","bNetTag":"trf_mgt"}</t>
-  </si>
-  <si>
     <t>{"phone":"15999000000","bizType":1,"horPercent":34,"jtId":"b8d1effc-806a-4a9e-a11a-e4caeb8cc793","bCityCode":"","bNetTag":"trf_mgt"}</t>
   </si>
   <si>
@@ -547,9 +513,6 @@
     <t>/user/login/verifyCode</t>
   </si>
   <si>
-    <t>{"phone":"15999000000","bizType":1,"bCityCode":"520100","bNetTag":"trf_mgt","verifyCode":"111111"}</t>
-  </si>
-  <si>
     <t>验证码错误，验证不通过</t>
   </si>
   <si>
@@ -655,9 +618,6 @@
     <t>不传设备名称，注册成功</t>
   </si>
   <si>
-    <t>{"encodedGesture":"67e6d10010533eed4bbe9659863bf6ee","phone":"15999000000","deviceId":"d0a46a29019140a78cc13855f8c73761","bCityCode":"520100","deviceName":"","oneTimeToken":"5ba7eeca-5638-431d-a532-a1a6e746f6af"}</t>
-  </si>
-  <si>
     <t>不传城市编码，注册成功</t>
   </si>
   <si>
@@ -665,9 +625,6 @@
   </si>
   <si>
     <t>正确传递参数，注册成功</t>
-  </si>
-  <si>
-    <t>{"encodedGesture":"67e6d10010533eed4bbe9659863bf6ee","phone":"15999000000","deviceId":"d0a46a29019140a78cc13855f8c73761","bCityCode":"520100","deviceName":"iPhone 11","oneTimeToken":"5ba7eeca-5638-431d-a532-a1a6e746f6af"}</t>
   </si>
   <si>
     <r>
@@ -1081,6 +1038,150 @@
     <t>激活成功</t>
   </si>
   <si>
+    <t>logintypeRegister002</t>
+  </si>
+  <si>
+    <t>logintypeRegister003</t>
+  </si>
+  <si>
+    <t>logintypeRegister004</t>
+  </si>
+  <si>
+    <t>logintypeRegister005</t>
+  </si>
+  <si>
+    <t>logintypeRegister006</t>
+  </si>
+  <si>
+    <t>captchaRegister002</t>
+  </si>
+  <si>
+    <t>captchaRegister003</t>
+  </si>
+  <si>
+    <t>captchaRegister004</t>
+  </si>
+  <si>
+    <t>verifyCodedetailRegister011</t>
+  </si>
+  <si>
+    <t>verifyCodedetailRegister001</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>verifyCodedetailRegister002</t>
+  </si>
+  <si>
+    <t>verifyCodedetailRegister003</t>
+  </si>
+  <si>
+    <t>verifyCodedetailRegister004</t>
+  </si>
+  <si>
+    <t>verifyCodedetailRegister005</t>
+  </si>
+  <si>
+    <t>verifyCodedetailRegister007</t>
+  </si>
+  <si>
+    <t>verifyCodedetailRegister009</t>
+  </si>
+  <si>
+    <t>verifyCodedetailRegister010</t>
+  </si>
+  <si>
+    <t>/user/login/verifyCode</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>loginverifyCodeRegister004</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>loginverifyCodeRegister006</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>loginverifyCodeRegister007</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>/v1/user/login/gesture/setAndLogin</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gesturesetAndLoginRegister003</t>
+  </si>
+  <si>
+    <t>gesturesetAndLoginRegister007</t>
+  </si>
+  <si>
+    <t>keyboardPwdsetAndLoginRegister002</t>
+  </si>
+  <si>
+    <t>keyboardPwdsetAndLoginRegister003</t>
+  </si>
+  <si>
+    <t>keyboardPwdsetAndLoginRegister004</t>
+  </si>
+  <si>
+    <t>keyboardPwdsetAndLoginRegister005</t>
+  </si>
+  <si>
+    <t>keyboardPwdsetAndLoginRegister006</t>
+  </si>
+  <si>
+    <t>keyboardPwdsetAndLoginRegister007</t>
+  </si>
+  <si>
+    <t>gesturesetAndLoginRegister006</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取用户登录类型</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://yapi.hikcreate.com/project/31/interface/api/10745</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>/v1/user/login/type</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -1089,77 +1190,158 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>logintypeRegister002</t>
-  </si>
-  <si>
-    <t>logintypeRegister003</t>
-  </si>
-  <si>
-    <t>logintypeRegister004</t>
-  </si>
-  <si>
-    <t>logintypeRegister005</t>
-  </si>
-  <si>
-    <t>logintypeRegister006</t>
-  </si>
-  <si>
-    <t>/sys/captcha</t>
+    <t>keyboardPwdsetAndLoginRegister001</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>captchaRegister001</t>
+    <t>获取图形验证码</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>captchaRegister002</t>
-  </si>
-  <si>
-    <t>captchaRegister003</t>
-  </si>
-  <si>
-    <t>captchaRegister004</t>
+    <t>http://yapi.hikcreate.com/project/31/interface/api/20446</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>图形短信验证码</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>/v1/user/login/verifyCode/detail</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>verifyCodedetailRegister011</t>
-  </si>
-  <si>
-    <t>verifyCodedetailRegister001</t>
+    <t>短信验证</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>verifyCodedetailRegister002</t>
-  </si>
-  <si>
-    <t>verifyCodedetailRegister003</t>
-  </si>
-  <si>
-    <t>verifyCodedetailRegister004</t>
-  </si>
-  <si>
-    <t>verifyCodedetailRegister005</t>
-  </si>
-  <si>
-    <t>verifyCodedetailRegister006</t>
-  </si>
-  <si>
-    <t>verifyCodedetailRegister007</t>
-  </si>
-  <si>
-    <t>verifyCodedetailRegister008</t>
-  </si>
-  <si>
-    <t>verifyCodedetailRegister009</t>
-  </si>
-  <si>
-    <t>verifyCodedetailRegister010</t>
+    <r>
+      <t>loginverifyCodeRegister003</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>/user/login/verifyCode</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>loginverifyCodeRegister005</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.75"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>设置手势</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.75"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.75"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>登录</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gesturesetAndLoginRegister001</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>/v1/user/login/gesture/setAndLogin</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"phone":"15999000000","bizType":1,"bCityCode":"520100","bNetTag":"trf_mgt","verifyCode":""}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"phone":"15778000000","bCityCode":"520100"}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"phone":"15778000000","bCityCode":""}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"phone":"1520000000","bCityCode":"520100"}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"phone":"15999000000","bizType":1,"horPercent":34,"jtId":"b8d1effc-806a-4a9e-a11a-e4caeb8cc793","bCityCode":"520100","bNetTag":"trf_mgt"}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"phone":"15999000000","bizType":1,"bCityCode":"520100","bNetTag":"trf_mgt","verifyCode":"111111"}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>loginverifyCodeRegister002</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gesturesetAndLoginRegister004</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gesturesetAndLoginRegister005</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"encodedGesture":"67e6d10010533eed4bbe9659863bf6ee","phone":"15999000000","deviceId":"d0a46a29019140a78cc13855f8c73761","bCityCode":"520100","deviceName":"","oneTimeToken":"5ba7eeca-5638-431d-a532-a1a6e746f6af"}</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -1180,163 +1362,71 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>loginverifyCodeRegister002</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>loginverifyCodeRegister003</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>loginverifyCodeRegister004</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>loginverifyCodeRegister005</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>loginverifyCodeRegister006</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>loginverifyCodeRegister007</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <t>/v1/user/login/gesture/setAndLogin</t>
+    <t>gesturesetAndLoginRegister002</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>/v1/user/login/gesture/setAndLogin</t>
+    <t>{"encodedGesture":"67e6d10010533eed4bbe9659863bf6ee","phone":"15999000000","deviceId":"d0a46a29019140a78cc13855f8c73761","bCityCode":"520100","deviceName":"iPhone 11","oneTimeToken":"5ba7eeca-5638-431d-a532-a1a6e746f6af"}</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>gesturesetAndLoginRegister001</t>
+    <t>http://testbmcapp.hikcreate.com</t>
     <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>gesturesetAndLoginRegister002</t>
-  </si>
-  <si>
-    <t>gesturesetAndLoginRegister003</t>
-  </si>
-  <si>
-    <t>gesturesetAndLoginRegister004</t>
-  </si>
-  <si>
-    <t>gesturesetAndLoginRegister005</t>
-  </si>
-  <si>
-    <t>gesturesetAndLoginRegister006</t>
-  </si>
-  <si>
-    <t>gesturesetAndLoginRegister007</t>
   </si>
   <si>
     <t>/v1/user/login/keyboardPwd/setAndLogin</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>keyboardPwdsetAndLoginRegister001</t>
+    <t>{"bCityCode":"520100","bizType":"1"}</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>keyboardPwdsetAndLoginRegister002</t>
-  </si>
-  <si>
-    <t>keyboardPwdsetAndLoginRegister003</t>
-  </si>
-  <si>
-    <t>keyboardPwdsetAndLoginRegister004</t>
-  </si>
-  <si>
-    <t>keyboardPwdsetAndLoginRegister005</t>
-  </si>
-  <si>
-    <t>keyboardPwdsetAndLoginRegister006</t>
-  </si>
-  <si>
-    <t>keyboardPwdsetAndLoginRegister007</t>
+    <t>caseNum</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>verifyCodedetailRegister006</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>X轴百分比传错，获取验证码失败</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>verifyCodedetailRegister008</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"phone":"15999000000","bizType":1,"horPercent":34,"jtId":"","bCityCode":"520100","bNetTag":"trf_mgt"}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"phone":"15999000000","bizType":1,"horPercent":"1","jtId":"b8d1effc-806a-4a9e-a11a-e4caeb8cc793","bCityCode":"520100","bNetTag":"trf_mgt"}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"phone":"15999000000","bizType":1,"horPercent":"","jtId":"b8d1effc-806a-4a9e-a11a-e4caeb8cc793","bCityCode":"520100","bNetTag":"trf_mgt"}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"phone":"","bizType":1,"horPercent":34,"jtId":"b8d1effc-806a-4a9e-a11a-e4caeb8cc793","bCityCode":"520100","bNetTag":"trf_mgt"}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>captchaRegister001</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>/sys/captcha</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1479,6 +1569,13 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9.75"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1511,7 +1608,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1563,9 +1660,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1587,11 +1681,17 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2282,13 +2382,13 @@
       </c>
     </row>
     <row r="10" spans="1:17" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
@@ -2303,11 +2403,11 @@
       <c r="Q10" s="6"/>
     </row>
     <row r="11" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="26"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
+      <c r="A11" s="24"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
@@ -2336,8 +2436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2352,40 +2452,40 @@
     <col min="8" max="8" width="41" customWidth="1"/>
     <col min="9" max="9" width="8.125" customWidth="1"/>
     <col min="10" max="10" width="9.25" customWidth="1"/>
-    <col min="11" max="11" width="32" customWidth="1"/>
+    <col min="11" max="11" width="52.75" customWidth="1"/>
     <col min="12" max="12" width="32.75" customWidth="1"/>
-    <col min="13" max="13" width="62.625" customWidth="1"/>
+    <col min="13" max="13" width="103.125" customWidth="1"/>
     <col min="14" max="14" width="73.75" customWidth="1"/>
     <col min="15" max="15" width="62.625" customWidth="1"/>
     <col min="16" max="16" width="9.25" customWidth="1"/>
     <col min="17" max="17" width="14.125" customWidth="1"/>
-    <col min="18" max="18" width="10.375" customWidth="1"/>
+    <col min="18" max="18" width="42.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>68</v>
+      <c r="A1" s="10" t="s">
+        <v>367</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>67</v>
       </c>
       <c r="C1" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="E1" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>8</v>
@@ -2394,16 +2494,16 @@
         <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>14</v>
@@ -2418,122 +2518,122 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="18" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:19" s="17" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="12" t="s">
-        <v>319</v>
+        <v>338</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>78</v>
+        <v>335</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>20</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>318</v>
+        <v>337</v>
       </c>
       <c r="G2" s="11"/>
       <c r="H2" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I2" s="12" t="s">
         <v>24</v>
       </c>
       <c r="J2" s="12"/>
       <c r="K2" s="11" t="s">
+        <v>352</v>
+      </c>
+      <c r="L2" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="M2" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="L2" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="M2" s="11" t="s">
+      <c r="N2" s="15"/>
+      <c r="O2" s="25" t="s">
+        <v>336</v>
+      </c>
+      <c r="P2" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="N2" s="15"/>
-      <c r="O2" s="14" t="s">
+      <c r="Q2" s="16"/>
+      <c r="R2" t="s">
         <v>85</v>
       </c>
-      <c r="P2" s="15" t="s">
+      <c r="S2" s="12"/>
+    </row>
+    <row r="3" spans="1:19" s="17" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A3" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="17" t="s">
+      <c r="E3" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="S2" s="12"/>
-    </row>
-    <row r="3" spans="1:19" s="18" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="12" t="s">
-        <v>320</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>89</v>
-      </c>
       <c r="F3" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G3" s="11"/>
       <c r="H3" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I3" s="12" t="s">
         <v>24</v>
       </c>
       <c r="J3" s="12"/>
       <c r="K3" s="11" t="s">
-        <v>90</v>
+        <v>353</v>
       </c>
       <c r="L3" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="N3" s="15"/>
+      <c r="O3" t="s">
         <v>83</v>
       </c>
-      <c r="M3" s="11" t="s">
+      <c r="P3" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="N3" s="15"/>
-      <c r="O3" s="14" t="s">
+      <c r="Q3" s="16"/>
+      <c r="R3" t="s">
         <v>85</v>
       </c>
-      <c r="P3" s="15" t="s">
+      <c r="S3" s="12"/>
+    </row>
+    <row r="4" spans="1:19" s="17" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A4" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="S3" s="12"/>
-    </row>
-    <row r="4" spans="1:19" s="18" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="12" t="s">
-        <v>321</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="D4" s="12" t="s">
+      <c r="E4" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="E4" s="12" t="s">
-        <v>91</v>
-      </c>
       <c r="F4" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G4" s="11"/>
       <c r="H4" s="12"/>
@@ -2542,45 +2642,45 @@
       </c>
       <c r="J4" s="12"/>
       <c r="K4" s="11" t="s">
-        <v>92</v>
+        <v>354</v>
       </c>
       <c r="L4" s="14" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="M4" s="11" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="N4" s="15"/>
-      <c r="O4" s="14" t="s">
+      <c r="O4" t="s">
+        <v>83</v>
+      </c>
+      <c r="P4" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q4" s="12"/>
+      <c r="R4" t="s">
         <v>85</v>
       </c>
-      <c r="P4" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="17" t="s">
-        <v>87</v>
-      </c>
       <c r="S4" s="12"/>
     </row>
-    <row r="5" spans="1:19" s="18" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:19" s="17" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="12" t="s">
-        <v>322</v>
+        <v>306</v>
       </c>
       <c r="B5" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="13" t="s">
         <v>77</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>78</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>31</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G5" s="11"/>
       <c r="H5" s="12"/>
@@ -2589,45 +2689,45 @@
       </c>
       <c r="J5" s="12"/>
       <c r="K5" s="11" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="L5" s="14" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="M5" s="11" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="N5" s="15"/>
-      <c r="O5" s="14" t="s">
+      <c r="O5" t="s">
+        <v>83</v>
+      </c>
+      <c r="P5" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q5" s="12"/>
+      <c r="R5" t="s">
         <v>85</v>
       </c>
-      <c r="P5" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="17" t="s">
-        <v>87</v>
-      </c>
       <c r="S5" s="12"/>
     </row>
-    <row r="6" spans="1:19" s="18" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:19" s="17" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="12" t="s">
-        <v>323</v>
+        <v>307</v>
       </c>
       <c r="B6" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="13" t="s">
         <v>77</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>78</v>
       </c>
       <c r="D6" s="12" t="s">
         <v>31</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G6" s="11"/>
       <c r="H6" s="12"/>
@@ -2636,45 +2736,45 @@
       </c>
       <c r="J6" s="12"/>
       <c r="K6" s="11" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L6" s="14" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="M6" s="11" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="N6" s="15"/>
-      <c r="O6" s="14" t="s">
+      <c r="O6" t="s">
+        <v>83</v>
+      </c>
+      <c r="P6" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q6" s="12"/>
+      <c r="R6" t="s">
         <v>85</v>
       </c>
-      <c r="P6" s="15" t="s">
+      <c r="S6" s="12"/>
+    </row>
+    <row r="7" spans="1:19" s="17" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A7" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="S6" s="12"/>
-    </row>
-    <row r="7" spans="1:19" s="18" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="12" t="s">
-        <v>324</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>88</v>
-      </c>
       <c r="E7" s="12" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G7" s="11"/>
       <c r="H7" s="12"/>
@@ -2683,45 +2783,45 @@
       </c>
       <c r="J7" s="12"/>
       <c r="K7" s="11" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="L7" s="14" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="M7" s="11" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="N7" s="15"/>
-      <c r="O7" s="14" t="s">
+      <c r="O7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P7" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q7" s="12"/>
+      <c r="R7" t="s">
         <v>85</v>
       </c>
-      <c r="P7" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="17" t="s">
-        <v>87</v>
-      </c>
       <c r="S7" s="12"/>
     </row>
-    <row r="8" spans="1:19" s="18" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="24" t="s">
-        <v>326</v>
+    <row r="8" spans="1:19" s="17" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A8" s="23" t="s">
+        <v>375</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>102</v>
+        <v>76</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>340</v>
       </c>
       <c r="D8" s="12" t="s">
         <v>20</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>325</v>
+        <v>376</v>
       </c>
       <c r="G8" s="11"/>
       <c r="H8" s="12"/>
@@ -2730,45 +2830,45 @@
       </c>
       <c r="J8" s="12"/>
       <c r="K8" s="11" t="s">
-        <v>105</v>
+        <v>366</v>
       </c>
       <c r="L8" s="14" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="M8" s="11" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="N8" s="15"/>
-      <c r="O8" s="14" t="s">
-        <v>108</v>
+      <c r="O8" t="s">
+        <v>103</v>
       </c>
       <c r="P8" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q8" s="12"/>
+      <c r="R8" t="s">
+        <v>85</v>
+      </c>
+      <c r="S8" s="12"/>
+    </row>
+    <row r="9" spans="1:19" s="17" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A9" s="23" t="s">
+        <v>309</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="D9" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="S8" s="12"/>
-    </row>
-    <row r="9" spans="1:19" s="18" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="24" t="s">
-        <v>327</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>88</v>
-      </c>
       <c r="E9" s="12" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G9" s="11"/>
       <c r="H9" s="12"/>
@@ -2777,45 +2877,45 @@
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="11" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="L9" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="M9" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="N9" s="15"/>
+      <c r="O9" t="s">
+        <v>103</v>
+      </c>
+      <c r="P9" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q9" s="12"/>
+      <c r="R9" t="s">
+        <v>85</v>
+      </c>
+      <c r="S9" s="12"/>
+    </row>
+    <row r="10" spans="1:19" s="17" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A10" s="23" t="s">
+        <v>310</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="E10" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="M9" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="N9" s="15"/>
-      <c r="O9" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="P9" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="S9" s="12"/>
-    </row>
-    <row r="10" spans="1:19" s="18" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="24" t="s">
-        <v>328</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>111</v>
-      </c>
       <c r="F10" s="11" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G10" s="11"/>
       <c r="H10" s="12"/>
@@ -2824,45 +2924,45 @@
       </c>
       <c r="J10" s="12"/>
       <c r="K10" s="11" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="L10" s="14" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="M10" s="11" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="N10" s="15"/>
-      <c r="O10" s="14" t="s">
+      <c r="O10" t="s">
+        <v>103</v>
+      </c>
+      <c r="P10" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q10" s="12"/>
+      <c r="R10" t="s">
+        <v>85</v>
+      </c>
+      <c r="S10" s="12"/>
+    </row>
+    <row r="11" spans="1:19" s="17" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A11" s="23" t="s">
+        <v>311</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="E11" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="P10" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="S10" s="12"/>
-    </row>
-    <row r="11" spans="1:19" s="18" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="24" t="s">
-        <v>329</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>113</v>
-      </c>
       <c r="F11" s="11" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G11" s="11"/>
       <c r="H11" s="12"/>
@@ -2871,1630 +2971,1630 @@
       </c>
       <c r="J11" s="12"/>
       <c r="K11" s="11" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="L11" s="14" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="M11" s="11" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="N11" s="15"/>
-      <c r="O11" s="14" t="s">
-        <v>108</v>
+      <c r="O11" s="25" t="s">
+        <v>341</v>
       </c>
       <c r="P11" s="15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="Q11" s="12"/>
-      <c r="R11" s="17" t="s">
-        <v>87</v>
+      <c r="R11" t="s">
+        <v>85</v>
       </c>
       <c r="S11" s="12"/>
     </row>
-    <row r="12" spans="1:19" s="18" customFormat="1" ht="71.25" x14ac:dyDescent="0.15">
-      <c r="A12" s="24" t="s">
-        <v>332</v>
+    <row r="12" spans="1:19" s="17" customFormat="1" ht="57" x14ac:dyDescent="0.15">
+      <c r="A12" s="23" t="s">
+        <v>313</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>115</v>
+        <v>342</v>
       </c>
       <c r="D12" s="12" t="s">
         <v>20</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>330</v>
+        <v>343</v>
       </c>
       <c r="G12" s="11"/>
       <c r="H12" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I12" s="12" t="s">
         <v>24</v>
       </c>
       <c r="J12" s="12"/>
-      <c r="K12" s="21" t="s">
-        <v>118</v>
+      <c r="K12" s="20" t="s">
+        <v>355</v>
       </c>
       <c r="L12" s="14" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="M12" s="11" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="N12" s="15"/>
-      <c r="O12" s="14" t="s">
-        <v>121</v>
+      <c r="O12" t="s">
+        <v>115</v>
       </c>
       <c r="P12" s="15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="Q12" s="12"/>
-      <c r="R12" s="17" t="s">
-        <v>87</v>
+      <c r="R12" t="s">
+        <v>85</v>
       </c>
       <c r="S12" s="12"/>
     </row>
-    <row r="13" spans="1:19" s="18" customFormat="1" ht="71.25" x14ac:dyDescent="0.15">
-      <c r="A13" s="24" t="s">
-        <v>333</v>
+    <row r="13" spans="1:19" s="17" customFormat="1" ht="57" x14ac:dyDescent="0.15">
+      <c r="A13" s="23" t="s">
+        <v>314</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D13" s="12" t="s">
         <v>31</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="G13" s="11"/>
       <c r="H13" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I13" s="12" t="s">
         <v>24</v>
       </c>
       <c r="J13" s="12"/>
-      <c r="K13" s="21" t="s">
-        <v>123</v>
+      <c r="K13" s="20" t="s">
+        <v>374</v>
       </c>
       <c r="L13" s="14" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="M13" s="11" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="N13" s="15"/>
-      <c r="O13" s="14" t="s">
-        <v>121</v>
+      <c r="O13" t="s">
+        <v>115</v>
       </c>
       <c r="P13" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q13" s="12"/>
+      <c r="R13" t="s">
+        <v>85</v>
+      </c>
+      <c r="S13" s="12"/>
+    </row>
+    <row r="14" spans="1:19" s="17" customFormat="1" ht="57" x14ac:dyDescent="0.15">
+      <c r="A14" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="D14" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="Q13" s="12"/>
-      <c r="R13" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="S13" s="12"/>
-    </row>
-    <row r="14" spans="1:19" s="18" customFormat="1" ht="71.25" x14ac:dyDescent="0.15">
-      <c r="A14" s="24" t="s">
-        <v>334</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>88</v>
-      </c>
       <c r="E14" s="12" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="G14" s="11"/>
       <c r="H14" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I14" s="12" t="s">
         <v>24</v>
       </c>
       <c r="J14" s="12"/>
-      <c r="K14" s="21" t="s">
-        <v>127</v>
+      <c r="K14" s="20" t="s">
+        <v>120</v>
       </c>
       <c r="L14" s="14" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="M14" s="11" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="N14" s="15"/>
-      <c r="O14" s="14" t="s">
-        <v>121</v>
+      <c r="O14" t="s">
+        <v>115</v>
       </c>
       <c r="P14" s="15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="Q14" s="12"/>
-      <c r="R14" s="17" t="s">
-        <v>87</v>
+      <c r="R14" t="s">
+        <v>85</v>
       </c>
       <c r="S14" s="12"/>
     </row>
-    <row r="15" spans="1:19" s="18" customFormat="1" ht="71.25" x14ac:dyDescent="0.15">
-      <c r="A15" s="24" t="s">
-        <v>335</v>
+    <row r="15" spans="1:19" s="17" customFormat="1" ht="57" x14ac:dyDescent="0.15">
+      <c r="A15" s="23" t="s">
+        <v>316</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D15" s="12" t="s">
         <v>31</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="G15" s="11"/>
       <c r="H15" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I15" s="12" t="s">
         <v>24</v>
       </c>
       <c r="J15" s="12"/>
-      <c r="K15" s="21" t="s">
-        <v>130</v>
+      <c r="K15" s="20" t="s">
+        <v>123</v>
       </c>
       <c r="L15" s="14" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="M15" s="11" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="N15" s="15"/>
-      <c r="O15" s="14" t="s">
-        <v>121</v>
+      <c r="O15" t="s">
+        <v>115</v>
       </c>
       <c r="P15" s="15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="Q15" s="12"/>
-      <c r="R15" s="17" t="s">
-        <v>87</v>
+      <c r="R15" t="s">
+        <v>85</v>
       </c>
       <c r="S15" s="12"/>
     </row>
-    <row r="16" spans="1:19" s="18" customFormat="1" ht="71.25" x14ac:dyDescent="0.15">
-      <c r="A16" s="24" t="s">
-        <v>336</v>
+    <row r="16" spans="1:19" s="17" customFormat="1" ht="57" x14ac:dyDescent="0.15">
+      <c r="A16" s="23" t="s">
+        <v>317</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D16" s="12" t="s">
         <v>20</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="G16" s="11"/>
       <c r="H16" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I16" s="12" t="s">
         <v>24</v>
       </c>
       <c r="J16" s="12"/>
-      <c r="K16" s="21" t="s">
-        <v>132</v>
+      <c r="K16" s="20" t="s">
+        <v>125</v>
       </c>
       <c r="L16" s="14" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="M16" s="11" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="N16" s="15"/>
-      <c r="O16" s="14" t="s">
-        <v>121</v>
+      <c r="O16" t="s">
+        <v>115</v>
       </c>
       <c r="P16" s="15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="Q16" s="12"/>
-      <c r="R16" s="17" t="s">
-        <v>87</v>
+      <c r="R16" t="s">
+        <v>85</v>
       </c>
       <c r="S16" s="12"/>
     </row>
-    <row r="17" spans="1:19" s="18" customFormat="1" ht="71.25" x14ac:dyDescent="0.15">
-      <c r="A17" s="24" t="s">
-        <v>337</v>
+    <row r="17" spans="1:19" s="17" customFormat="1" ht="57" x14ac:dyDescent="0.15">
+      <c r="A17" s="23" t="s">
+        <v>368</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D17" s="12" t="s">
         <v>20</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="G17" s="11"/>
       <c r="H17" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I17" s="12" t="s">
         <v>24</v>
       </c>
       <c r="J17" s="12"/>
-      <c r="K17" s="21" t="s">
-        <v>135</v>
+      <c r="K17" s="20" t="s">
+        <v>373</v>
       </c>
       <c r="L17" s="14" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="M17" s="11" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="N17" s="15"/>
-      <c r="O17" s="14" t="s">
-        <v>121</v>
+      <c r="O17" t="s">
+        <v>115</v>
       </c>
       <c r="P17" s="15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="Q17" s="12"/>
-      <c r="R17" s="17" t="s">
-        <v>87</v>
+      <c r="R17" t="s">
+        <v>85</v>
       </c>
       <c r="S17" s="12"/>
     </row>
-    <row r="18" spans="1:19" s="18" customFormat="1" ht="71.25" x14ac:dyDescent="0.15">
-      <c r="A18" s="24" t="s">
-        <v>338</v>
+    <row r="18" spans="1:19" s="17" customFormat="1" ht="57" x14ac:dyDescent="0.15">
+      <c r="A18" s="23" t="s">
+        <v>318</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D18" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="12" t="s">
-        <v>137</v>
+      <c r="E18" s="23" t="s">
+        <v>369</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="G18" s="11"/>
       <c r="H18" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I18" s="12" t="s">
         <v>24</v>
       </c>
       <c r="J18" s="12"/>
-      <c r="K18" s="21" t="s">
-        <v>138</v>
+      <c r="K18" s="20" t="s">
+        <v>372</v>
       </c>
       <c r="L18" s="14" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="M18" s="11" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="N18" s="15"/>
-      <c r="O18" s="14" t="s">
-        <v>121</v>
+      <c r="O18" t="s">
+        <v>115</v>
       </c>
       <c r="P18" s="15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="Q18" s="12"/>
-      <c r="R18" s="17" t="s">
-        <v>87</v>
+      <c r="R18" t="s">
+        <v>85</v>
       </c>
       <c r="S18" s="12"/>
     </row>
-    <row r="19" spans="1:19" s="18" customFormat="1" ht="57" x14ac:dyDescent="0.15">
-      <c r="A19" s="24" t="s">
-        <v>339</v>
+    <row r="19" spans="1:19" s="17" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A19" s="23" t="s">
+        <v>370</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D19" s="12" t="s">
         <v>20</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="G19" s="11"/>
       <c r="H19" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I19" s="12" t="s">
         <v>24</v>
       </c>
       <c r="J19" s="12"/>
-      <c r="K19" s="21" t="s">
-        <v>140</v>
+      <c r="K19" s="20" t="s">
+        <v>371</v>
       </c>
       <c r="L19" s="14" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="M19" s="11" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="N19" s="15"/>
-      <c r="O19" s="14" t="s">
-        <v>121</v>
+      <c r="O19" t="s">
+        <v>115</v>
       </c>
       <c r="P19" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q19" s="12"/>
+      <c r="R19" t="s">
+        <v>85</v>
+      </c>
+      <c r="S19" s="12"/>
+    </row>
+    <row r="20" spans="1:19" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.15">
+      <c r="A20" s="23" t="s">
+        <v>319</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="D20" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="Q19" s="12"/>
-      <c r="R19" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="S19" s="12"/>
-    </row>
-    <row r="20" spans="1:19" s="18" customFormat="1" ht="71.25" x14ac:dyDescent="0.15">
-      <c r="A20" s="24" t="s">
-        <v>340</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>88</v>
-      </c>
       <c r="E20" s="12" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="G20" s="11"/>
       <c r="H20" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I20" s="12" t="s">
         <v>24</v>
       </c>
       <c r="J20" s="12"/>
-      <c r="K20" s="21" t="s">
-        <v>141</v>
+      <c r="K20" s="20" t="s">
+        <v>130</v>
       </c>
       <c r="L20" s="14" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="M20" s="11" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="N20" s="15"/>
-      <c r="O20" s="14" t="s">
-        <v>121</v>
+      <c r="O20" t="s">
+        <v>115</v>
       </c>
       <c r="P20" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q20" s="12"/>
+      <c r="R20" t="s">
+        <v>85</v>
+      </c>
+      <c r="S20" s="12"/>
+    </row>
+    <row r="21" spans="1:19" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.15">
+      <c r="A21" s="23" t="s">
+        <v>320</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="D21" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="Q20" s="12"/>
-      <c r="R20" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="S20" s="12"/>
-    </row>
-    <row r="21" spans="1:19" s="18" customFormat="1" ht="71.25" x14ac:dyDescent="0.15">
-      <c r="A21" s="24" t="s">
-        <v>341</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>88</v>
-      </c>
       <c r="E21" s="12" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="G21" s="11"/>
       <c r="H21" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I21" s="12" t="s">
         <v>24</v>
       </c>
       <c r="J21" s="12"/>
-      <c r="K21" s="21" t="s">
-        <v>143</v>
+      <c r="K21" s="20" t="s">
+        <v>132</v>
       </c>
       <c r="L21" s="14" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="M21" s="11" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="N21" s="15"/>
-      <c r="O21" s="14" t="s">
-        <v>121</v>
+      <c r="O21" t="s">
+        <v>115</v>
       </c>
       <c r="P21" s="15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="Q21" s="12"/>
-      <c r="R21" s="17" t="s">
-        <v>87</v>
+      <c r="R21" t="s">
+        <v>85</v>
       </c>
       <c r="S21" s="12"/>
     </row>
-    <row r="22" spans="1:19" s="18" customFormat="1" ht="71.25" x14ac:dyDescent="0.15">
-      <c r="A22" s="24" t="s">
-        <v>331</v>
+    <row r="22" spans="1:19" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.15">
+      <c r="A22" s="23" t="s">
+        <v>312</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D22" s="12" t="s">
         <v>20</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="G22" s="11"/>
       <c r="H22" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I22" s="12" t="s">
         <v>24</v>
       </c>
       <c r="J22" s="12"/>
-      <c r="K22" s="21" t="s">
-        <v>145</v>
+      <c r="K22" s="20" t="s">
+        <v>134</v>
       </c>
       <c r="L22" s="14" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="M22" s="11" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="N22" s="15"/>
-      <c r="O22" s="14" t="s">
-        <v>121</v>
+      <c r="O22" t="s">
+        <v>115</v>
       </c>
       <c r="P22" s="15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="Q22" s="12"/>
-      <c r="R22" s="22" t="s">
-        <v>87</v>
+      <c r="R22" t="s">
+        <v>85</v>
       </c>
       <c r="S22" s="12"/>
     </row>
-    <row r="23" spans="1:19" s="18" customFormat="1" ht="57" x14ac:dyDescent="0.15">
-      <c r="A23" s="24" t="s">
-        <v>343</v>
+    <row r="23" spans="1:19" s="17" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A23" s="23" t="s">
+        <v>361</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="C23" s="19" t="s">
-        <v>147</v>
+        <v>76</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>344</v>
       </c>
       <c r="D23" s="12" t="s">
         <v>20</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
       <c r="G23" s="11"/>
       <c r="H23" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I23" s="12" t="s">
         <v>24</v>
       </c>
       <c r="J23" s="12"/>
-      <c r="K23" s="21" t="s">
-        <v>150</v>
+      <c r="K23" s="20" t="s">
+        <v>356</v>
       </c>
       <c r="L23" s="14" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="M23" s="11" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="N23" s="15"/>
-      <c r="O23" s="14" t="s">
-        <v>153</v>
+      <c r="O23" t="s">
+        <v>141</v>
       </c>
       <c r="P23" s="15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="Q23" s="12"/>
-      <c r="R23" s="22" t="s">
-        <v>87</v>
+      <c r="R23" t="s">
+        <v>85</v>
       </c>
       <c r="S23" s="12"/>
     </row>
-    <row r="24" spans="1:19" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A24" s="24" t="s">
-        <v>344</v>
+    <row r="24" spans="1:19" s="17" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A24" s="23" t="s">
+        <v>357</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>147</v>
+        <v>76</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>136</v>
       </c>
       <c r="D24" s="12" t="s">
         <v>20</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="G24" s="11"/>
       <c r="H24" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I24" s="12" t="s">
         <v>24</v>
       </c>
       <c r="J24" s="12"/>
-      <c r="K24" s="21" t="s">
-        <v>155</v>
+      <c r="K24" s="20" t="s">
+        <v>143</v>
       </c>
       <c r="L24" s="14" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="M24" s="11" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="N24" s="15"/>
-      <c r="O24" s="14" t="s">
-        <v>153</v>
+      <c r="O24" t="s">
+        <v>141</v>
       </c>
       <c r="P24" s="15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="Q24" s="12"/>
-      <c r="R24" s="22" t="s">
-        <v>87</v>
+      <c r="R24" t="s">
+        <v>85</v>
       </c>
       <c r="S24" s="12"/>
     </row>
-    <row r="25" spans="1:19" s="18" customFormat="1" ht="57" x14ac:dyDescent="0.15">
-      <c r="A25" s="24" t="s">
+    <row r="25" spans="1:19" s="17" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A25" s="23" t="s">
         <v>345</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="C25" s="19" t="s">
-        <v>147</v>
+        <v>76</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>136</v>
       </c>
       <c r="D25" s="12" t="s">
         <v>20</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="G25" s="11"/>
       <c r="H25" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I25" s="12" t="s">
         <v>24</v>
       </c>
       <c r="J25" s="12"/>
-      <c r="K25" s="21" t="s">
-        <v>159</v>
+      <c r="K25" s="20" t="s">
+        <v>147</v>
       </c>
       <c r="L25" s="14" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="M25" s="11" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="N25" s="15"/>
-      <c r="O25" s="14" t="s">
-        <v>153</v>
+      <c r="O25" t="s">
+        <v>141</v>
       </c>
       <c r="P25" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q25" s="12"/>
+      <c r="R25" t="s">
+        <v>85</v>
+      </c>
+      <c r="S25" s="12"/>
+    </row>
+    <row r="26" spans="1:19" s="17" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A26" s="23" t="s">
+        <v>322</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="D26" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="Q25" s="12"/>
-      <c r="R25" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="S25" s="12"/>
-    </row>
-    <row r="26" spans="1:19" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A26" s="24" t="s">
-        <v>346</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="C26" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>88</v>
-      </c>
       <c r="E26" s="12" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="G26" s="11"/>
       <c r="H26" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I26" s="12" t="s">
         <v>24</v>
       </c>
       <c r="J26" s="12"/>
-      <c r="K26" s="21" t="s">
-        <v>162</v>
+      <c r="K26" s="20" t="s">
+        <v>150</v>
       </c>
       <c r="L26" s="14" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="M26" s="11" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="N26" s="15"/>
-      <c r="O26" s="14" t="s">
-        <v>153</v>
+      <c r="O26" t="s">
+        <v>141</v>
       </c>
       <c r="P26" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q26" s="12"/>
+      <c r="R26" t="s">
+        <v>85</v>
+      </c>
+      <c r="S26" s="12"/>
+    </row>
+    <row r="27" spans="1:19" s="17" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A27" s="23" t="s">
+        <v>347</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="D27" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="Q26" s="12"/>
-      <c r="R26" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="S26" s="12"/>
-    </row>
-    <row r="27" spans="1:19" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A27" s="24" t="s">
-        <v>347</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="C27" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>88</v>
-      </c>
       <c r="E27" s="12" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="G27" s="23"/>
+        <v>346</v>
+      </c>
+      <c r="G27" s="22"/>
       <c r="H27" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I27" s="12" t="s">
         <v>24</v>
       </c>
       <c r="J27" s="12"/>
-      <c r="K27" s="21" t="s">
-        <v>165</v>
+      <c r="K27" s="20" t="s">
+        <v>153</v>
       </c>
       <c r="L27" s="14" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="M27" s="11" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="N27" s="15"/>
-      <c r="O27" s="14" t="s">
-        <v>153</v>
+      <c r="O27" t="s">
+        <v>141</v>
       </c>
       <c r="P27" s="15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="Q27" s="12"/>
-      <c r="R27" s="22" t="s">
-        <v>87</v>
+      <c r="R27" t="s">
+        <v>85</v>
       </c>
       <c r="S27" s="12"/>
     </row>
-    <row r="28" spans="1:19" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A28" s="24" t="s">
-        <v>348</v>
+    <row r="28" spans="1:19" s="17" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A28" s="23" t="s">
+        <v>323</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="C28" s="19" t="s">
-        <v>147</v>
+        <v>76</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>136</v>
       </c>
       <c r="D28" s="12" t="s">
         <v>20</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="G28" s="23"/>
+        <v>138</v>
+      </c>
+      <c r="G28" s="22"/>
       <c r="H28" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I28" s="12" t="s">
         <v>24</v>
       </c>
       <c r="J28" s="12"/>
-      <c r="K28" s="21" t="s">
-        <v>167</v>
+      <c r="K28" s="20" t="s">
+        <v>155</v>
       </c>
       <c r="L28" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="M28" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="M28" s="14" t="s">
-        <v>168</v>
-      </c>
       <c r="N28" s="15"/>
-      <c r="O28" s="14" t="s">
-        <v>153</v>
+      <c r="O28" t="s">
+        <v>141</v>
       </c>
       <c r="P28" s="15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="Q28" s="12"/>
-      <c r="R28" s="22" t="s">
-        <v>87</v>
+      <c r="R28" t="s">
+        <v>85</v>
       </c>
       <c r="S28" s="12"/>
     </row>
-    <row r="29" spans="1:19" s="18" customFormat="1" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A29" s="24" t="s">
-        <v>349</v>
+    <row r="29" spans="1:19" s="17" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A29" s="23" t="s">
+        <v>324</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="C29" s="19" t="s">
-        <v>147</v>
+        <v>76</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>136</v>
       </c>
       <c r="D29" s="12" t="s">
         <v>20</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="G29" s="23"/>
+        <v>138</v>
+      </c>
+      <c r="G29" s="22"/>
       <c r="H29" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I29" s="12" t="s">
         <v>24</v>
       </c>
       <c r="J29" s="12"/>
-      <c r="K29" s="21" t="s">
-        <v>167</v>
+      <c r="K29" s="20" t="s">
+        <v>351</v>
       </c>
       <c r="L29" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="M29" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="M29" s="14" t="s">
-        <v>168</v>
-      </c>
       <c r="N29" s="15"/>
-      <c r="O29" s="14" t="s">
-        <v>153</v>
+      <c r="O29" t="s">
+        <v>141</v>
       </c>
       <c r="P29" s="15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="Q29" s="12"/>
-      <c r="R29" s="22" t="s">
-        <v>87</v>
+      <c r="R29" t="s">
+        <v>85</v>
       </c>
       <c r="S29" s="12"/>
     </row>
-    <row r="30" spans="1:19" s="18" customFormat="1" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A30" s="24" t="s">
-        <v>352</v>
+    <row r="30" spans="1:19" s="17" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A30" s="23" t="s">
+        <v>349</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="C30" s="19" t="s">
-        <v>170</v>
+        <v>76</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>348</v>
       </c>
       <c r="D30" s="12" t="s">
         <v>20</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="F30" s="23" t="s">
-        <v>351</v>
-      </c>
-      <c r="G30" s="23"/>
+        <v>159</v>
+      </c>
+      <c r="F30" s="22" t="s">
+        <v>350</v>
+      </c>
+      <c r="G30" s="22"/>
       <c r="H30" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I30" s="12" t="s">
         <v>24</v>
       </c>
       <c r="J30" s="12"/>
       <c r="K30" s="14" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="L30" s="14" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="M30" s="14" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="N30" s="15"/>
-      <c r="O30" s="14" t="s">
-        <v>176</v>
+      <c r="O30" t="s">
+        <v>164</v>
       </c>
       <c r="P30" s="15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="Q30" s="12"/>
-      <c r="R30" s="22" t="s">
-        <v>87</v>
+      <c r="R30" t="s">
+        <v>85</v>
       </c>
       <c r="S30" s="12"/>
     </row>
-    <row r="31" spans="1:19" s="18" customFormat="1" ht="81" x14ac:dyDescent="0.15">
-      <c r="A31" s="24" t="s">
-        <v>353</v>
+    <row r="31" spans="1:19" s="17" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+      <c r="A31" s="23" t="s">
+        <v>362</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="C31" s="19" t="s">
-        <v>170</v>
+        <v>76</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>158</v>
       </c>
       <c r="D31" s="12" t="s">
         <v>20</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="F31" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="G31" s="23"/>
+        <v>165</v>
+      </c>
+      <c r="F31" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="G31" s="22"/>
       <c r="H31" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I31" s="12" t="s">
         <v>24</v>
       </c>
       <c r="J31" s="12"/>
       <c r="K31" s="14" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="L31" s="14" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="M31" s="14" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="N31" s="15"/>
-      <c r="O31" s="14" t="s">
-        <v>176</v>
+      <c r="O31" t="s">
+        <v>164</v>
       </c>
       <c r="P31" s="15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="Q31" s="12"/>
-      <c r="R31" s="22" t="s">
-        <v>87</v>
+      <c r="R31" t="s">
+        <v>85</v>
       </c>
       <c r="S31" s="12"/>
     </row>
-    <row r="32" spans="1:19" s="18" customFormat="1" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A32" s="24" t="s">
-        <v>354</v>
+    <row r="32" spans="1:19" s="17" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A32" s="23" t="s">
+        <v>326</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="C32" s="19" t="s">
-        <v>170</v>
+        <v>76</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>158</v>
       </c>
       <c r="D32" s="12" t="s">
         <v>20</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="F32" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="G32" s="23"/>
+        <v>167</v>
+      </c>
+      <c r="F32" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="G32" s="22"/>
       <c r="H32" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I32" s="12" t="s">
         <v>24</v>
       </c>
       <c r="J32" s="12"/>
       <c r="K32" s="14" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="L32" s="14" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="M32" s="14" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="N32" s="15"/>
-      <c r="O32" s="14" t="s">
-        <v>176</v>
+      <c r="O32" t="s">
+        <v>164</v>
       </c>
       <c r="P32" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q32" s="12"/>
+      <c r="R32" t="s">
+        <v>85</v>
+      </c>
+      <c r="S32" s="12"/>
+    </row>
+    <row r="33" spans="1:19" s="17" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A33" s="23" t="s">
+        <v>358</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C33" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="D33" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="Q32" s="12"/>
-      <c r="R32" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="S32" s="12"/>
-    </row>
-    <row r="33" spans="1:19" s="18" customFormat="1" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A33" s="24" t="s">
-        <v>355</v>
-      </c>
-      <c r="B33" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="C33" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="D33" s="12" t="s">
-        <v>88</v>
-      </c>
       <c r="E33" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="F33" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="G33" s="23"/>
+        <v>169</v>
+      </c>
+      <c r="F33" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="G33" s="22"/>
       <c r="H33" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I33" s="12" t="s">
         <v>24</v>
       </c>
       <c r="J33" s="12"/>
       <c r="K33" s="14" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="L33" s="14" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="M33" s="14" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="N33" s="15"/>
-      <c r="O33" s="14" t="s">
-        <v>176</v>
+      <c r="O33" t="s">
+        <v>164</v>
       </c>
       <c r="P33" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q33" s="12"/>
+      <c r="R33" t="s">
+        <v>85</v>
+      </c>
+      <c r="S33" s="12"/>
+    </row>
+    <row r="34" spans="1:19" s="17" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A34" s="23" t="s">
+        <v>359</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="D34" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="Q33" s="12"/>
-      <c r="R33" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="S33" s="12"/>
-    </row>
-    <row r="34" spans="1:19" s="18" customFormat="1" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A34" s="24" t="s">
-        <v>356</v>
-      </c>
-      <c r="B34" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="C34" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="D34" s="12" t="s">
-        <v>88</v>
-      </c>
       <c r="E34" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="F34" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="G34" s="23"/>
+        <v>173</v>
+      </c>
+      <c r="F34" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="G34" s="22"/>
       <c r="H34" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I34" s="12" t="s">
         <v>24</v>
       </c>
       <c r="J34" s="12"/>
-      <c r="K34" s="14" t="s">
-        <v>186</v>
+      <c r="K34" s="27" t="s">
+        <v>360</v>
       </c>
       <c r="L34" s="14" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="M34" s="14" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="N34" s="15"/>
-      <c r="O34" s="14" t="s">
-        <v>176</v>
+      <c r="O34" t="s">
+        <v>164</v>
       </c>
       <c r="P34" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q34" s="12"/>
+      <c r="R34" t="s">
+        <v>85</v>
+      </c>
+      <c r="S34" s="12"/>
+    </row>
+    <row r="35" spans="1:19" s="17" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A35" s="23" t="s">
+        <v>334</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="D35" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="Q34" s="12"/>
-      <c r="R34" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="S34" s="12"/>
-    </row>
-    <row r="35" spans="1:19" s="18" customFormat="1" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A35" s="24" t="s">
-        <v>357</v>
-      </c>
-      <c r="B35" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="C35" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="D35" s="12" t="s">
-        <v>88</v>
-      </c>
       <c r="E35" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="F35" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="G35" s="23"/>
+        <v>174</v>
+      </c>
+      <c r="F35" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="G35" s="22"/>
       <c r="H35" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I35" s="12" t="s">
         <v>24</v>
       </c>
       <c r="J35" s="12"/>
       <c r="K35" s="14" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="L35" s="14" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="M35" s="14" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="N35" s="15"/>
-      <c r="O35" s="14" t="s">
-        <v>176</v>
+      <c r="O35" t="s">
+        <v>164</v>
       </c>
       <c r="P35" s="15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="Q35" s="12"/>
-      <c r="R35" s="22" t="s">
-        <v>87</v>
+      <c r="R35" t="s">
+        <v>85</v>
       </c>
       <c r="S35" s="12"/>
     </row>
-    <row r="36" spans="1:19" s="18" customFormat="1" ht="108" x14ac:dyDescent="0.15">
-      <c r="A36" s="24" t="s">
-        <v>358</v>
+    <row r="36" spans="1:19" s="17" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A36" s="23" t="s">
+        <v>327</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="C36" s="19" t="s">
-        <v>170</v>
+        <v>76</v>
+      </c>
+      <c r="C36" s="18" t="s">
+        <v>158</v>
       </c>
       <c r="D36" s="12" t="s">
         <v>20</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="F36" s="23" t="s">
-        <v>350</v>
-      </c>
-      <c r="G36" s="23"/>
+        <v>176</v>
+      </c>
+      <c r="F36" s="22" t="s">
+        <v>325</v>
+      </c>
+      <c r="G36" s="22"/>
       <c r="H36" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I36" s="12" t="s">
         <v>24</v>
       </c>
       <c r="J36" s="12"/>
-      <c r="K36" s="14" t="s">
-        <v>190</v>
+      <c r="K36" s="27" t="s">
+        <v>363</v>
       </c>
       <c r="L36" s="14" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="M36" s="14" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="N36" s="15"/>
-      <c r="O36" s="14" t="s">
-        <v>176</v>
+      <c r="O36" t="s">
+        <v>164</v>
       </c>
       <c r="P36" s="15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="Q36" s="12"/>
-      <c r="R36" s="22" t="s">
-        <v>87</v>
+      <c r="R36" t="s">
+        <v>85</v>
       </c>
       <c r="S36" s="12"/>
     </row>
-    <row r="37" spans="1:19" s="18" customFormat="1" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A37" s="24" t="s">
-        <v>360</v>
+    <row r="37" spans="1:19" s="17" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A37" s="23" t="s">
+        <v>339</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="D37" s="12" t="s">
         <v>20</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="F37" s="23" t="s">
-        <v>359</v>
-      </c>
-      <c r="G37" s="23"/>
+        <v>159</v>
+      </c>
+      <c r="F37" s="22" t="s">
+        <v>365</v>
+      </c>
+      <c r="G37" s="22"/>
       <c r="H37" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I37" s="12" t="s">
         <v>24</v>
       </c>
       <c r="J37" s="12"/>
       <c r="K37" s="14" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="L37" s="14" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="M37" s="14" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="N37" s="15"/>
-      <c r="O37" s="14" t="s">
-        <v>195</v>
+      <c r="O37" t="s">
+        <v>181</v>
       </c>
       <c r="P37" s="15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="Q37" s="12"/>
-      <c r="R37" s="22" t="s">
-        <v>87</v>
+      <c r="R37" s="25" t="s">
+        <v>364</v>
       </c>
       <c r="S37" s="12"/>
     </row>
-    <row r="38" spans="1:19" s="18" customFormat="1" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A38" s="24" t="s">
-        <v>361</v>
+    <row r="38" spans="1:19" s="17" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+      <c r="A38" s="23" t="s">
+        <v>328</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="D38" s="12" t="s">
         <v>20</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="F38" s="23" t="s">
-        <v>192</v>
-      </c>
-      <c r="G38" s="23"/>
+        <v>165</v>
+      </c>
+      <c r="F38" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="G38" s="22"/>
       <c r="H38" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I38" s="12" t="s">
         <v>24</v>
       </c>
       <c r="J38" s="12"/>
       <c r="K38" s="14" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="L38" s="14" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="M38" s="14" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="N38" s="15"/>
-      <c r="O38" s="14" t="s">
-        <v>195</v>
+      <c r="O38" t="s">
+        <v>181</v>
       </c>
       <c r="P38" s="15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="Q38" s="12"/>
-      <c r="R38" s="22" t="s">
-        <v>87</v>
+      <c r="R38" t="s">
+        <v>85</v>
       </c>
       <c r="S38" s="12"/>
     </row>
-    <row r="39" spans="1:19" s="18" customFormat="1" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A39" s="24" t="s">
-        <v>362</v>
+    <row r="39" spans="1:19" s="17" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+      <c r="A39" s="23" t="s">
+        <v>329</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="D39" s="12" t="s">
         <v>20</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="F39" s="23" t="s">
-        <v>192</v>
-      </c>
-      <c r="G39" s="23"/>
+        <v>183</v>
+      </c>
+      <c r="F39" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="G39" s="22"/>
       <c r="H39" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I39" s="12" t="s">
         <v>24</v>
       </c>
       <c r="J39" s="12"/>
       <c r="K39" s="14" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="L39" s="14" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="M39" s="14" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="N39" s="15"/>
-      <c r="O39" s="14" t="s">
-        <v>195</v>
+      <c r="O39" t="s">
+        <v>181</v>
       </c>
       <c r="P39" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q39" s="12"/>
+      <c r="R39" t="s">
+        <v>85</v>
+      </c>
+      <c r="S39" s="12"/>
+    </row>
+    <row r="40" spans="1:19" s="17" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+      <c r="A40" s="23" t="s">
+        <v>330</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="D40" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="Q39" s="12"/>
-      <c r="R39" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="S39" s="12"/>
-    </row>
-    <row r="40" spans="1:19" s="18" customFormat="1" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A40" s="24" t="s">
-        <v>363</v>
-      </c>
-      <c r="B40" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="C40" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="D40" s="12" t="s">
-        <v>88</v>
-      </c>
       <c r="E40" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="F40" s="23" t="s">
-        <v>192</v>
-      </c>
-      <c r="G40" s="23"/>
+        <v>169</v>
+      </c>
+      <c r="F40" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="G40" s="22"/>
       <c r="H40" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I40" s="12" t="s">
         <v>24</v>
       </c>
       <c r="J40" s="12"/>
       <c r="K40" s="14" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="L40" s="14" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="M40" s="14" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="N40" s="15"/>
-      <c r="O40" s="14" t="s">
-        <v>195</v>
+      <c r="O40" t="s">
+        <v>181</v>
       </c>
       <c r="P40" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q40" s="12"/>
+      <c r="R40" t="s">
+        <v>85</v>
+      </c>
+      <c r="S40" s="12"/>
+    </row>
+    <row r="41" spans="1:19" s="17" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A41" s="23" t="s">
+        <v>331</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="D41" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="Q40" s="12"/>
-      <c r="R40" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="S40" s="12"/>
-    </row>
-    <row r="41" spans="1:19" s="18" customFormat="1" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A41" s="24" t="s">
-        <v>364</v>
-      </c>
-      <c r="B41" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="C41" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="D41" s="12" t="s">
-        <v>88</v>
-      </c>
       <c r="E41" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="F41" s="23" t="s">
-        <v>192</v>
-      </c>
-      <c r="G41" s="23"/>
+        <v>173</v>
+      </c>
+      <c r="F41" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="G41" s="22"/>
       <c r="H41" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I41" s="12" t="s">
         <v>24</v>
       </c>
       <c r="J41" s="12"/>
       <c r="K41" s="14" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="L41" s="14" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="M41" s="14" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="N41" s="15"/>
-      <c r="O41" s="14" t="s">
-        <v>195</v>
+      <c r="O41" t="s">
+        <v>181</v>
       </c>
       <c r="P41" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q41" s="12"/>
+      <c r="R41" t="s">
+        <v>85</v>
+      </c>
+      <c r="S41" s="12"/>
+    </row>
+    <row r="42" spans="1:19" s="17" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A42" s="23" t="s">
+        <v>332</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="D42" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="Q41" s="12"/>
-      <c r="R41" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="S41" s="12"/>
-    </row>
-    <row r="42" spans="1:19" s="18" customFormat="1" ht="108" x14ac:dyDescent="0.15">
-      <c r="A42" s="24" t="s">
-        <v>365</v>
-      </c>
-      <c r="B42" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="C42" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="D42" s="12" t="s">
-        <v>88</v>
-      </c>
       <c r="E42" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="F42" s="23" t="s">
-        <v>192</v>
-      </c>
-      <c r="G42" s="23"/>
+        <v>174</v>
+      </c>
+      <c r="F42" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="G42" s="22"/>
       <c r="H42" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I42" s="12" t="s">
         <v>24</v>
       </c>
       <c r="J42" s="12"/>
       <c r="K42" s="14" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="L42" s="14" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="M42" s="14" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="N42" s="15"/>
-      <c r="O42" s="14" t="s">
-        <v>195</v>
+      <c r="O42" t="s">
+        <v>181</v>
       </c>
       <c r="P42" s="15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="Q42" s="12"/>
-      <c r="R42" s="22" t="s">
-        <v>87</v>
+      <c r="R42" t="s">
+        <v>85</v>
       </c>
       <c r="S42" s="12"/>
     </row>
-    <row r="43" spans="1:19" s="18" customFormat="1" ht="108" x14ac:dyDescent="0.15">
-      <c r="A43" s="24" t="s">
-        <v>366</v>
+    <row r="43" spans="1:19" s="17" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A43" s="23" t="s">
+        <v>333</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="D43" s="12" t="s">
         <v>20</v>
       </c>
       <c r="E43" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="F43" s="23" t="s">
-        <v>192</v>
-      </c>
-      <c r="G43" s="23"/>
+        <v>176</v>
+      </c>
+      <c r="F43" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="G43" s="22"/>
       <c r="H43" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I43" s="12" t="s">
         <v>24</v>
       </c>
       <c r="J43" s="12"/>
       <c r="K43" s="14" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="L43" s="14" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="M43" s="14" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="N43" s="15"/>
-      <c r="O43" s="14" t="s">
-        <v>195</v>
+      <c r="O43" t="s">
+        <v>181</v>
       </c>
       <c r="P43" s="15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="Q43" s="12"/>
-      <c r="R43" s="22" t="s">
-        <v>87</v>
+      <c r="R43" t="s">
+        <v>85</v>
       </c>
       <c r="S43" s="12"/>
     </row>
-    <row r="44" spans="1:19" s="18" customFormat="1" ht="54" x14ac:dyDescent="0.15">
-      <c r="A44" s="24" t="s">
-        <v>204</v>
+    <row r="44" spans="1:19" s="17" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+      <c r="A44" s="23" t="s">
+        <v>190</v>
       </c>
       <c r="B44" s="12" t="s">
         <v>18</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="D44" s="12" t="s">
         <v>20</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="F44" s="23" t="s">
-        <v>207</v>
-      </c>
-      <c r="G44" s="23"/>
+        <v>192</v>
+      </c>
+      <c r="F44" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="G44" s="22"/>
       <c r="H44" s="12" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="I44" s="12" t="s">
         <v>24</v>
       </c>
       <c r="J44" s="12"/>
       <c r="K44" s="14" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="L44" s="14" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="M44" s="14" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="N44" s="15"/>
       <c r="O44" s="14"/>
@@ -4502,38 +4602,38 @@
         <v>64</v>
       </c>
       <c r="Q44" s="12"/>
-      <c r="R44" s="22"/>
+      <c r="R44" s="21"/>
       <c r="S44" s="12"/>
     </row>
-    <row r="45" spans="1:19" s="18" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:19" s="17" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A45" s="12" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="B45" s="12" t="s">
         <v>18</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="D45" s="12" t="s">
         <v>31</v>
       </c>
       <c r="E45" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="F45" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="G45" s="23"/>
+        <v>199</v>
+      </c>
+      <c r="F45" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="G45" s="22"/>
       <c r="H45" s="12" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="I45" s="12" t="s">
         <v>24</v>
       </c>
       <c r="J45" s="12"/>
       <c r="K45" s="14" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="L45" s="14" t="s">
         <v>65</v>
@@ -4547,44 +4647,44 @@
         <v>64</v>
       </c>
       <c r="Q45" s="12"/>
-      <c r="R45" s="22"/>
+      <c r="R45" s="21"/>
       <c r="S45" s="12"/>
     </row>
-    <row r="46" spans="1:19" s="18" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:19" s="17" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A46" s="12" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="B46" s="12" t="s">
         <v>18</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="D46" s="12" t="s">
         <v>31</v>
       </c>
       <c r="E46" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="F46" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="G46" s="23"/>
+        <v>202</v>
+      </c>
+      <c r="F46" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="G46" s="22"/>
       <c r="H46" s="12" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="I46" s="12" t="s">
         <v>24</v>
       </c>
       <c r="J46" s="12"/>
       <c r="K46" s="14" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="L46" s="14" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="M46" s="14" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="N46" s="15"/>
       <c r="O46" s="14"/>
@@ -4592,44 +4692,44 @@
         <v>64</v>
       </c>
       <c r="Q46" s="12"/>
-      <c r="R46" s="22"/>
+      <c r="R46" s="21"/>
       <c r="S46" s="12"/>
     </row>
-    <row r="47" spans="1:19" s="18" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:19" s="17" customFormat="1" ht="54" x14ac:dyDescent="0.15">
       <c r="A47" s="12" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="B47" s="12" t="s">
         <v>18</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="D47" s="12" t="s">
         <v>31</v>
       </c>
       <c r="E47" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="F47" s="23" t="s">
-        <v>207</v>
-      </c>
-      <c r="G47" s="23"/>
+        <v>206</v>
+      </c>
+      <c r="F47" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="G47" s="22"/>
       <c r="H47" s="12" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="I47" s="12" t="s">
         <v>24</v>
       </c>
       <c r="J47" s="12"/>
       <c r="K47" s="14" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="L47" s="14" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="M47" s="14" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="N47" s="15"/>
       <c r="O47" s="14"/>
@@ -4637,44 +4737,44 @@
         <v>64</v>
       </c>
       <c r="Q47" s="12"/>
-      <c r="R47" s="22"/>
+      <c r="R47" s="21"/>
       <c r="S47" s="12"/>
     </row>
-    <row r="48" spans="1:19" s="18" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:19" s="17" customFormat="1" ht="54" x14ac:dyDescent="0.15">
       <c r="A48" s="12" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="B48" s="12" t="s">
         <v>18</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="D48" s="12" t="s">
         <v>31</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>225</v>
-      </c>
-      <c r="F48" s="23" t="s">
-        <v>207</v>
-      </c>
-      <c r="G48" s="23"/>
+        <v>211</v>
+      </c>
+      <c r="F48" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="G48" s="22"/>
       <c r="H48" s="12" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="I48" s="12" t="s">
         <v>24</v>
       </c>
       <c r="J48" s="12"/>
       <c r="K48" s="14" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="L48" s="14" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="M48" s="14" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="N48" s="15"/>
       <c r="O48" s="14"/>
@@ -4682,44 +4782,44 @@
         <v>64</v>
       </c>
       <c r="Q48" s="12"/>
-      <c r="R48" s="22"/>
+      <c r="R48" s="21"/>
       <c r="S48" s="12"/>
     </row>
-    <row r="49" spans="1:19" s="18" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:19" s="17" customFormat="1" ht="54" x14ac:dyDescent="0.15">
       <c r="A49" s="12" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="B49" s="12" t="s">
         <v>18</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="D49" s="12" t="s">
         <v>31</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="F49" s="23" t="s">
-        <v>207</v>
-      </c>
-      <c r="G49" s="23"/>
+        <v>214</v>
+      </c>
+      <c r="F49" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="G49" s="22"/>
       <c r="H49" s="12" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="I49" s="12" t="s">
         <v>24</v>
       </c>
       <c r="J49" s="12"/>
       <c r="K49" s="14" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="L49" s="14" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="M49" s="14" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="N49" s="15"/>
       <c r="O49" s="14"/>
@@ -4727,44 +4827,44 @@
         <v>64</v>
       </c>
       <c r="Q49" s="12"/>
-      <c r="R49" s="22"/>
+      <c r="R49" s="21"/>
       <c r="S49" s="12"/>
     </row>
-    <row r="50" spans="1:19" s="18" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:19" s="17" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A50" s="12" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="B50" s="12" t="s">
         <v>18</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="D50" s="12" t="s">
         <v>31</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>232</v>
-      </c>
-      <c r="F50" s="23" t="s">
-        <v>207</v>
-      </c>
-      <c r="G50" s="23"/>
+        <v>218</v>
+      </c>
+      <c r="F50" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="G50" s="22"/>
       <c r="H50" s="12" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="I50" s="12" t="s">
         <v>24</v>
       </c>
       <c r="J50" s="12"/>
       <c r="K50" s="14" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="L50" s="14" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="M50" s="14" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="N50" s="15"/>
       <c r="O50" s="14"/>
@@ -4772,44 +4872,44 @@
         <v>64</v>
       </c>
       <c r="Q50" s="12"/>
-      <c r="R50" s="22"/>
+      <c r="R50" s="21"/>
       <c r="S50" s="12"/>
     </row>
-    <row r="51" spans="1:19" s="18" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:19" s="17" customFormat="1" ht="54" x14ac:dyDescent="0.15">
       <c r="A51" s="12" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="B51" s="12" t="s">
         <v>18</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="D51" s="12" t="s">
         <v>20</v>
       </c>
       <c r="E51" s="12" t="s">
-        <v>236</v>
-      </c>
-      <c r="F51" s="23" t="s">
-        <v>237</v>
-      </c>
-      <c r="G51" s="23"/>
+        <v>222</v>
+      </c>
+      <c r="F51" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="G51" s="22"/>
       <c r="H51" s="12" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="I51" s="12" t="s">
         <v>24</v>
       </c>
       <c r="J51" s="12"/>
       <c r="K51" s="14" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="L51" s="14" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="M51" s="14" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="N51" s="15"/>
       <c r="O51" s="14"/>
@@ -4817,44 +4917,44 @@
         <v>64</v>
       </c>
       <c r="Q51" s="12"/>
-      <c r="R51" s="22"/>
+      <c r="R51" s="21"/>
       <c r="S51" s="12"/>
     </row>
-    <row r="52" spans="1:19" s="18" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:19" s="17" customFormat="1" ht="54" x14ac:dyDescent="0.15">
       <c r="A52" s="12" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="B52" s="12" t="s">
         <v>18</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="D52" s="12" t="s">
         <v>31</v>
       </c>
       <c r="E52" s="12" t="s">
-        <v>241</v>
-      </c>
-      <c r="F52" s="23" t="s">
-        <v>237</v>
-      </c>
-      <c r="G52" s="23"/>
+        <v>227</v>
+      </c>
+      <c r="F52" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="G52" s="22"/>
       <c r="H52" s="12" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="I52" s="12" t="s">
         <v>24</v>
       </c>
       <c r="J52" s="12"/>
       <c r="K52" s="14" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="L52" s="14" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="M52" s="14" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="N52" s="15"/>
       <c r="O52" s="14"/>
@@ -4862,44 +4962,44 @@
         <v>64</v>
       </c>
       <c r="Q52" s="12"/>
-      <c r="R52" s="22"/>
+      <c r="R52" s="21"/>
       <c r="S52" s="12"/>
     </row>
-    <row r="53" spans="1:19" s="18" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:19" s="17" customFormat="1" ht="54" x14ac:dyDescent="0.15">
       <c r="A53" s="12" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="B53" s="12" t="s">
         <v>18</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="D53" s="12" t="s">
         <v>31</v>
       </c>
       <c r="E53" s="12" t="s">
-        <v>244</v>
-      </c>
-      <c r="F53" s="23" t="s">
-        <v>237</v>
-      </c>
-      <c r="G53" s="23"/>
+        <v>230</v>
+      </c>
+      <c r="F53" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="G53" s="22"/>
       <c r="H53" s="12" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="I53" s="12" t="s">
         <v>24</v>
       </c>
       <c r="J53" s="12"/>
       <c r="K53" s="14" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="L53" s="14" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="M53" s="14" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="N53" s="15"/>
       <c r="O53" s="14"/>
@@ -4907,46 +5007,46 @@
         <v>64</v>
       </c>
       <c r="Q53" s="12"/>
-      <c r="R53" s="22" t="s">
-        <v>247</v>
+      <c r="R53" s="21" t="s">
+        <v>233</v>
       </c>
       <c r="S53" s="12"/>
     </row>
-    <row r="54" spans="1:19" s="18" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:19" s="17" customFormat="1" ht="54" x14ac:dyDescent="0.15">
       <c r="A54" s="12" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="B54" s="12" t="s">
         <v>18</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="D54" s="12" t="s">
         <v>31</v>
       </c>
       <c r="E54" s="12" t="s">
-        <v>249</v>
-      </c>
-      <c r="F54" s="23" t="s">
-        <v>237</v>
-      </c>
-      <c r="G54" s="23"/>
+        <v>235</v>
+      </c>
+      <c r="F54" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="G54" s="22"/>
       <c r="H54" s="12" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="I54" s="12" t="s">
         <v>24</v>
       </c>
       <c r="J54" s="12"/>
       <c r="K54" s="14" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="L54" s="14" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="M54" s="14" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="N54" s="15"/>
       <c r="O54" s="14"/>
@@ -4954,44 +5054,44 @@
         <v>64</v>
       </c>
       <c r="Q54" s="12"/>
-      <c r="R54" s="22"/>
+      <c r="R54" s="21"/>
       <c r="S54" s="12"/>
     </row>
-    <row r="55" spans="1:19" s="18" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:19" s="17" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A55" s="12" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="B55" s="12" t="s">
         <v>18</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="D55" s="12" t="s">
         <v>31</v>
       </c>
       <c r="E55" s="12" t="s">
-        <v>253</v>
-      </c>
-      <c r="F55" s="23" t="s">
-        <v>237</v>
-      </c>
-      <c r="G55" s="23"/>
+        <v>239</v>
+      </c>
+      <c r="F55" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="G55" s="22"/>
       <c r="H55" s="12" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="I55" s="12" t="s">
         <v>24</v>
       </c>
       <c r="J55" s="12"/>
       <c r="K55" s="14" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="L55" s="14" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="M55" s="14" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="N55" s="15"/>
       <c r="O55" s="14"/>
@@ -4999,835 +5099,695 @@
         <v>64</v>
       </c>
       <c r="Q55" s="12"/>
-      <c r="R55" s="22"/>
+      <c r="R55" s="21"/>
       <c r="S55" s="12"/>
     </row>
     <row r="56" spans="1:19" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="12" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="D56" s="12" t="s">
         <v>20</v>
       </c>
       <c r="E56" s="12" t="s">
-        <v>259</v>
-      </c>
-      <c r="F56" s="23" t="s">
-        <v>260</v>
-      </c>
-      <c r="G56" s="23"/>
+        <v>245</v>
+      </c>
+      <c r="F56" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="G56" s="22"/>
       <c r="H56" s="12" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="I56" s="12" t="s">
         <v>63</v>
       </c>
       <c r="K56" s="14" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
       <c r="L56" s="14" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="M56" s="14" t="s">
-        <v>263</v>
-      </c>
-      <c r="O56" s="25" t="s">
-        <v>264</v>
+        <v>249</v>
+      </c>
+      <c r="O56" t="s">
+        <v>250</v>
       </c>
       <c r="P56" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="R56" s="22" t="s">
-        <v>87</v>
+        <v>84</v>
+      </c>
+      <c r="R56" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="57" spans="1:19" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="12" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="D57" s="12" t="s">
         <v>20</v>
       </c>
       <c r="E57" s="12" t="s">
-        <v>266</v>
-      </c>
-      <c r="F57" s="23" t="s">
-        <v>260</v>
-      </c>
-      <c r="G57" s="23"/>
+        <v>252</v>
+      </c>
+      <c r="F57" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="G57" s="22"/>
       <c r="H57" s="12" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="I57" s="12" t="s">
         <v>63</v>
       </c>
       <c r="K57" s="14" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="L57" s="14" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="M57" s="14" t="s">
-        <v>268</v>
-      </c>
-      <c r="O57" s="25" t="s">
-        <v>264</v>
+        <v>254</v>
+      </c>
+      <c r="O57" t="s">
+        <v>250</v>
       </c>
       <c r="P57" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="R57" s="22" t="s">
-        <v>87</v>
+        <v>84</v>
+      </c>
+      <c r="R57" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="58" spans="1:19" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="12" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="D58" s="12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E58" s="12" t="s">
-        <v>270</v>
-      </c>
-      <c r="F58" s="23" t="s">
-        <v>260</v>
-      </c>
-      <c r="G58" s="23"/>
+        <v>256</v>
+      </c>
+      <c r="F58" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="G58" s="22"/>
       <c r="H58" s="12" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="I58" s="12" t="s">
         <v>63</v>
       </c>
       <c r="K58" s="14" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
       <c r="L58" s="14" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="M58" s="14" t="s">
-        <v>272</v>
-      </c>
-      <c r="O58" s="25" t="s">
-        <v>264</v>
+        <v>258</v>
+      </c>
+      <c r="O58" t="s">
+        <v>250</v>
       </c>
       <c r="P58" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="R58" s="22" t="s">
-        <v>87</v>
+        <v>84</v>
+      </c>
+      <c r="R58" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="59" spans="1:19" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="12" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="D59" s="12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E59" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="F59" s="23" t="s">
-        <v>260</v>
-      </c>
-      <c r="G59" s="23"/>
+        <v>152</v>
+      </c>
+      <c r="F59" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="G59" s="22"/>
       <c r="H59" s="12" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="I59" s="12" t="s">
         <v>63</v>
       </c>
       <c r="K59" s="14" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
       <c r="L59" s="14" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="M59" s="14" t="s">
-        <v>272</v>
-      </c>
-      <c r="O59" s="25" t="s">
-        <v>264</v>
+        <v>258</v>
+      </c>
+      <c r="O59" t="s">
+        <v>250</v>
       </c>
       <c r="P59" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="R59" s="22" t="s">
-        <v>87</v>
+        <v>84</v>
+      </c>
+      <c r="R59" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="60" spans="1:19" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="12" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="D60" s="12" t="s">
         <v>20</v>
       </c>
       <c r="E60" s="12" t="s">
-        <v>276</v>
-      </c>
-      <c r="F60" s="23" t="s">
-        <v>260</v>
-      </c>
-      <c r="G60" s="23"/>
+        <v>262</v>
+      </c>
+      <c r="F60" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="G60" s="22"/>
       <c r="H60" s="12" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="I60" s="12" t="s">
         <v>63</v>
       </c>
       <c r="K60" s="14" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c r="L60" s="14" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="M60" s="14" t="s">
-        <v>272</v>
-      </c>
-      <c r="O60" s="25" t="s">
-        <v>264</v>
+        <v>258</v>
+      </c>
+      <c r="O60" t="s">
+        <v>250</v>
       </c>
       <c r="P60" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="R60" s="22" t="s">
-        <v>87</v>
+        <v>84</v>
+      </c>
+      <c r="R60" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="61" spans="1:19" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="12" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="D61" s="12" t="s">
         <v>20</v>
       </c>
       <c r="E61" s="12" t="s">
-        <v>259</v>
-      </c>
-      <c r="F61" s="23" t="s">
-        <v>260</v>
-      </c>
-      <c r="G61" s="23"/>
+        <v>245</v>
+      </c>
+      <c r="F61" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="G61" s="22"/>
       <c r="H61" s="12" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="I61" s="12" t="s">
         <v>63</v>
       </c>
       <c r="K61" s="14" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="L61" s="14" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="M61" s="14" t="s">
-        <v>263</v>
-      </c>
-      <c r="O61" s="25" t="s">
-        <v>264</v>
+        <v>249</v>
+      </c>
+      <c r="O61" t="s">
+        <v>250</v>
       </c>
       <c r="P61" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="R61" s="22" t="s">
-        <v>87</v>
+        <v>84</v>
+      </c>
+      <c r="R61" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="62" spans="1:19" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="12" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="D62" s="12" t="s">
         <v>20</v>
       </c>
       <c r="E62" s="12" t="s">
-        <v>266</v>
-      </c>
-      <c r="F62" s="23" t="s">
-        <v>260</v>
-      </c>
-      <c r="G62" s="23"/>
+        <v>252</v>
+      </c>
+      <c r="F62" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="G62" s="22"/>
       <c r="H62" s="12" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="I62" s="12" t="s">
         <v>63</v>
       </c>
       <c r="K62" s="14" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="L62" s="14" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="M62" s="14" t="s">
-        <v>268</v>
-      </c>
-      <c r="O62" s="25" t="s">
-        <v>264</v>
+        <v>254</v>
+      </c>
+      <c r="O62" t="s">
+        <v>250</v>
       </c>
       <c r="P62" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="R62" s="22" t="s">
-        <v>87</v>
+        <v>84</v>
+      </c>
+      <c r="R62" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="63" spans="1:19" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="12" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="D63" s="12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E63" s="12" t="s">
-        <v>270</v>
-      </c>
-      <c r="F63" s="23" t="s">
-        <v>260</v>
-      </c>
-      <c r="G63" s="23"/>
+        <v>256</v>
+      </c>
+      <c r="F63" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="G63" s="22"/>
       <c r="H63" s="12" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="I63" s="12" t="s">
         <v>63</v>
       </c>
       <c r="K63" s="14" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="L63" s="14" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="M63" s="14" t="s">
-        <v>285</v>
-      </c>
-      <c r="O63" s="25" t="s">
-        <v>264</v>
+        <v>271</v>
+      </c>
+      <c r="O63" t="s">
+        <v>250</v>
       </c>
       <c r="P63" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="R63" s="22" t="s">
-        <v>87</v>
+        <v>84</v>
+      </c>
+      <c r="R63" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="64" spans="1:19" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="12" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="D64" s="12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E64" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="F64" s="23" t="s">
-        <v>260</v>
-      </c>
-      <c r="G64" s="23"/>
+        <v>152</v>
+      </c>
+      <c r="F64" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="G64" s="22"/>
       <c r="H64" s="12" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="I64" s="12" t="s">
         <v>63</v>
       </c>
       <c r="K64" s="14" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="L64" s="14" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="M64" s="14" t="s">
-        <v>285</v>
-      </c>
-      <c r="O64" s="25" t="s">
-        <v>264</v>
+        <v>271</v>
+      </c>
+      <c r="O64" t="s">
+        <v>250</v>
       </c>
       <c r="P64" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="R64" s="22" t="s">
-        <v>87</v>
+        <v>84</v>
+      </c>
+      <c r="R64" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="65" spans="1:18" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="12" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="D65" s="12" t="s">
         <v>20</v>
       </c>
       <c r="E65" s="12" t="s">
-        <v>289</v>
-      </c>
-      <c r="F65" s="23" t="s">
-        <v>260</v>
-      </c>
-      <c r="G65" s="23"/>
+        <v>275</v>
+      </c>
+      <c r="F65" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="G65" s="22"/>
       <c r="H65" s="12" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="I65" s="12" t="s">
         <v>63</v>
       </c>
       <c r="K65" s="14" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="L65" s="14" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="M65" s="14" t="s">
-        <v>285</v>
-      </c>
-      <c r="O65" s="25" t="s">
-        <v>264</v>
+        <v>271</v>
+      </c>
+      <c r="O65" t="s">
+        <v>250</v>
       </c>
       <c r="P65" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="R65" s="22" t="s">
-        <v>87</v>
+        <v>84</v>
+      </c>
+      <c r="R65" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="66" spans="1:18" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="12" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="C66" s="19" t="s">
-        <v>292</v>
+        <v>243</v>
+      </c>
+      <c r="C66" s="18" t="s">
+        <v>278</v>
       </c>
       <c r="D66" s="12" t="s">
         <v>31</v>
       </c>
       <c r="E66" s="12" t="s">
-        <v>293</v>
-      </c>
-      <c r="F66" s="23" t="s">
-        <v>294</v>
-      </c>
-      <c r="G66" s="23"/>
+        <v>279</v>
+      </c>
+      <c r="F66" s="22" t="s">
+        <v>280</v>
+      </c>
+      <c r="G66" s="22"/>
       <c r="H66" s="12" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="I66" s="12" t="s">
         <v>63</v>
       </c>
       <c r="L66" s="14" t="s">
-        <v>295</v>
+        <v>281</v>
       </c>
       <c r="M66" s="14" t="s">
-        <v>296</v>
-      </c>
-      <c r="O66" s="25" t="s">
-        <v>297</v>
+        <v>282</v>
+      </c>
+      <c r="O66" t="s">
+        <v>283</v>
       </c>
       <c r="P66" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="R66" s="22" t="s">
-        <v>87</v>
+        <v>84</v>
+      </c>
+      <c r="R66" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="67" spans="1:18" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="12" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="C67" s="19" t="s">
-        <v>299</v>
+        <v>243</v>
+      </c>
+      <c r="C67" s="18" t="s">
+        <v>285</v>
       </c>
       <c r="D67" s="12" t="s">
         <v>20</v>
       </c>
       <c r="E67" s="12" t="s">
-        <v>300</v>
-      </c>
-      <c r="F67" s="23" t="s">
-        <v>301</v>
-      </c>
-      <c r="G67" s="23"/>
+        <v>286</v>
+      </c>
+      <c r="F67" s="22" t="s">
+        <v>287</v>
+      </c>
+      <c r="G67" s="22"/>
       <c r="H67" s="12" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="I67" s="12" t="s">
         <v>63</v>
       </c>
       <c r="K67" s="14" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="L67" s="14" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
       <c r="M67" s="14" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
       <c r="O67" s="14" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
       <c r="P67" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="R67" s="22" t="s">
-        <v>87</v>
+        <v>84</v>
+      </c>
+      <c r="R67" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="68" spans="1:18" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="12" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="C68" s="19" t="s">
-        <v>299</v>
+        <v>243</v>
+      </c>
+      <c r="C68" s="18" t="s">
+        <v>285</v>
       </c>
       <c r="D68" s="12" t="s">
         <v>20</v>
       </c>
       <c r="E68" s="12" t="s">
-        <v>307</v>
-      </c>
-      <c r="F68" s="23" t="s">
-        <v>301</v>
-      </c>
-      <c r="G68" s="23"/>
+        <v>293</v>
+      </c>
+      <c r="F68" s="22" t="s">
+        <v>287</v>
+      </c>
+      <c r="G68" s="22"/>
       <c r="H68" s="12" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="I68" s="12" t="s">
         <v>63</v>
       </c>
       <c r="K68" s="14" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="L68" s="14" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
       <c r="M68" s="14" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="O68" s="14" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
       <c r="P68" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="R68" s="22" t="s">
-        <v>87</v>
+        <v>84</v>
+      </c>
+      <c r="R68" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="69" spans="1:18" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="12" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="C69" s="19" t="s">
-        <v>299</v>
+        <v>243</v>
+      </c>
+      <c r="C69" s="18" t="s">
+        <v>285</v>
       </c>
       <c r="D69" s="12" t="s">
         <v>20</v>
       </c>
       <c r="E69" s="12" t="s">
-        <v>311</v>
-      </c>
-      <c r="F69" s="23" t="s">
-        <v>301</v>
-      </c>
-      <c r="G69" s="23"/>
+        <v>297</v>
+      </c>
+      <c r="F69" s="22" t="s">
+        <v>287</v>
+      </c>
+      <c r="G69" s="22"/>
       <c r="H69" s="12" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="I69" s="12" t="s">
         <v>63</v>
       </c>
       <c r="K69" s="14" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="L69" s="14" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
       <c r="M69" s="14" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="O69" s="14" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
       <c r="P69" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="R69" s="22" t="s">
-        <v>87</v>
+        <v>84</v>
+      </c>
+      <c r="R69" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="70" spans="1:18" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="12" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="C70" s="19" t="s">
-        <v>299</v>
+        <v>243</v>
+      </c>
+      <c r="C70" s="18" t="s">
+        <v>285</v>
       </c>
       <c r="D70" s="12" t="s">
         <v>20</v>
       </c>
       <c r="E70" s="12" t="s">
-        <v>315</v>
-      </c>
-      <c r="F70" s="23" t="s">
         <v>301</v>
       </c>
-      <c r="G70" s="23"/>
+      <c r="F70" s="22" t="s">
+        <v>287</v>
+      </c>
+      <c r="G70" s="22"/>
       <c r="H70" s="12" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="I70" s="12" t="s">
         <v>63</v>
       </c>
       <c r="K70" s="14" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="L70" s="14" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="M70" s="14" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="O70" s="14" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
       <c r="P70" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="R70" s="22" t="s">
-        <v>87</v>
+        <v>84</v>
+      </c>
+      <c r="R70" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
   <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="R2" r:id="rId1"/>
-    <hyperlink ref="R3" r:id="rId2"/>
-    <hyperlink ref="R4" r:id="rId3"/>
-    <hyperlink ref="R5" r:id="rId4"/>
-    <hyperlink ref="R6" r:id="rId5"/>
-    <hyperlink ref="R7" r:id="rId6"/>
-    <hyperlink ref="R8" r:id="rId7"/>
-    <hyperlink ref="R9" r:id="rId8"/>
-    <hyperlink ref="R10" r:id="rId9"/>
-    <hyperlink ref="R11" r:id="rId10"/>
-    <hyperlink ref="R12" r:id="rId11"/>
-    <hyperlink ref="R13" r:id="rId12"/>
-    <hyperlink ref="R14" r:id="rId13"/>
-    <hyperlink ref="R15" r:id="rId14"/>
-    <hyperlink ref="R16" r:id="rId15"/>
-    <hyperlink ref="R17" r:id="rId16"/>
-    <hyperlink ref="R18" r:id="rId17"/>
-    <hyperlink ref="R19" r:id="rId18"/>
-    <hyperlink ref="R20" r:id="rId19"/>
-    <hyperlink ref="R21" r:id="rId20"/>
-    <hyperlink ref="R22" r:id="rId21"/>
-    <hyperlink ref="R23" r:id="rId22"/>
-    <hyperlink ref="R24" r:id="rId23"/>
-    <hyperlink ref="R25" r:id="rId24"/>
-    <hyperlink ref="R26" r:id="rId25"/>
-    <hyperlink ref="R27" r:id="rId26"/>
-    <hyperlink ref="R28" r:id="rId27"/>
-    <hyperlink ref="R29" r:id="rId28"/>
-    <hyperlink ref="R30" r:id="rId29"/>
-    <hyperlink ref="R31" r:id="rId30"/>
-    <hyperlink ref="R32" r:id="rId31"/>
-    <hyperlink ref="R33" r:id="rId32"/>
-    <hyperlink ref="R34" r:id="rId33"/>
-    <hyperlink ref="R35" r:id="rId34"/>
-    <hyperlink ref="R36" r:id="rId35"/>
-    <hyperlink ref="R37" r:id="rId36"/>
-    <hyperlink ref="R38" r:id="rId37"/>
-    <hyperlink ref="R39" r:id="rId38"/>
-    <hyperlink ref="R40" r:id="rId39"/>
-    <hyperlink ref="R41" r:id="rId40"/>
-    <hyperlink ref="R42" r:id="rId41"/>
-    <hyperlink ref="R43" r:id="rId42"/>
-    <hyperlink ref="O37" r:id="rId43" tooltip="http://yapi.hikcreate.com/project/31/interface/api/11027"/>
-    <hyperlink ref="O38" r:id="rId44" tooltip="http://yapi.hikcreate.com/project/31/interface/api/11027"/>
-    <hyperlink ref="O39" r:id="rId45" tooltip="http://yapi.hikcreate.com/project/31/interface/api/11027"/>
-    <hyperlink ref="O40" r:id="rId46" tooltip="http://yapi.hikcreate.com/project/31/interface/api/11027"/>
-    <hyperlink ref="O41" r:id="rId47" tooltip="http://yapi.hikcreate.com/project/31/interface/api/11027"/>
-    <hyperlink ref="O42" r:id="rId48" tooltip="http://yapi.hikcreate.com/project/31/interface/api/11027"/>
-    <hyperlink ref="O43" r:id="rId49" tooltip="http://yapi.hikcreate.com/project/31/interface/api/11027"/>
-    <hyperlink ref="O30" r:id="rId50" tooltip="http://yapi.hikcreate.com/project/31/interface/api/10974"/>
-    <hyperlink ref="O31" r:id="rId51" tooltip="http://yapi.hikcreate.com/project/31/interface/api/10974"/>
-    <hyperlink ref="O32" r:id="rId52" tooltip="http://yapi.hikcreate.com/project/31/interface/api/10974"/>
-    <hyperlink ref="O33" r:id="rId53" tooltip="http://yapi.hikcreate.com/project/31/interface/api/10974"/>
-    <hyperlink ref="O34" r:id="rId54" tooltip="http://yapi.hikcreate.com/project/31/interface/api/10974"/>
-    <hyperlink ref="O35" r:id="rId55" tooltip="http://yapi.hikcreate.com/project/31/interface/api/10974"/>
-    <hyperlink ref="O36" r:id="rId56" tooltip="http://yapi.hikcreate.com/project/31/interface/api/10974"/>
-    <hyperlink ref="O2" r:id="rId57" tooltip="http://yapi.hikcreate.com/project/31/interface/api/10745"/>
-    <hyperlink ref="O3" r:id="rId58" tooltip="http://yapi.hikcreate.com/project/31/interface/api/10745"/>
-    <hyperlink ref="O4" r:id="rId59" tooltip="http://yapi.hikcreate.com/project/31/interface/api/10745"/>
-    <hyperlink ref="O5" r:id="rId60" tooltip="http://yapi.hikcreate.com/project/31/interface/api/10745"/>
-    <hyperlink ref="O6" r:id="rId61" tooltip="http://yapi.hikcreate.com/project/31/interface/api/10745"/>
-    <hyperlink ref="O7" r:id="rId62" tooltip="http://yapi.hikcreate.com/project/31/interface/api/10745"/>
-    <hyperlink ref="O8" r:id="rId63" tooltip="http://yapi.hikcreate.com/project/31/interface/api/20446"/>
-    <hyperlink ref="O9" r:id="rId64" tooltip="http://yapi.hikcreate.com/project/31/interface/api/20446"/>
-    <hyperlink ref="O10" r:id="rId65" tooltip="http://yapi.hikcreate.com/project/31/interface/api/20446"/>
-    <hyperlink ref="O11" r:id="rId66" tooltip="http://yapi.hikcreate.com/project/31/interface/api/20446"/>
-    <hyperlink ref="O12" r:id="rId67" tooltip="http://yapi.hikcreate.com/project/31/interface/api/10943"/>
-    <hyperlink ref="O13" r:id="rId68" tooltip="http://yapi.hikcreate.com/project/31/interface/api/10943"/>
-    <hyperlink ref="O14" r:id="rId69" tooltip="http://yapi.hikcreate.com/project/31/interface/api/10943"/>
-    <hyperlink ref="O15" r:id="rId70" tooltip="http://yapi.hikcreate.com/project/31/interface/api/10943"/>
-    <hyperlink ref="O16" r:id="rId71" tooltip="http://yapi.hikcreate.com/project/31/interface/api/10943"/>
-    <hyperlink ref="O17" r:id="rId72" tooltip="http://yapi.hikcreate.com/project/31/interface/api/10943"/>
-    <hyperlink ref="O18" r:id="rId73" tooltip="http://yapi.hikcreate.com/project/31/interface/api/10943"/>
-    <hyperlink ref="O19" r:id="rId74" tooltip="http://yapi.hikcreate.com/project/31/interface/api/10943"/>
-    <hyperlink ref="O20" r:id="rId75" tooltip="http://yapi.hikcreate.com/project/31/interface/api/10943"/>
-    <hyperlink ref="O21" r:id="rId76" tooltip="http://yapi.hikcreate.com/project/31/interface/api/10943"/>
-    <hyperlink ref="O22" r:id="rId77" tooltip="http://yapi.hikcreate.com/project/31/interface/api/10943"/>
-    <hyperlink ref="O23" r:id="rId78" tooltip="http://yapi.hikcreate.com/project/31/interface/api/10787"/>
-    <hyperlink ref="O24" r:id="rId79" tooltip="http://yapi.hikcreate.com/project/31/interface/api/10787"/>
-    <hyperlink ref="O25" r:id="rId80" tooltip="http://yapi.hikcreate.com/project/31/interface/api/10787"/>
-    <hyperlink ref="O26" r:id="rId81" tooltip="http://yapi.hikcreate.com/project/31/interface/api/10787"/>
-    <hyperlink ref="O27" r:id="rId82" tooltip="http://yapi.hikcreate.com/project/31/interface/api/10787"/>
-    <hyperlink ref="O28" r:id="rId83" tooltip="http://yapi.hikcreate.com/project/31/interface/api/10787"/>
-    <hyperlink ref="O29" r:id="rId84" tooltip="http://yapi.hikcreate.com/project/31/interface/api/10787"/>
-    <hyperlink ref="R56" r:id="rId85"/>
-    <hyperlink ref="R57" r:id="rId86"/>
-    <hyperlink ref="R58" r:id="rId87"/>
-    <hyperlink ref="R59" r:id="rId88"/>
-    <hyperlink ref="R60" r:id="rId89"/>
-    <hyperlink ref="R61" r:id="rId90"/>
-    <hyperlink ref="R62" r:id="rId91"/>
-    <hyperlink ref="R63" r:id="rId92"/>
-    <hyperlink ref="R64" r:id="rId93"/>
-    <hyperlink ref="R65" r:id="rId94"/>
-    <hyperlink ref="R66" r:id="rId95"/>
-    <hyperlink ref="R67" r:id="rId96"/>
-    <hyperlink ref="R68" r:id="rId97"/>
-    <hyperlink ref="R69" r:id="rId98"/>
-    <hyperlink ref="R70" r:id="rId99" tooltip="http://testbmcapp.hikcreate.com"/>
-    <hyperlink ref="O66" r:id="rId100" tooltip="http://yapi.hikcreate.com/project/31/interface/api/4942"/>
-    <hyperlink ref="O65" r:id="rId101" tooltip="http://yapi.hikcreate.com/project/31/interface/api/4510"/>
-    <hyperlink ref="O64" r:id="rId102" tooltip="http://yapi.hikcreate.com/project/31/interface/api/4510"/>
-    <hyperlink ref="O63" r:id="rId103" tooltip="http://yapi.hikcreate.com/project/31/interface/api/4510"/>
-    <hyperlink ref="O62" r:id="rId104" tooltip="http://yapi.hikcreate.com/project/31/interface/api/4510"/>
-    <hyperlink ref="O60" r:id="rId105" tooltip="http://yapi.hikcreate.com/project/31/interface/api/4510"/>
-    <hyperlink ref="O59" r:id="rId106" tooltip="http://yapi.hikcreate.com/project/31/interface/api/4510"/>
-    <hyperlink ref="O58" r:id="rId107" tooltip="http://yapi.hikcreate.com/project/31/interface/api/4510"/>
-    <hyperlink ref="O57" r:id="rId108" tooltip="http://yapi.hikcreate.com/project/31/interface/api/4510"/>
-    <hyperlink ref="O56" r:id="rId109" tooltip="http://yapi.hikcreate.com/project/31/interface/api/4510"/>
-    <hyperlink ref="O61" r:id="rId110" tooltip="http://yapi.hikcreate.com/project/31/interface/api/4510"/>
+    <hyperlink ref="O2" r:id="rId1"/>
+    <hyperlink ref="O11" r:id="rId2"/>
+    <hyperlink ref="R37" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId111"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="1"/>
-  <pixelatorList sheetStid="4"/>
-  <pixelatorList sheetStid="6"/>
-  <pixelatorList sheetStid="11"/>
-  <pixelatorList sheetStid="5"/>
-  <pixelatorList sheetStid="12"/>
-  <pixelatorList sheetStid="9"/>
-  <pixelatorList sheetStid="8"/>
-  <pixelatorList sheetStid="10"/>
-  <pixelatorList sheetStid="13"/>
-  <pixelatorList sheetStid="14"/>
-  <pixelatorList sheetStid="15"/>
-</pixelators>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
-  <rangeList sheetStid="1" master=""/>
-  <rangeList sheetStid="4" master=""/>
-  <rangeList sheetStid="6" master=""/>
-  <rangeList sheetStid="11" master=""/>
-  <rangeList sheetStid="5" master=""/>
-  <rangeList sheetStid="12" master=""/>
-  <rangeList sheetStid="9" master=""/>
-  <rangeList sheetStid="8" master=""/>
-  <rangeList sheetStid="10" master=""/>
-  <rangeList sheetStid="13" master=""/>
-  <rangeList sheetStid="14" master=""/>
-</allowEditUser>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <woProps xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <woSheetsProps>
     <woSheetProps sheetStid="1" interlineOnOff="0" interlineColor="0" isDbSheet="0"/>
@@ -5849,12 +5809,45 @@
 </woProps>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
+  <rangeList sheetStid="1" master=""/>
+  <rangeList sheetStid="4" master=""/>
+  <rangeList sheetStid="6" master=""/>
+  <rangeList sheetStid="11" master=""/>
+  <rangeList sheetStid="5" master=""/>
+  <rangeList sheetStid="12" master=""/>
+  <rangeList sheetStid="9" master=""/>
+  <rangeList sheetStid="8" master=""/>
+  <rangeList sheetStid="10" master=""/>
+  <rangeList sheetStid="13" master=""/>
+  <rangeList sheetStid="14" master=""/>
+</allowEditUser>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="1"/>
+  <pixelatorList sheetStid="4"/>
+  <pixelatorList sheetStid="6"/>
+  <pixelatorList sheetStid="11"/>
+  <pixelatorList sheetStid="5"/>
+  <pixelatorList sheetStid="12"/>
+  <pixelatorList sheetStid="9"/>
+  <pixelatorList sheetStid="8"/>
+  <pixelatorList sheetStid="10"/>
+  <pixelatorList sheetStid="13"/>
+  <pixelatorList sheetStid="14"/>
+  <pixelatorList sheetStid="15"/>
+</pixelators>
+</file>
+
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C82605-B75B-4693-9329-32AAD527C692}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -5872,7 +5865,7 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C82605-B75B-4693-9329-32AAD527C692}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>

--- a/test_case_data/bmc/bmc_base_info_2021513.xlsx
+++ b/test_case_data/bmc/bmc_base_info_2021513.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="380">
   <si>
     <t>caseNum</t>
   </si>
@@ -471,9 +471,6 @@
     <t>业务类型不传，获取验证码失败</t>
   </si>
   <si>
-    <t>{"phone":"15999000000","bizType":"","horPercent":34,"jtId":"b8d1effc-806a-4a9e-a11a-e4caeb8cc793","bCityCode":"520100","bNetTag":"trf_mgt"}</t>
-  </si>
-  <si>
     <t>{"success":false,"code":1001}</t>
   </si>
   <si>
@@ -486,19 +483,10 @@
     <t>图形验证码ID不传，获取验证码失败</t>
   </si>
   <si>
-    <t>{"phone":"15999000000","bizType":1,"horPercent":34,"jtId":"b8d1effc-806a-4a9e-a11a-e4caeb8cc793","bCityCode":"","bNetTag":"trf_mgt"}</t>
-  </si>
-  <si>
     <t>不传网络编码，获取验证码成功</t>
   </si>
   <si>
-    <t>{"phone":"15999000000","bizType":1,"horPercent":34,"jtId":"b8d1effc-806a-4a9e-a11a-e4caeb8cc793","bCityCode":"520100","bNetTag":""}</t>
-  </si>
-  <si>
     <t>时间间隔小于1分钟，获取验证码失败</t>
-  </si>
-  <si>
-    <t>{"phone":"15999000000","bizType":1,"horPercent":31,"jtId":"aba76943-d85b-43b0-9052-6a6dab85dbce","bCityCode":"520100","bNetTag":""}</t>
   </si>
   <si>
     <t>{"success":false,"code":1006,"msg":"发送的间隔时间必须大于1分钟！","errorMsg":"发送的间隔时间必须大于1分钟！"}</t>
@@ -1053,6 +1041,10 @@
     <t>logintypeRegister006</t>
   </si>
   <si>
+    <t>captchaRegister001</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>captchaRegister002</t>
   </si>
   <si>
@@ -1060,6 +1052,10 @@
   </si>
   <si>
     <t>captchaRegister004</t>
+  </si>
+  <si>
+    <t>/v1/user/login/verifyCode/detail</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>verifyCodedetailRegister011</t>
@@ -1199,14 +1195,6 @@
   </si>
   <si>
     <t>http://yapi.hikcreate.com/project/31/interface/api/20446</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>图形短信验证码</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>/v1/user/login/verifyCode/detail</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -1308,14 +1296,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>{"phone":"15999000000","bizType":1,"horPercent":34,"jtId":"b8d1effc-806a-4a9e-a11a-e4caeb8cc793","bCityCode":"520100","bNetTag":"trf_mgt"}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"phone":"15999000000","bizType":1,"bCityCode":"520100","bNetTag":"trf_mgt","verifyCode":"111111"}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>loginverifyCodeRegister002</t>
     </r>
@@ -1378,6 +1358,10 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>/sys/captcha</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>{"bCityCode":"520100","bizType":"1"}</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -1398,27 +1382,59 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>{"phone":"15999000000","bizType":1,"horPercent":34,"jtId":"","bCityCode":"520100","bNetTag":"trf_mgt"}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"phone":"15999000000","bizType":1,"horPercent":"1","jtId":"b8d1effc-806a-4a9e-a11a-e4caeb8cc793","bCityCode":"520100","bNetTag":"trf_mgt"}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"phone":"15999000000","bizType":1,"horPercent":"","jtId":"b8d1effc-806a-4a9e-a11a-e4caeb8cc793","bCityCode":"520100","bNetTag":"trf_mgt"}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>{"phone":"","bizType":1,"horPercent":34,"jtId":"b8d1effc-806a-4a9e-a11a-e4caeb8cc793","bCityCode":"520100","bNetTag":"trf_mgt"}</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>captchaRegister001</t>
+    <t>图形短信验证码</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>/sys/captcha</t>
+    <t>数据库没有该手机号</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>/v1/user/login/verifyCode/detail</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"success":false,"code":1100001,"msg":"图片验证码超时","errorMsg":"图片验证码超时"}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"phone":"15999000099","bizType":1,"horPercent":34,"jtId":"b8d1effc-806a-4a9e-a11a-e4caeb8cc793","bCityCode":"520100","bNetTag":"trf_mgt"}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"phone":"15999000099","bizType":"","horPercent":34,"jtId":"b8d1effc-806a-4a9e-a11a-e4caeb8cc793","bCityCode":"520100","bNetTag":"trf_mgt"}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"phone":"15999000099","bizType":1,"horPercent":"","jtId":"b8d1effc-806a-4a9e-a11a-e4caeb8cc793","bCityCode":"520100","bNetTag":"trf_mgt"}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"phone":"15999000099","bizType":1,"horPercent":"1","jtId":"b8d1effc-806a-4a9e-a11a-e4caeb8cc793","bCityCode":"520100","bNetTag":"trf_mgt"}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"phone":"15999000099","bizType":1,"horPercent":34,"jtId":"","bCityCode":"520100","bNetTag":"trf_mgt"}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"phone":"15999000099","bizType":1,"horPercent":34,"jtId":"b8d1effc-806a-4a9e-a11a-e4caeb8cc793","bCityCode":"","bNetTag":"trf_mgt"}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"phone":"15999000099","bizType":1,"horPercent":34,"jtId":"b8d1effc-806a-4a9e-a11a-e4caeb8cc793","bCityCode":"520100","bNetTag":""}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"phone":"15999000099","bizType":1,"horPercent":31,"jtId":"aba76943-d85b-43b0-9052-6a6dab85dbce","bCityCode":"520100","bNetTag":""}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"phone":"15999000000","bizType":1,"bCityCode":"520100","bNetTag":"trf_mgt","verifyCode":"111111"}</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1681,9 +1697,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
@@ -1692,6 +1705,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2382,13 +2398,13 @@
       </c>
     </row>
     <row r="10" spans="1:17" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
@@ -2403,11 +2419,11 @@
       <c r="Q10" s="6"/>
     </row>
     <row r="11" spans="1:17" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="24"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
+      <c r="A11" s="27"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
@@ -2436,8 +2452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="D14" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2464,7 +2480,7 @@
   <sheetData>
     <row r="1" spans="1:19" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>67</v>
@@ -2520,13 +2536,13 @@
     </row>
     <row r="2" spans="1:19" s="17" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="12" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>76</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>20</v>
@@ -2535,7 +2551,7 @@
         <v>78</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G2" s="11"/>
       <c r="H2" s="12" t="s">
@@ -2546,7 +2562,7 @@
       </c>
       <c r="J2" s="12"/>
       <c r="K2" s="11" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="L2" s="14" t="s">
         <v>81</v>
@@ -2555,8 +2571,8 @@
         <v>82</v>
       </c>
       <c r="N2" s="15"/>
-      <c r="O2" s="25" t="s">
-        <v>336</v>
+      <c r="O2" s="24" t="s">
+        <v>334</v>
       </c>
       <c r="P2" s="15" t="s">
         <v>84</v>
@@ -2569,7 +2585,7 @@
     </row>
     <row r="3" spans="1:19" s="17" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="12" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>76</v>
@@ -2595,7 +2611,7 @@
       </c>
       <c r="J3" s="12"/>
       <c r="K3" s="11" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="L3" s="14" t="s">
         <v>81</v>
@@ -2618,7 +2634,7 @@
     </row>
     <row r="4" spans="1:19" s="17" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="12" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>76</v>
@@ -2642,7 +2658,7 @@
       </c>
       <c r="J4" s="12"/>
       <c r="K4" s="11" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="L4" s="14" t="s">
         <v>89</v>
@@ -2665,7 +2681,7 @@
     </row>
     <row r="5" spans="1:19" s="17" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="12" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>76</v>
@@ -2712,7 +2728,7 @@
     </row>
     <row r="6" spans="1:19" s="17" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="12" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>76</v>
@@ -2759,7 +2775,7 @@
     </row>
     <row r="7" spans="1:19" s="17" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="12" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>76</v>
@@ -2806,13 +2822,13 @@
     </row>
     <row r="8" spans="1:19" s="17" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="23" t="s">
-        <v>375</v>
+        <v>305</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="C8" s="26" t="s">
-        <v>340</v>
+      <c r="C8" s="25" t="s">
+        <v>338</v>
       </c>
       <c r="D8" s="12" t="s">
         <v>20</v>
@@ -2821,7 +2837,7 @@
         <v>99</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>376</v>
+        <v>360</v>
       </c>
       <c r="G8" s="11"/>
       <c r="H8" s="12"/>
@@ -2830,7 +2846,7 @@
       </c>
       <c r="J8" s="12"/>
       <c r="K8" s="11" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="L8" s="14" t="s">
         <v>101</v>
@@ -2853,7 +2869,7 @@
     </row>
     <row r="9" spans="1:19" s="17" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="23" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>76</v>
@@ -2900,7 +2916,7 @@
     </row>
     <row r="10" spans="1:19" s="17" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="23" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>76</v>
@@ -2947,7 +2963,7 @@
     </row>
     <row r="11" spans="1:19" s="17" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="23" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>76</v>
@@ -2980,8 +2996,8 @@
         <v>102</v>
       </c>
       <c r="N11" s="15"/>
-      <c r="O11" s="25" t="s">
-        <v>341</v>
+      <c r="O11" s="24" t="s">
+        <v>339</v>
       </c>
       <c r="P11" s="15" t="s">
         <v>84</v>
@@ -2994,13 +3010,13 @@
     </row>
     <row r="12" spans="1:19" s="17" customFormat="1" ht="57" x14ac:dyDescent="0.15">
       <c r="A12" s="23" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>76</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>342</v>
+        <v>367</v>
       </c>
       <c r="D12" s="12" t="s">
         <v>20</v>
@@ -3009,7 +3025,7 @@
         <v>111</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>343</v>
+        <v>309</v>
       </c>
       <c r="G12" s="11"/>
       <c r="H12" s="12" t="s">
@@ -3020,7 +3036,7 @@
       </c>
       <c r="J12" s="12"/>
       <c r="K12" s="20" t="s">
-        <v>355</v>
+        <v>371</v>
       </c>
       <c r="L12" s="14" t="s">
         <v>113</v>
@@ -3043,7 +3059,7 @@
     </row>
     <row r="13" spans="1:19" s="17" customFormat="1" ht="57" x14ac:dyDescent="0.15">
       <c r="A13" s="23" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>76</v>
@@ -3069,7 +3085,7 @@
       </c>
       <c r="J13" s="12"/>
       <c r="K13" s="20" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="L13" s="14" t="s">
         <v>117</v>
@@ -3092,7 +3108,7 @@
     </row>
     <row r="14" spans="1:19" s="17" customFormat="1" ht="57" x14ac:dyDescent="0.15">
       <c r="A14" s="23" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>76</v>
@@ -3141,7 +3157,7 @@
     </row>
     <row r="15" spans="1:19" s="17" customFormat="1" ht="57" x14ac:dyDescent="0.15">
       <c r="A15" s="23" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B15" s="12" t="s">
         <v>76</v>
@@ -3190,7 +3206,7 @@
     </row>
     <row r="16" spans="1:19" s="17" customFormat="1" ht="57" x14ac:dyDescent="0.15">
       <c r="A16" s="23" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B16" s="12" t="s">
         <v>76</v>
@@ -3216,13 +3232,13 @@
       </c>
       <c r="J16" s="12"/>
       <c r="K16" s="20" t="s">
-        <v>125</v>
+        <v>372</v>
       </c>
       <c r="L16" s="14" t="s">
         <v>117</v>
       </c>
       <c r="M16" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N16" s="15"/>
       <c r="O16" t="s">
@@ -3239,7 +3255,7 @@
     </row>
     <row r="17" spans="1:19" s="17" customFormat="1" ht="57" x14ac:dyDescent="0.15">
       <c r="A17" s="23" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="B17" s="12" t="s">
         <v>76</v>
@@ -3251,7 +3267,7 @@
         <v>20</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F17" s="11" t="s">
         <v>112</v>
@@ -3271,7 +3287,7 @@
         <v>117</v>
       </c>
       <c r="M17" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N17" s="15"/>
       <c r="O17" t="s">
@@ -3288,7 +3304,7 @@
     </row>
     <row r="18" spans="1:19" s="17" customFormat="1" ht="57" x14ac:dyDescent="0.15">
       <c r="A18" s="23" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>76</v>
@@ -3300,7 +3316,7 @@
         <v>20</v>
       </c>
       <c r="E18" s="23" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="F18" s="11" t="s">
         <v>112</v>
@@ -3314,13 +3330,13 @@
       </c>
       <c r="J18" s="12"/>
       <c r="K18" s="20" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="L18" s="14" t="s">
         <v>117</v>
       </c>
       <c r="M18" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N18" s="15"/>
       <c r="O18" t="s">
@@ -3337,7 +3353,7 @@
     </row>
     <row r="19" spans="1:19" s="17" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A19" s="23" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="B19" s="12" t="s">
         <v>76</v>
@@ -3349,27 +3365,27 @@
         <v>20</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>112</v>
+        <v>369</v>
       </c>
       <c r="G19" s="11"/>
       <c r="H19" s="12" t="s">
-        <v>80</v>
+        <v>368</v>
       </c>
       <c r="I19" s="12" t="s">
         <v>24</v>
       </c>
       <c r="J19" s="12"/>
       <c r="K19" s="20" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="L19" s="14" t="s">
         <v>117</v>
       </c>
       <c r="M19" s="11" t="s">
-        <v>128</v>
+        <v>370</v>
       </c>
       <c r="N19" s="15"/>
       <c r="O19" t="s">
@@ -3386,7 +3402,7 @@
     </row>
     <row r="20" spans="1:19" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A20" s="23" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B20" s="12" t="s">
         <v>76</v>
@@ -3412,7 +3428,7 @@
       </c>
       <c r="J20" s="12"/>
       <c r="K20" s="20" t="s">
-        <v>130</v>
+        <v>376</v>
       </c>
       <c r="L20" s="14" t="s">
         <v>113</v>
@@ -3435,7 +3451,7 @@
     </row>
     <row r="21" spans="1:19" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A21" s="23" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B21" s="12" t="s">
         <v>76</v>
@@ -3447,7 +3463,7 @@
         <v>86</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F21" s="11" t="s">
         <v>112</v>
@@ -3461,7 +3477,7 @@
       </c>
       <c r="J21" s="12"/>
       <c r="K21" s="20" t="s">
-        <v>132</v>
+        <v>377</v>
       </c>
       <c r="L21" s="14" t="s">
         <v>113</v>
@@ -3484,7 +3500,7 @@
     </row>
     <row r="22" spans="1:19" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A22" s="23" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B22" s="12" t="s">
         <v>76</v>
@@ -3496,7 +3512,7 @@
         <v>20</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F22" s="11" t="s">
         <v>112</v>
@@ -3510,13 +3526,13 @@
       </c>
       <c r="J22" s="12"/>
       <c r="K22" s="20" t="s">
-        <v>134</v>
+        <v>378</v>
       </c>
       <c r="L22" s="14" t="s">
         <v>117</v>
       </c>
       <c r="M22" s="11" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="N22" s="15"/>
       <c r="O22" t="s">
@@ -3533,22 +3549,22 @@
     </row>
     <row r="23" spans="1:19" s="17" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A23" s="23" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="B23" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="C23" s="26" t="s">
-        <v>344</v>
+      <c r="C23" s="25" t="s">
+        <v>340</v>
       </c>
       <c r="D23" s="12" t="s">
         <v>20</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="G23" s="11"/>
       <c r="H23" s="12" t="s">
@@ -3559,17 +3575,17 @@
       </c>
       <c r="J23" s="12"/>
       <c r="K23" s="20" t="s">
-        <v>356</v>
+        <v>379</v>
       </c>
       <c r="L23" s="14" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="M23" s="11" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="N23" s="15"/>
       <c r="O23" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="P23" s="15" t="s">
         <v>84</v>
@@ -3582,22 +3598,22 @@
     </row>
     <row r="24" spans="1:19" s="17" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A24" s="23" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="B24" s="12" t="s">
         <v>76</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D24" s="12" t="s">
         <v>20</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G24" s="11"/>
       <c r="H24" s="12" t="s">
@@ -3608,17 +3624,17 @@
       </c>
       <c r="J24" s="12"/>
       <c r="K24" s="20" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="L24" s="14" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="M24" s="11" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="N24" s="15"/>
       <c r="O24" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="P24" s="15" t="s">
         <v>84</v>
@@ -3631,22 +3647,22 @@
     </row>
     <row r="25" spans="1:19" s="17" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A25" s="23" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B25" s="12" t="s">
         <v>76</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D25" s="12" t="s">
         <v>20</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G25" s="11"/>
       <c r="H25" s="12" t="s">
@@ -3657,17 +3673,17 @@
       </c>
       <c r="J25" s="12"/>
       <c r="K25" s="20" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="L25" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="M25" s="11" t="s">
         <v>144</v>
-      </c>
-      <c r="M25" s="11" t="s">
-        <v>148</v>
       </c>
       <c r="N25" s="15"/>
       <c r="O25" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="P25" s="15" t="s">
         <v>84</v>
@@ -3680,22 +3696,22 @@
     </row>
     <row r="26" spans="1:19" s="17" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A26" s="23" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B26" s="12" t="s">
         <v>76</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D26" s="12" t="s">
         <v>86</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G26" s="11"/>
       <c r="H26" s="12" t="s">
@@ -3706,17 +3722,17 @@
       </c>
       <c r="J26" s="12"/>
       <c r="K26" s="20" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="L26" s="14" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="M26" s="11" t="s">
         <v>102</v>
       </c>
       <c r="N26" s="15"/>
       <c r="O26" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="P26" s="15" t="s">
         <v>84</v>
@@ -3729,22 +3745,22 @@
     </row>
     <row r="27" spans="1:19" s="17" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A27" s="23" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B27" s="12" t="s">
         <v>76</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D27" s="12" t="s">
         <v>86</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="G27" s="22"/>
       <c r="H27" s="12" t="s">
@@ -3755,17 +3771,17 @@
       </c>
       <c r="J27" s="12"/>
       <c r="K27" s="20" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="L27" s="14" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="M27" s="11" t="s">
         <v>102</v>
       </c>
       <c r="N27" s="15"/>
       <c r="O27" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="P27" s="15" t="s">
         <v>84</v>
@@ -3778,22 +3794,22 @@
     </row>
     <row r="28" spans="1:19" s="17" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A28" s="23" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B28" s="12" t="s">
         <v>76</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D28" s="12" t="s">
         <v>20</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G28" s="22"/>
       <c r="H28" s="12" t="s">
@@ -3804,17 +3820,17 @@
       </c>
       <c r="J28" s="12"/>
       <c r="K28" s="20" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="L28" s="14" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="M28" s="14" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="N28" s="15"/>
       <c r="O28" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="P28" s="15" t="s">
         <v>84</v>
@@ -3827,22 +3843,22 @@
     </row>
     <row r="29" spans="1:19" s="17" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A29" s="23" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B29" s="12" t="s">
         <v>76</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D29" s="12" t="s">
         <v>20</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G29" s="22"/>
       <c r="H29" s="12" t="s">
@@ -3853,17 +3869,17 @@
       </c>
       <c r="J29" s="12"/>
       <c r="K29" s="20" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="L29" s="14" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="M29" s="14" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="N29" s="15"/>
       <c r="O29" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="P29" s="15" t="s">
         <v>84</v>
@@ -3876,22 +3892,22 @@
     </row>
     <row r="30" spans="1:19" s="17" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A30" s="23" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="B30" s="12" t="s">
         <v>76</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="D30" s="12" t="s">
         <v>20</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F30" s="22" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="G30" s="22"/>
       <c r="H30" s="12" t="s">
@@ -3902,17 +3918,17 @@
       </c>
       <c r="J30" s="12"/>
       <c r="K30" s="14" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="L30" s="14" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="M30" s="14" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="N30" s="15"/>
       <c r="O30" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="P30" s="15" t="s">
         <v>84</v>
@@ -3925,22 +3941,22 @@
     </row>
     <row r="31" spans="1:19" s="17" customFormat="1" ht="54" x14ac:dyDescent="0.15">
       <c r="A31" s="23" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="B31" s="12" t="s">
         <v>76</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D31" s="12" t="s">
         <v>20</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F31" s="22" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G31" s="22"/>
       <c r="H31" s="12" t="s">
@@ -3951,17 +3967,17 @@
       </c>
       <c r="J31" s="12"/>
       <c r="K31" s="14" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="L31" s="14" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="M31" s="14" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="N31" s="15"/>
       <c r="O31" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="P31" s="15" t="s">
         <v>84</v>
@@ -3974,22 +3990,22 @@
     </row>
     <row r="32" spans="1:19" s="17" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A32" s="23" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B32" s="12" t="s">
         <v>76</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D32" s="12" t="s">
         <v>20</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F32" s="22" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G32" s="22"/>
       <c r="H32" s="12" t="s">
@@ -4000,17 +4016,17 @@
       </c>
       <c r="J32" s="12"/>
       <c r="K32" s="14" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="L32" s="14" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="M32" s="14" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="N32" s="15"/>
       <c r="O32" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="P32" s="15" t="s">
         <v>84</v>
@@ -4023,22 +4039,22 @@
     </row>
     <row r="33" spans="1:19" s="17" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A33" s="23" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="B33" s="12" t="s">
         <v>76</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D33" s="12" t="s">
         <v>86</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F33" s="22" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G33" s="22"/>
       <c r="H33" s="12" t="s">
@@ -4049,17 +4065,17 @@
       </c>
       <c r="J33" s="12"/>
       <c r="K33" s="14" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="L33" s="14" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="M33" s="14" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="N33" s="15"/>
       <c r="O33" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="P33" s="15" t="s">
         <v>84</v>
@@ -4072,22 +4088,22 @@
     </row>
     <row r="34" spans="1:19" s="17" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A34" s="23" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="B34" s="12" t="s">
         <v>76</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D34" s="12" t="s">
         <v>86</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F34" s="22" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G34" s="22"/>
       <c r="H34" s="12" t="s">
@@ -4097,18 +4113,18 @@
         <v>24</v>
       </c>
       <c r="J34" s="12"/>
-      <c r="K34" s="27" t="s">
-        <v>360</v>
+      <c r="K34" s="26" t="s">
+        <v>354</v>
       </c>
       <c r="L34" s="14" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="M34" s="14" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="N34" s="15"/>
       <c r="O34" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="P34" s="15" t="s">
         <v>84</v>
@@ -4121,22 +4137,22 @@
     </row>
     <row r="35" spans="1:19" s="17" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A35" s="23" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B35" s="12" t="s">
         <v>76</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D35" s="12" t="s">
         <v>86</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="F35" s="22" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G35" s="22"/>
       <c r="H35" s="12" t="s">
@@ -4147,17 +4163,17 @@
       </c>
       <c r="J35" s="12"/>
       <c r="K35" s="14" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="L35" s="14" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="M35" s="14" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="N35" s="15"/>
       <c r="O35" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="P35" s="15" t="s">
         <v>84</v>
@@ -4170,22 +4186,22 @@
     </row>
     <row r="36" spans="1:19" s="17" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A36" s="23" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B36" s="12" t="s">
         <v>76</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D36" s="12" t="s">
         <v>20</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F36" s="22" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G36" s="22"/>
       <c r="H36" s="12" t="s">
@@ -4195,18 +4211,18 @@
         <v>24</v>
       </c>
       <c r="J36" s="12"/>
-      <c r="K36" s="27" t="s">
-        <v>363</v>
+      <c r="K36" s="26" t="s">
+        <v>357</v>
       </c>
       <c r="L36" s="14" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="M36" s="14" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="N36" s="15"/>
       <c r="O36" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="P36" s="15" t="s">
         <v>84</v>
@@ -4219,22 +4235,22 @@
     </row>
     <row r="37" spans="1:19" s="17" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A37" s="23" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B37" s="12" t="s">
         <v>76</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D37" s="12" t="s">
         <v>20</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F37" s="22" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="G37" s="22"/>
       <c r="H37" s="12" t="s">
@@ -4245,45 +4261,45 @@
       </c>
       <c r="J37" s="12"/>
       <c r="K37" s="14" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="L37" s="14" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="M37" s="14" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="N37" s="15"/>
       <c r="O37" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="P37" s="15" t="s">
         <v>84</v>
       </c>
       <c r="Q37" s="12"/>
-      <c r="R37" s="25" t="s">
-        <v>364</v>
+      <c r="R37" s="24" t="s">
+        <v>358</v>
       </c>
       <c r="S37" s="12"/>
     </row>
     <row r="38" spans="1:19" s="17" customFormat="1" ht="54" x14ac:dyDescent="0.15">
       <c r="A38" s="23" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B38" s="12" t="s">
         <v>76</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D38" s="12" t="s">
         <v>20</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F38" s="22" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G38" s="22"/>
       <c r="H38" s="12" t="s">
@@ -4294,17 +4310,17 @@
       </c>
       <c r="J38" s="12"/>
       <c r="K38" s="14" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="L38" s="14" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="M38" s="14" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="N38" s="15"/>
       <c r="O38" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="P38" s="15" t="s">
         <v>84</v>
@@ -4317,22 +4333,22 @@
     </row>
     <row r="39" spans="1:19" s="17" customFormat="1" ht="54" x14ac:dyDescent="0.15">
       <c r="A39" s="23" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B39" s="12" t="s">
         <v>76</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D39" s="12" t="s">
         <v>20</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F39" s="22" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G39" s="22"/>
       <c r="H39" s="12" t="s">
@@ -4343,17 +4359,17 @@
       </c>
       <c r="J39" s="12"/>
       <c r="K39" s="14" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="L39" s="14" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="M39" s="14" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="N39" s="15"/>
       <c r="O39" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="P39" s="15" t="s">
         <v>84</v>
@@ -4366,22 +4382,22 @@
     </row>
     <row r="40" spans="1:19" s="17" customFormat="1" ht="54" x14ac:dyDescent="0.15">
       <c r="A40" s="23" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B40" s="12" t="s">
         <v>76</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D40" s="12" t="s">
         <v>86</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F40" s="22" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G40" s="22"/>
       <c r="H40" s="12" t="s">
@@ -4392,17 +4408,17 @@
       </c>
       <c r="J40" s="12"/>
       <c r="K40" s="14" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="L40" s="14" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="M40" s="14" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="N40" s="15"/>
       <c r="O40" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="P40" s="15" t="s">
         <v>84</v>
@@ -4415,22 +4431,22 @@
     </row>
     <row r="41" spans="1:19" s="17" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A41" s="23" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B41" s="12" t="s">
         <v>76</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D41" s="12" t="s">
         <v>86</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F41" s="22" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G41" s="22"/>
       <c r="H41" s="12" t="s">
@@ -4441,17 +4457,17 @@
       </c>
       <c r="J41" s="12"/>
       <c r="K41" s="14" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="L41" s="14" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="M41" s="14" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="N41" s="15"/>
       <c r="O41" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="P41" s="15" t="s">
         <v>84</v>
@@ -4464,22 +4480,22 @@
     </row>
     <row r="42" spans="1:19" s="17" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A42" s="23" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B42" s="12" t="s">
         <v>76</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D42" s="12" t="s">
         <v>86</v>
       </c>
       <c r="E42" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="F42" s="22" t="s">
         <v>174</v>
-      </c>
-      <c r="F42" s="22" t="s">
-        <v>178</v>
       </c>
       <c r="G42" s="22"/>
       <c r="H42" s="12" t="s">
@@ -4490,17 +4506,17 @@
       </c>
       <c r="J42" s="12"/>
       <c r="K42" s="14" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="L42" s="14" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="M42" s="14" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="N42" s="15"/>
       <c r="O42" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="P42" s="15" t="s">
         <v>84</v>
@@ -4513,22 +4529,22 @@
     </row>
     <row r="43" spans="1:19" s="17" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A43" s="23" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B43" s="12" t="s">
         <v>76</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D43" s="12" t="s">
         <v>20</v>
       </c>
       <c r="E43" s="12" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F43" s="22" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G43" s="22"/>
       <c r="H43" s="12" t="s">
@@ -4539,17 +4555,17 @@
       </c>
       <c r="J43" s="12"/>
       <c r="K43" s="14" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="L43" s="14" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="M43" s="14" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="N43" s="15"/>
       <c r="O43" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="P43" s="15" t="s">
         <v>84</v>
@@ -4560,41 +4576,41 @@
       </c>
       <c r="S43" s="12"/>
     </row>
-    <row r="44" spans="1:19" s="17" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:19" s="17" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A44" s="23" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B44" s="12" t="s">
         <v>18</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D44" s="12" t="s">
         <v>20</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F44" s="22" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="G44" s="22"/>
       <c r="H44" s="12" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="I44" s="12" t="s">
         <v>24</v>
       </c>
       <c r="J44" s="12"/>
       <c r="K44" s="14" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="L44" s="14" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="M44" s="14" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="N44" s="15"/>
       <c r="O44" s="14"/>
@@ -4607,33 +4623,33 @@
     </row>
     <row r="45" spans="1:19" s="17" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A45" s="12" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B45" s="12" t="s">
         <v>18</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D45" s="12" t="s">
         <v>31</v>
       </c>
       <c r="E45" s="12" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="F45" s="22" t="s">
         <v>79</v>
       </c>
       <c r="G45" s="22"/>
       <c r="H45" s="12" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="I45" s="12" t="s">
         <v>24</v>
       </c>
       <c r="J45" s="12"/>
       <c r="K45" s="14" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="L45" s="14" t="s">
         <v>65</v>
@@ -4652,36 +4668,36 @@
     </row>
     <row r="46" spans="1:19" s="17" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A46" s="12" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B46" s="12" t="s">
         <v>18</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D46" s="12" t="s">
         <v>31</v>
       </c>
       <c r="E46" s="12" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F46" s="22" t="s">
         <v>79</v>
       </c>
       <c r="G46" s="22"/>
       <c r="H46" s="12" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="I46" s="12" t="s">
         <v>24</v>
       </c>
       <c r="J46" s="12"/>
       <c r="K46" s="14" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="L46" s="14" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="M46" s="14" t="s">
         <v>90</v>
@@ -4695,41 +4711,41 @@
       <c r="R46" s="21"/>
       <c r="S46" s="12"/>
     </row>
-    <row r="47" spans="1:19" s="17" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:19" s="17" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A47" s="12" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B47" s="12" t="s">
         <v>18</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D47" s="12" t="s">
         <v>31</v>
       </c>
       <c r="E47" s="12" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F47" s="22" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="G47" s="22"/>
       <c r="H47" s="12" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="I47" s="12" t="s">
         <v>24</v>
       </c>
       <c r="J47" s="12"/>
       <c r="K47" s="14" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="L47" s="14" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="M47" s="14" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="N47" s="15"/>
       <c r="O47" s="14"/>
@@ -4740,41 +4756,41 @@
       <c r="R47" s="21"/>
       <c r="S47" s="12"/>
     </row>
-    <row r="48" spans="1:19" s="17" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:19" s="17" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A48" s="12" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B48" s="12" t="s">
         <v>18</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D48" s="12" t="s">
         <v>31</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F48" s="22" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="G48" s="22"/>
       <c r="H48" s="12" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="I48" s="12" t="s">
         <v>24</v>
       </c>
       <c r="J48" s="12"/>
       <c r="K48" s="14" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="L48" s="14" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="M48" s="14" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="N48" s="15"/>
       <c r="O48" s="14"/>
@@ -4785,41 +4801,41 @@
       <c r="R48" s="21"/>
       <c r="S48" s="12"/>
     </row>
-    <row r="49" spans="1:19" s="17" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:19" s="17" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A49" s="12" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B49" s="12" t="s">
         <v>18</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D49" s="12" t="s">
         <v>31</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="F49" s="22" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="G49" s="22"/>
       <c r="H49" s="12" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="I49" s="12" t="s">
         <v>24</v>
       </c>
       <c r="J49" s="12"/>
       <c r="K49" s="14" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="L49" s="14" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="M49" s="14" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="N49" s="15"/>
       <c r="O49" s="14"/>
@@ -4830,41 +4846,41 @@
       <c r="R49" s="21"/>
       <c r="S49" s="12"/>
     </row>
-    <row r="50" spans="1:19" s="17" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:19" s="17" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A50" s="12" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B50" s="12" t="s">
         <v>18</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D50" s="12" t="s">
         <v>31</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="F50" s="22" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="G50" s="22"/>
       <c r="H50" s="12" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="I50" s="12" t="s">
         <v>24</v>
       </c>
       <c r="J50" s="12"/>
       <c r="K50" s="14" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="L50" s="14" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="M50" s="14" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="N50" s="15"/>
       <c r="O50" s="14"/>
@@ -4875,41 +4891,41 @@
       <c r="R50" s="21"/>
       <c r="S50" s="12"/>
     </row>
-    <row r="51" spans="1:19" s="17" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:19" s="17" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A51" s="12" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B51" s="12" t="s">
         <v>18</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D51" s="12" t="s">
         <v>20</v>
       </c>
       <c r="E51" s="12" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F51" s="22" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="G51" s="22"/>
       <c r="H51" s="12" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="I51" s="12" t="s">
         <v>24</v>
       </c>
       <c r="J51" s="12"/>
       <c r="K51" s="14" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="L51" s="14" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="M51" s="14" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="N51" s="15"/>
       <c r="O51" s="14"/>
@@ -4920,41 +4936,41 @@
       <c r="R51" s="21"/>
       <c r="S51" s="12"/>
     </row>
-    <row r="52" spans="1:19" s="17" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:19" s="17" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A52" s="12" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B52" s="12" t="s">
         <v>18</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D52" s="12" t="s">
         <v>31</v>
       </c>
       <c r="E52" s="12" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F52" s="22" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="G52" s="22"/>
       <c r="H52" s="12" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="I52" s="12" t="s">
         <v>24</v>
       </c>
       <c r="J52" s="12"/>
       <c r="K52" s="14" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="L52" s="14" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="M52" s="14" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="N52" s="15"/>
       <c r="O52" s="14"/>
@@ -4965,41 +4981,41 @@
       <c r="R52" s="21"/>
       <c r="S52" s="12"/>
     </row>
-    <row r="53" spans="1:19" s="17" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:19" s="17" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A53" s="12" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B53" s="12" t="s">
         <v>18</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D53" s="12" t="s">
         <v>31</v>
       </c>
       <c r="E53" s="12" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="F53" s="22" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="G53" s="22"/>
       <c r="H53" s="12" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="I53" s="12" t="s">
         <v>24</v>
       </c>
       <c r="J53" s="12"/>
       <c r="K53" s="14" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="L53" s="14" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="M53" s="14" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="N53" s="15"/>
       <c r="O53" s="14"/>
@@ -5008,45 +5024,45 @@
       </c>
       <c r="Q53" s="12"/>
       <c r="R53" s="21" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="S53" s="12"/>
     </row>
-    <row r="54" spans="1:19" s="17" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:19" s="17" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A54" s="12" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B54" s="12" t="s">
         <v>18</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D54" s="12" t="s">
         <v>31</v>
       </c>
       <c r="E54" s="12" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F54" s="22" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="G54" s="22"/>
       <c r="H54" s="12" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="I54" s="12" t="s">
         <v>24</v>
       </c>
       <c r="J54" s="12"/>
       <c r="K54" s="14" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="L54" s="14" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="M54" s="14" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="N54" s="15"/>
       <c r="O54" s="14"/>
@@ -5057,41 +5073,41 @@
       <c r="R54" s="21"/>
       <c r="S54" s="12"/>
     </row>
-    <row r="55" spans="1:19" s="17" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:19" s="17" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A55" s="12" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B55" s="12" t="s">
         <v>18</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D55" s="12" t="s">
         <v>31</v>
       </c>
       <c r="E55" s="12" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F55" s="22" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="G55" s="22"/>
       <c r="H55" s="12" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="I55" s="12" t="s">
         <v>24</v>
       </c>
       <c r="J55" s="12"/>
       <c r="K55" s="14" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="L55" s="14" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="M55" s="14" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="N55" s="15"/>
       <c r="O55" s="14"/>
@@ -5104,41 +5120,41 @@
     </row>
     <row r="56" spans="1:19" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="12" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D56" s="12" t="s">
         <v>20</v>
       </c>
       <c r="E56" s="12" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F56" s="22" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G56" s="22"/>
       <c r="H56" s="12" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="I56" s="12" t="s">
         <v>63</v>
       </c>
       <c r="K56" s="14" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="L56" s="14" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="M56" s="14" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="O56" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="P56" s="15" t="s">
         <v>84</v>
@@ -5149,41 +5165,41 @@
     </row>
     <row r="57" spans="1:19" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="12" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D57" s="12" t="s">
         <v>20</v>
       </c>
       <c r="E57" s="12" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="F57" s="22" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G57" s="22"/>
       <c r="H57" s="12" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="I57" s="12" t="s">
         <v>63</v>
       </c>
       <c r="K57" s="14" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="L57" s="14" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="M57" s="14" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="O57" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="P57" s="15" t="s">
         <v>84</v>
@@ -5194,41 +5210,41 @@
     </row>
     <row r="58" spans="1:19" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="12" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D58" s="12" t="s">
         <v>86</v>
       </c>
       <c r="E58" s="12" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="F58" s="22" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G58" s="22"/>
       <c r="H58" s="12" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="I58" s="12" t="s">
         <v>63</v>
       </c>
       <c r="K58" s="14" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="L58" s="14" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="M58" s="14" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="O58" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="P58" s="15" t="s">
         <v>84</v>
@@ -5239,41 +5255,41 @@
     </row>
     <row r="59" spans="1:19" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="12" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D59" s="12" t="s">
         <v>86</v>
       </c>
       <c r="E59" s="12" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F59" s="22" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G59" s="22"/>
       <c r="H59" s="12" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="I59" s="12" t="s">
         <v>63</v>
       </c>
       <c r="K59" s="14" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="L59" s="14" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="M59" s="14" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="O59" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="P59" s="15" t="s">
         <v>84</v>
@@ -5284,41 +5300,41 @@
     </row>
     <row r="60" spans="1:19" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="12" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D60" s="12" t="s">
         <v>20</v>
       </c>
       <c r="E60" s="12" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="F60" s="22" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G60" s="22"/>
       <c r="H60" s="12" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="I60" s="12" t="s">
         <v>63</v>
       </c>
       <c r="K60" s="14" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="L60" s="14" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="M60" s="14" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="O60" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="P60" s="15" t="s">
         <v>84</v>
@@ -5329,41 +5345,41 @@
     </row>
     <row r="61" spans="1:19" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="12" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D61" s="12" t="s">
         <v>20</v>
       </c>
       <c r="E61" s="12" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F61" s="22" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G61" s="22"/>
       <c r="H61" s="12" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="I61" s="12" t="s">
         <v>63</v>
       </c>
       <c r="K61" s="14" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="L61" s="14" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="M61" s="14" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="O61" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="P61" s="15" t="s">
         <v>84</v>
@@ -5374,41 +5390,41 @@
     </row>
     <row r="62" spans="1:19" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="12" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D62" s="12" t="s">
         <v>20</v>
       </c>
       <c r="E62" s="12" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="F62" s="22" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G62" s="22"/>
       <c r="H62" s="12" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="I62" s="12" t="s">
         <v>63</v>
       </c>
       <c r="K62" s="14" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="L62" s="14" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="M62" s="14" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="O62" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="P62" s="15" t="s">
         <v>84</v>
@@ -5419,41 +5435,41 @@
     </row>
     <row r="63" spans="1:19" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="12" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D63" s="12" t="s">
         <v>86</v>
       </c>
       <c r="E63" s="12" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="F63" s="22" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G63" s="22"/>
       <c r="H63" s="12" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="I63" s="12" t="s">
         <v>63</v>
       </c>
       <c r="K63" s="14" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="L63" s="14" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="M63" s="14" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="O63" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="P63" s="15" t="s">
         <v>84</v>
@@ -5464,41 +5480,41 @@
     </row>
     <row r="64" spans="1:19" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="12" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D64" s="12" t="s">
         <v>86</v>
       </c>
       <c r="E64" s="12" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F64" s="22" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G64" s="22"/>
       <c r="H64" s="12" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="I64" s="12" t="s">
         <v>63</v>
       </c>
       <c r="K64" s="14" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="L64" s="14" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="M64" s="14" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="O64" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="P64" s="15" t="s">
         <v>84</v>
@@ -5509,41 +5525,41 @@
     </row>
     <row r="65" spans="1:18" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="12" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D65" s="12" t="s">
         <v>20</v>
       </c>
       <c r="E65" s="12" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F65" s="22" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G65" s="22"/>
       <c r="H65" s="12" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="I65" s="12" t="s">
         <v>63</v>
       </c>
       <c r="K65" s="14" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="L65" s="14" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="M65" s="14" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="O65" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="P65" s="15" t="s">
         <v>84</v>
@@ -5554,38 +5570,38 @@
     </row>
     <row r="66" spans="1:18" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="12" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C66" s="18" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="D66" s="12" t="s">
         <v>31</v>
       </c>
       <c r="E66" s="12" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="F66" s="22" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="G66" s="22"/>
       <c r="H66" s="12" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="I66" s="12" t="s">
         <v>63</v>
       </c>
       <c r="L66" s="14" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="M66" s="14" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="O66" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="P66" s="15" t="s">
         <v>84</v>
@@ -5596,41 +5612,41 @@
     </row>
     <row r="67" spans="1:18" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="12" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C67" s="18" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D67" s="12" t="s">
         <v>20</v>
       </c>
       <c r="E67" s="12" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="F67" s="22" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="G67" s="22"/>
       <c r="H67" s="12" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="I67" s="12" t="s">
         <v>63</v>
       </c>
       <c r="K67" s="14" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="L67" s="14" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="M67" s="14" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="O67" s="14" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="P67" s="15" t="s">
         <v>84</v>
@@ -5641,41 +5657,41 @@
     </row>
     <row r="68" spans="1:18" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="12" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C68" s="18" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D68" s="12" t="s">
         <v>20</v>
       </c>
       <c r="E68" s="12" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F68" s="22" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="G68" s="22"/>
       <c r="H68" s="12" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="I68" s="12" t="s">
         <v>63</v>
       </c>
       <c r="K68" s="14" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="L68" s="14" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="M68" s="14" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="O68" s="14" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="P68" s="15" t="s">
         <v>84</v>
@@ -5686,41 +5702,41 @@
     </row>
     <row r="69" spans="1:18" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="12" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C69" s="18" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D69" s="12" t="s">
         <v>20</v>
       </c>
       <c r="E69" s="12" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="F69" s="22" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="G69" s="22"/>
       <c r="H69" s="12" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="I69" s="12" t="s">
         <v>63</v>
       </c>
       <c r="K69" s="14" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="L69" s="14" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="M69" s="14" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="O69" s="14" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="P69" s="15" t="s">
         <v>84</v>
@@ -5731,41 +5747,41 @@
     </row>
     <row r="70" spans="1:18" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="12" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C70" s="18" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D70" s="12" t="s">
         <v>20</v>
       </c>
       <c r="E70" s="12" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="F70" s="22" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="G70" s="22"/>
       <c r="H70" s="12" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="I70" s="12" t="s">
         <v>63</v>
       </c>
       <c r="K70" s="14" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="L70" s="14" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="M70" s="14" t="s">
         <v>102</v>
       </c>
       <c r="O70" s="14" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="P70" s="15" t="s">
         <v>84</v>

--- a/test_case_data/bmc/bmc_base_info_2021513.xlsx
+++ b/test_case_data/bmc/bmc_base_info_2021513.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="382">
   <si>
     <t>caseNum</t>
   </si>
@@ -504,18 +504,12 @@
     <t>验证码错误，验证不通过</t>
   </si>
   <si>
-    <t>{"success":false,"code":1006,"msg":"验证码错误","errorMsg":"验证码错误"}</t>
-  </si>
-  <si>
     <t>http://yapi.hikcreate.com/project/31/interface/api/10787</t>
   </si>
   <si>
     <t>不输入手机号，验证不通过</t>
   </si>
   <si>
-    <t>{"phone":"","bizType":1,"bCityCode":"520100","bNetTag":"trf_mgt","verifyCode":"111111"}</t>
-  </si>
-  <si>
     <t>验证不通过</t>
   </si>
   <si>
@@ -534,18 +528,12 @@
     <t>不输入城市编码，验证通过</t>
   </si>
   <si>
-    <t>{"phone":"15999000000","bizType":1,"bCityCode":"","bNetTag":"trf_mgt","verifyCode":"111111"}</t>
-  </si>
-  <si>
     <t>验证通过</t>
   </si>
   <si>
     <t>不传网络编码，验证通过</t>
   </si>
   <si>
-    <t>{"phone":"15999000000","bizType":1,"bCityCode":"520100","bNetTag":"","verifyCode":"111111"}</t>
-  </si>
-  <si>
     <t>不传验证码，验证不通过</t>
   </si>
   <si>
@@ -594,9 +582,6 @@
     <t>不传设备号，注册成功</t>
   </si>
   <si>
-    <t>{"encodedGesture":"67e6d10010533eed4bbe9659863bf6ee","phone":"15999000000","deviceId":"","bCityCode":"520100","deviceName":"iPhone 11","oneTimeToken":"5ba7eeca-5638-431d-a532-a1a6e746f6af"}</t>
-  </si>
-  <si>
     <t>注册成功</t>
   </si>
   <si>
@@ -607,9 +592,6 @@
   </si>
   <si>
     <t>不传城市编码，注册成功</t>
-  </si>
-  <si>
-    <t>{"encodedGesture":"67e6d10010533eed4bbe9659863bf6ee","phone":"15999000000","deviceId":"d0a46a29019140a78cc13855f8c73761","bCityCode":"","deviceName":"iPhone 11","oneTimeToken":"5ba7eeca-5638-431d-a532-a1a6e746f6af"}</t>
   </si>
   <si>
     <t>正确传递参数，注册成功</t>
@@ -1054,10 +1036,6 @@
     <t>captchaRegister004</t>
   </si>
   <si>
-    <t>/v1/user/login/verifyCode/detail</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>verifyCodedetailRegister011</t>
   </si>
   <si>
@@ -1088,22 +1066,6 @@
   <si>
     <t>/user/login/verifyCode</t>
     <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>loginverifyCodeRegister004</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
   </si>
   <si>
     <r>
@@ -1321,10 +1283,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>{"encodedGesture":"67e6d10010533eed4bbe9659863bf6ee","phone":"15999000000","deviceId":"d0a46a29019140a78cc13855f8c73761","bCityCode":"520100","deviceName":"","oneTimeToken":"5ba7eeca-5638-431d-a532-a1a6e746f6af"}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>loginverifyCodeRegister0</t>
     </r>
@@ -1346,10 +1304,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>{"encodedGesture":"67e6d10010533eed4bbe9659863bf6ee","phone":"15999000000","deviceId":"d0a46a29019140a78cc13855f8c73761","bCityCode":"520100","deviceName":"iPhone 11","oneTimeToken":"5ba7eeca-5638-431d-a532-a1a6e746f6af"}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>http://testbmcapp.hikcreate.com</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -1363,6 +1317,99 @@
   </si>
   <si>
     <t>{"bCityCode":"520100","bizType":"1"}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>verifyCodedetailRegister006</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>X轴百分比传错，获取验证码失败</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>verifyCodedetailRegister008</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"phone":"","bizType":1,"horPercent":34,"jtId":"b8d1effc-806a-4a9e-a11a-e4caeb8cc793","bCityCode":"520100","bNetTag":"trf_mgt"}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>图形短信验证码</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库没有该手机号</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>/v1/user/login/verifyCode/detail</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"success":false,"code":1100001,"msg":"图片验证码超时","errorMsg":"图片验证码超时"}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"phone":"15999000099","bizType":1,"horPercent":34,"jtId":"b8d1effc-806a-4a9e-a11a-e4caeb8cc793","bCityCode":"520100","bNetTag":"trf_mgt"}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"phone":"15999000099","bizType":"","horPercent":34,"jtId":"b8d1effc-806a-4a9e-a11a-e4caeb8cc793","bCityCode":"520100","bNetTag":"trf_mgt"}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"phone":"15999000099","bizType":1,"horPercent":"","jtId":"b8d1effc-806a-4a9e-a11a-e4caeb8cc793","bCityCode":"520100","bNetTag":"trf_mgt"}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"phone":"15999000099","bizType":1,"horPercent":"1","jtId":"b8d1effc-806a-4a9e-a11a-e4caeb8cc793","bCityCode":"520100","bNetTag":"trf_mgt"}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"phone":"15999000099","bizType":1,"horPercent":34,"jtId":"","bCityCode":"520100","bNetTag":"trf_mgt"}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"phone":"15999000099","bizType":1,"horPercent":34,"jtId":"b8d1effc-806a-4a9e-a11a-e4caeb8cc793","bCityCode":"","bNetTag":"trf_mgt"}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"phone":"15999000099","bizType":1,"horPercent":34,"jtId":"b8d1effc-806a-4a9e-a11a-e4caeb8cc793","bCityCode":"520100","bNetTag":""}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"phone":"15999000099","bizType":1,"horPercent":31,"jtId":"aba76943-d85b-43b0-9052-6a6dab85dbce","bCityCode":"520100","bNetTag":""}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"phone":"15999000000","bizType":1,"bCityCode":"520100","bNetTag":"trf_mgt","verifyCode":"111111"}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"phone":"","bizType":1,"bCityCode":"520100","bNetTag":"trf_mgt","verifyCode":"111111"}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"success":false,"code":1006,"msg":"验证码错误","errorMsg":"验证码错误"}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>loginverifyCodeRegister004</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -1370,71 +1417,62 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>verifyCodedetailRegister006</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>X轴百分比传错，获取验证码失败</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>verifyCodedetailRegister008</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"phone":"","bizType":1,"horPercent":34,"jtId":"b8d1effc-806a-4a9e-a11a-e4caeb8cc793","bCityCode":"520100","bNetTag":"trf_mgt"}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>图形短信验证码</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据库没有该手机号</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>/v1/user/login/verifyCode/detail</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>{"success":false,"code":1100001,"msg":"图片验证码超时","errorMsg":"图片验证码超时"}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"phone":"15999000099","bizType":1,"horPercent":34,"jtId":"b8d1effc-806a-4a9e-a11a-e4caeb8cc793","bCityCode":"520100","bNetTag":"trf_mgt"}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"phone":"15999000099","bizType":"","horPercent":34,"jtId":"b8d1effc-806a-4a9e-a11a-e4caeb8cc793","bCityCode":"520100","bNetTag":"trf_mgt"}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"phone":"15999000099","bizType":1,"horPercent":"","jtId":"b8d1effc-806a-4a9e-a11a-e4caeb8cc793","bCityCode":"520100","bNetTag":"trf_mgt"}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"phone":"15999000099","bizType":1,"horPercent":"1","jtId":"b8d1effc-806a-4a9e-a11a-e4caeb8cc793","bCityCode":"520100","bNetTag":"trf_mgt"}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"phone":"15999000099","bizType":1,"horPercent":34,"jtId":"","bCityCode":"520100","bNetTag":"trf_mgt"}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"phone":"15999000099","bizType":1,"horPercent":34,"jtId":"b8d1effc-806a-4a9e-a11a-e4caeb8cc793","bCityCode":"","bNetTag":"trf_mgt"}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"phone":"15999000099","bizType":1,"horPercent":34,"jtId":"b8d1effc-806a-4a9e-a11a-e4caeb8cc793","bCityCode":"520100","bNetTag":""}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"phone":"15999000099","bizType":1,"horPercent":31,"jtId":"aba76943-d85b-43b0-9052-6a6dab85dbce","bCityCode":"520100","bNetTag":""}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"phone":"15999000000","bizType":1,"bCityCode":"520100","bNetTag":"trf_mgt","verifyCode":"111111"}</t>
+    <t>{"phone":"15999009999","bizType":1,"bCityCode":"","bNetTag":"trf_mgt","verifyCode":"111111"}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"phone":"15999009999","bizType":1,"bCityCode":"520100","bNetTag":"","verifyCode":"111111"}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>/v1/user/login/gesture/setAndLogin</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"encodedGesture":"67e6d10010533eed4bbe9659863bf6ee","phone":"15999099999","deviceId":"","bCityCode":"520100","deviceName":"iPhone 11","oneTimeToken":"5ba7eeca-5638-431d-a532-a1a6e746f6af"}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"encodedGesture":"67e6d10010533eed4bbe9659863bf6ee","phone":"15999099999","deviceId":"d0a46a29019140a78cc13855f8c73761","bCityCode":"520100","deviceName":"","oneTimeToken":"5ba7eeca-5638-431d-a532-a1a6e746f6af"}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{"encodedGesture":"67e6d10010533eed4bbe9659863bf6ee","phone":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>15999099999</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>","deviceId":"d0a46a29019140a78cc13855f8c73761","bCityCode":"","deviceName":"iPhone 11","oneTimeToken":"5ba7eeca-5638-431d-a532-a1a6e746f6af"}</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"encodedGesture":"67e6d10010533eed4bbe9659863bf6ee","phone":"15999099999","deviceId":"d0a46a29019140a78cc13855f8c73761","bCityCode":"520100","deviceName":"iPhone 11","oneTimeToken":"5ba7eeca-5638-431d-a532-a1a6e746f6af"}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>/user/login/verifyCode</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -2452,8 +2490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D14" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2480,7 +2518,7 @@
   <sheetData>
     <row r="1" spans="1:19" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>67</v>
@@ -2536,13 +2574,13 @@
     </row>
     <row r="2" spans="1:19" s="17" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="12" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>76</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>20</v>
@@ -2551,7 +2589,7 @@
         <v>78</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="G2" s="11"/>
       <c r="H2" s="12" t="s">
@@ -2562,7 +2600,7 @@
       </c>
       <c r="J2" s="12"/>
       <c r="K2" s="11" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="L2" s="14" t="s">
         <v>81</v>
@@ -2572,7 +2610,7 @@
       </c>
       <c r="N2" s="15"/>
       <c r="O2" s="24" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="P2" s="15" t="s">
         <v>84</v>
@@ -2585,7 +2623,7 @@
     </row>
     <row r="3" spans="1:19" s="17" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="12" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>76</v>
@@ -2611,7 +2649,7 @@
       </c>
       <c r="J3" s="12"/>
       <c r="K3" s="11" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="L3" s="14" t="s">
         <v>81</v>
@@ -2634,7 +2672,7 @@
     </row>
     <row r="4" spans="1:19" s="17" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="12" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>76</v>
@@ -2658,7 +2696,7 @@
       </c>
       <c r="J4" s="12"/>
       <c r="K4" s="11" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="L4" s="14" t="s">
         <v>89</v>
@@ -2681,7 +2719,7 @@
     </row>
     <row r="5" spans="1:19" s="17" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="12" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>76</v>
@@ -2728,7 +2766,7 @@
     </row>
     <row r="6" spans="1:19" s="17" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="12" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>76</v>
@@ -2775,7 +2813,7 @@
     </row>
     <row r="7" spans="1:19" s="17" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="12" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>76</v>
@@ -2822,13 +2860,13 @@
     </row>
     <row r="8" spans="1:19" s="17" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="23" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>76</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="D8" s="12" t="s">
         <v>20</v>
@@ -2837,7 +2875,7 @@
         <v>99</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="G8" s="11"/>
       <c r="H8" s="12"/>
@@ -2846,7 +2884,7 @@
       </c>
       <c r="J8" s="12"/>
       <c r="K8" s="11" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="L8" s="14" t="s">
         <v>101</v>
@@ -2869,7 +2907,7 @@
     </row>
     <row r="9" spans="1:19" s="17" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="23" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>76</v>
@@ -2916,7 +2954,7 @@
     </row>
     <row r="10" spans="1:19" s="17" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="23" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>76</v>
@@ -2963,7 +3001,7 @@
     </row>
     <row r="11" spans="1:19" s="17" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="23" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>76</v>
@@ -2997,7 +3035,7 @@
       </c>
       <c r="N11" s="15"/>
       <c r="O11" s="24" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="P11" s="15" t="s">
         <v>84</v>
@@ -3010,13 +3048,13 @@
     </row>
     <row r="12" spans="1:19" s="17" customFormat="1" ht="57" x14ac:dyDescent="0.15">
       <c r="A12" s="23" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>76</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="D12" s="12" t="s">
         <v>20</v>
@@ -3025,7 +3063,7 @@
         <v>111</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>309</v>
+        <v>373</v>
       </c>
       <c r="G12" s="11"/>
       <c r="H12" s="12" t="s">
@@ -3036,7 +3074,7 @@
       </c>
       <c r="J12" s="12"/>
       <c r="K12" s="20" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="L12" s="14" t="s">
         <v>113</v>
@@ -3059,7 +3097,7 @@
     </row>
     <row r="13" spans="1:19" s="17" customFormat="1" ht="57" x14ac:dyDescent="0.15">
       <c r="A13" s="23" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>76</v>
@@ -3085,7 +3123,7 @@
       </c>
       <c r="J13" s="12"/>
       <c r="K13" s="20" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="L13" s="14" t="s">
         <v>117</v>
@@ -3108,7 +3146,7 @@
     </row>
     <row r="14" spans="1:19" s="17" customFormat="1" ht="57" x14ac:dyDescent="0.15">
       <c r="A14" s="23" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>76</v>
@@ -3157,7 +3195,7 @@
     </row>
     <row r="15" spans="1:19" s="17" customFormat="1" ht="57" x14ac:dyDescent="0.15">
       <c r="A15" s="23" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="B15" s="12" t="s">
         <v>76</v>
@@ -3206,7 +3244,7 @@
     </row>
     <row r="16" spans="1:19" s="17" customFormat="1" ht="57" x14ac:dyDescent="0.15">
       <c r="A16" s="23" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="B16" s="12" t="s">
         <v>76</v>
@@ -3232,7 +3270,7 @@
       </c>
       <c r="J16" s="12"/>
       <c r="K16" s="20" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="L16" s="14" t="s">
         <v>117</v>
@@ -3255,7 +3293,7 @@
     </row>
     <row r="17" spans="1:19" s="17" customFormat="1" ht="57" x14ac:dyDescent="0.15">
       <c r="A17" s="23" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="B17" s="12" t="s">
         <v>76</v>
@@ -3281,7 +3319,7 @@
       </c>
       <c r="J17" s="12"/>
       <c r="K17" s="20" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="L17" s="14" t="s">
         <v>117</v>
@@ -3304,7 +3342,7 @@
     </row>
     <row r="18" spans="1:19" s="17" customFormat="1" ht="57" x14ac:dyDescent="0.15">
       <c r="A18" s="23" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>76</v>
@@ -3316,7 +3354,7 @@
         <v>20</v>
       </c>
       <c r="E18" s="23" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="F18" s="11" t="s">
         <v>112</v>
@@ -3330,7 +3368,7 @@
       </c>
       <c r="J18" s="12"/>
       <c r="K18" s="20" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="L18" s="14" t="s">
         <v>117</v>
@@ -3353,7 +3391,7 @@
     </row>
     <row r="19" spans="1:19" s="17" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A19" s="23" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="B19" s="12" t="s">
         <v>76</v>
@@ -3368,24 +3406,24 @@
         <v>128</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="G19" s="11"/>
       <c r="H19" s="12" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="I19" s="12" t="s">
         <v>24</v>
       </c>
       <c r="J19" s="12"/>
       <c r="K19" s="20" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="L19" s="14" t="s">
         <v>117</v>
       </c>
       <c r="M19" s="11" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="N19" s="15"/>
       <c r="O19" t="s">
@@ -3402,7 +3440,7 @@
     </row>
     <row r="20" spans="1:19" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A20" s="23" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="B20" s="12" t="s">
         <v>76</v>
@@ -3428,7 +3466,7 @@
       </c>
       <c r="J20" s="12"/>
       <c r="K20" s="20" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="L20" s="14" t="s">
         <v>113</v>
@@ -3451,7 +3489,7 @@
     </row>
     <row r="21" spans="1:19" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A21" s="23" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="B21" s="12" t="s">
         <v>76</v>
@@ -3477,7 +3515,7 @@
       </c>
       <c r="J21" s="12"/>
       <c r="K21" s="20" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="L21" s="14" t="s">
         <v>113</v>
@@ -3500,7 +3538,7 @@
     </row>
     <row r="22" spans="1:19" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A22" s="23" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="B22" s="12" t="s">
         <v>76</v>
@@ -3526,7 +3564,7 @@
       </c>
       <c r="J22" s="12"/>
       <c r="K22" s="20" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="L22" s="14" t="s">
         <v>117</v>
@@ -3549,13 +3587,13 @@
     </row>
     <row r="23" spans="1:19" s="17" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A23" s="23" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="B23" s="12" t="s">
         <v>76</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="D23" s="12" t="s">
         <v>20</v>
@@ -3564,7 +3602,7 @@
         <v>133</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="G23" s="11"/>
       <c r="H23" s="12" t="s">
@@ -3575,17 +3613,17 @@
       </c>
       <c r="J23" s="12"/>
       <c r="K23" s="20" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="L23" s="14" t="s">
         <v>135</v>
       </c>
       <c r="M23" s="11" t="s">
-        <v>136</v>
+        <v>370</v>
       </c>
       <c r="N23" s="15"/>
       <c r="O23" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="P23" s="15" t="s">
         <v>84</v>
@@ -3598,7 +3636,7 @@
     </row>
     <row r="24" spans="1:19" s="17" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A24" s="23" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="B24" s="12" t="s">
         <v>76</v>
@@ -3610,7 +3648,7 @@
         <v>20</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F24" s="11" t="s">
         <v>134</v>
@@ -3624,17 +3662,17 @@
       </c>
       <c r="J24" s="12"/>
       <c r="K24" s="20" t="s">
+        <v>369</v>
+      </c>
+      <c r="L24" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="M24" s="11" t="s">
         <v>139</v>
-      </c>
-      <c r="L24" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="M24" s="11" t="s">
-        <v>141</v>
       </c>
       <c r="N24" s="15"/>
       <c r="O24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="P24" s="15" t="s">
         <v>84</v>
@@ -3647,7 +3685,7 @@
     </row>
     <row r="25" spans="1:19" s="17" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A25" s="23" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="B25" s="12" t="s">
         <v>76</v>
@@ -3659,7 +3697,7 @@
         <v>20</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F25" s="11" t="s">
         <v>134</v>
@@ -3673,17 +3711,17 @@
       </c>
       <c r="J25" s="12"/>
       <c r="K25" s="20" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L25" s="14" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="M25" s="11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N25" s="15"/>
       <c r="O25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="P25" s="15" t="s">
         <v>84</v>
@@ -3696,7 +3734,7 @@
     </row>
     <row r="26" spans="1:19" s="17" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A26" s="23" t="s">
-        <v>320</v>
+        <v>371</v>
       </c>
       <c r="B26" s="12" t="s">
         <v>76</v>
@@ -3708,7 +3746,7 @@
         <v>86</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F26" s="11" t="s">
         <v>134</v>
@@ -3722,17 +3760,17 @@
       </c>
       <c r="J26" s="12"/>
       <c r="K26" s="20" t="s">
-        <v>146</v>
+        <v>374</v>
       </c>
       <c r="L26" s="14" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="M26" s="11" t="s">
         <v>102</v>
       </c>
       <c r="N26" s="15"/>
       <c r="O26" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="P26" s="15" t="s">
         <v>84</v>
@@ -3745,7 +3783,7 @@
     </row>
     <row r="27" spans="1:19" s="17" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A27" s="23" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="B27" s="12" t="s">
         <v>76</v>
@@ -3757,10 +3795,10 @@
         <v>86</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="G27" s="22"/>
       <c r="H27" s="12" t="s">
@@ -3771,17 +3809,17 @@
       </c>
       <c r="J27" s="12"/>
       <c r="K27" s="20" t="s">
-        <v>149</v>
+        <v>375</v>
       </c>
       <c r="L27" s="14" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="M27" s="11" t="s">
         <v>102</v>
       </c>
       <c r="N27" s="15"/>
       <c r="O27" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="P27" s="15" t="s">
         <v>84</v>
@@ -3794,7 +3832,7 @@
     </row>
     <row r="28" spans="1:19" s="17" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A28" s="23" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="B28" s="12" t="s">
         <v>76</v>
@@ -3806,7 +3844,7 @@
         <v>20</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F28" s="11" t="s">
         <v>134</v>
@@ -3820,17 +3858,17 @@
       </c>
       <c r="J28" s="12"/>
       <c r="K28" s="20" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="L28" s="14" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="M28" s="14" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="N28" s="15"/>
       <c r="O28" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="P28" s="15" t="s">
         <v>84</v>
@@ -3843,7 +3881,7 @@
     </row>
     <row r="29" spans="1:19" s="17" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A29" s="23" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="B29" s="12" t="s">
         <v>76</v>
@@ -3855,10 +3893,10 @@
         <v>20</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>134</v>
+        <v>381</v>
       </c>
       <c r="G29" s="22"/>
       <c r="H29" s="12" t="s">
@@ -3869,17 +3907,17 @@
       </c>
       <c r="J29" s="12"/>
       <c r="K29" s="20" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="L29" s="14" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="M29" s="14" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="N29" s="15"/>
       <c r="O29" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="P29" s="15" t="s">
         <v>84</v>
@@ -3892,22 +3930,22 @@
     </row>
     <row r="30" spans="1:19" s="17" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A30" s="23" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="B30" s="12" t="s">
         <v>76</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="D30" s="12" t="s">
         <v>20</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F30" s="22" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="G30" s="22"/>
       <c r="H30" s="12" t="s">
@@ -3918,17 +3956,17 @@
       </c>
       <c r="J30" s="12"/>
       <c r="K30" s="14" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="L30" s="14" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="M30" s="14" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="N30" s="15"/>
       <c r="O30" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="P30" s="15" t="s">
         <v>84</v>
@@ -3941,22 +3979,22 @@
     </row>
     <row r="31" spans="1:19" s="17" customFormat="1" ht="54" x14ac:dyDescent="0.15">
       <c r="A31" s="23" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="B31" s="12" t="s">
         <v>76</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D31" s="12" t="s">
         <v>20</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F31" s="22" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G31" s="22"/>
       <c r="H31" s="12" t="s">
@@ -3967,17 +4005,17 @@
       </c>
       <c r="J31" s="12"/>
       <c r="K31" s="14" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="L31" s="14" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="M31" s="14" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="N31" s="15"/>
       <c r="O31" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="P31" s="15" t="s">
         <v>84</v>
@@ -3990,22 +4028,22 @@
     </row>
     <row r="32" spans="1:19" s="17" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A32" s="23" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="B32" s="12" t="s">
         <v>76</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D32" s="12" t="s">
         <v>20</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F32" s="22" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G32" s="22"/>
       <c r="H32" s="12" t="s">
@@ -4016,17 +4054,17 @@
       </c>
       <c r="J32" s="12"/>
       <c r="K32" s="14" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="L32" s="14" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="M32" s="14" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="N32" s="15"/>
       <c r="O32" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="P32" s="15" t="s">
         <v>84</v>
@@ -4039,22 +4077,22 @@
     </row>
     <row r="33" spans="1:19" s="17" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A33" s="23" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="B33" s="12" t="s">
         <v>76</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D33" s="12" t="s">
         <v>86</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F33" s="22" t="s">
-        <v>156</v>
+        <v>376</v>
       </c>
       <c r="G33" s="22"/>
       <c r="H33" s="12" t="s">
@@ -4065,17 +4103,17 @@
       </c>
       <c r="J33" s="12"/>
       <c r="K33" s="14" t="s">
-        <v>166</v>
+        <v>377</v>
       </c>
       <c r="L33" s="14" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="M33" s="14" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="N33" s="15"/>
       <c r="O33" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="P33" s="15" t="s">
         <v>84</v>
@@ -4088,22 +4126,22 @@
     </row>
     <row r="34" spans="1:19" s="17" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A34" s="23" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="B34" s="12" t="s">
         <v>76</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D34" s="12" t="s">
         <v>86</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="F34" s="22" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G34" s="22"/>
       <c r="H34" s="12" t="s">
@@ -4114,17 +4152,17 @@
       </c>
       <c r="J34" s="12"/>
       <c r="K34" s="26" t="s">
-        <v>354</v>
+        <v>378</v>
       </c>
       <c r="L34" s="14" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="M34" s="14" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="N34" s="15"/>
       <c r="O34" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="P34" s="15" t="s">
         <v>84</v>
@@ -4137,22 +4175,22 @@
     </row>
     <row r="35" spans="1:19" s="17" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A35" s="23" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="B35" s="12" t="s">
         <v>76</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D35" s="12" t="s">
         <v>86</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="F35" s="22" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G35" s="22"/>
       <c r="H35" s="12" t="s">
@@ -4162,18 +4200,18 @@
         <v>24</v>
       </c>
       <c r="J35" s="12"/>
-      <c r="K35" s="14" t="s">
-        <v>171</v>
+      <c r="K35" s="26" t="s">
+        <v>379</v>
       </c>
       <c r="L35" s="14" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="M35" s="14" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="N35" s="15"/>
       <c r="O35" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="P35" s="15" t="s">
         <v>84</v>
@@ -4186,22 +4224,22 @@
     </row>
     <row r="36" spans="1:19" s="17" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A36" s="23" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="B36" s="12" t="s">
         <v>76</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D36" s="12" t="s">
         <v>20</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="F36" s="22" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="G36" s="22"/>
       <c r="H36" s="12" t="s">
@@ -4212,17 +4250,17 @@
       </c>
       <c r="J36" s="12"/>
       <c r="K36" s="26" t="s">
-        <v>357</v>
+        <v>380</v>
       </c>
       <c r="L36" s="14" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="M36" s="14" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="N36" s="15"/>
       <c r="O36" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="P36" s="15" t="s">
         <v>84</v>
@@ -4235,22 +4273,22 @@
     </row>
     <row r="37" spans="1:19" s="17" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A37" s="23" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="B37" s="12" t="s">
         <v>76</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D37" s="12" t="s">
         <v>20</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F37" s="22" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="G37" s="22"/>
       <c r="H37" s="12" t="s">
@@ -4261,45 +4299,45 @@
       </c>
       <c r="J37" s="12"/>
       <c r="K37" s="14" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="L37" s="14" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="M37" s="14" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="N37" s="15"/>
       <c r="O37" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="P37" s="15" t="s">
         <v>84</v>
       </c>
       <c r="Q37" s="12"/>
       <c r="R37" s="24" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="S37" s="12"/>
     </row>
     <row r="38" spans="1:19" s="17" customFormat="1" ht="54" x14ac:dyDescent="0.15">
       <c r="A38" s="23" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="B38" s="12" t="s">
         <v>76</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D38" s="12" t="s">
         <v>20</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F38" s="22" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="G38" s="22"/>
       <c r="H38" s="12" t="s">
@@ -4310,17 +4348,17 @@
       </c>
       <c r="J38" s="12"/>
       <c r="K38" s="14" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="L38" s="14" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="M38" s="14" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="N38" s="15"/>
       <c r="O38" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="P38" s="15" t="s">
         <v>84</v>
@@ -4333,22 +4371,22 @@
     </row>
     <row r="39" spans="1:19" s="17" customFormat="1" ht="54" x14ac:dyDescent="0.15">
       <c r="A39" s="23" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="B39" s="12" t="s">
         <v>76</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D39" s="12" t="s">
         <v>20</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="F39" s="22" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="G39" s="22"/>
       <c r="H39" s="12" t="s">
@@ -4359,17 +4397,17 @@
       </c>
       <c r="J39" s="12"/>
       <c r="K39" s="14" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="L39" s="14" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="M39" s="14" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="N39" s="15"/>
       <c r="O39" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="P39" s="15" t="s">
         <v>84</v>
@@ -4382,22 +4420,22 @@
     </row>
     <row r="40" spans="1:19" s="17" customFormat="1" ht="54" x14ac:dyDescent="0.15">
       <c r="A40" s="23" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="B40" s="12" t="s">
         <v>76</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D40" s="12" t="s">
         <v>86</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F40" s="22" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="G40" s="22"/>
       <c r="H40" s="12" t="s">
@@ -4408,17 +4446,17 @@
       </c>
       <c r="J40" s="12"/>
       <c r="K40" s="14" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="L40" s="14" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="M40" s="14" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="N40" s="15"/>
       <c r="O40" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="P40" s="15" t="s">
         <v>84</v>
@@ -4431,22 +4469,22 @@
     </row>
     <row r="41" spans="1:19" s="17" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A41" s="23" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="B41" s="12" t="s">
         <v>76</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D41" s="12" t="s">
         <v>86</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="F41" s="22" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="G41" s="22"/>
       <c r="H41" s="12" t="s">
@@ -4457,17 +4495,17 @@
       </c>
       <c r="J41" s="12"/>
       <c r="K41" s="14" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="L41" s="14" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="M41" s="14" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="N41" s="15"/>
       <c r="O41" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="P41" s="15" t="s">
         <v>84</v>
@@ -4480,22 +4518,22 @@
     </row>
     <row r="42" spans="1:19" s="17" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A42" s="23" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="B42" s="12" t="s">
         <v>76</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D42" s="12" t="s">
         <v>86</v>
       </c>
       <c r="E42" s="12" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="F42" s="22" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="G42" s="22"/>
       <c r="H42" s="12" t="s">
@@ -4506,17 +4544,17 @@
       </c>
       <c r="J42" s="12"/>
       <c r="K42" s="14" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="L42" s="14" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="M42" s="14" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="N42" s="15"/>
       <c r="O42" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="P42" s="15" t="s">
         <v>84</v>
@@ -4529,22 +4567,22 @@
     </row>
     <row r="43" spans="1:19" s="17" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A43" s="23" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="B43" s="12" t="s">
         <v>76</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D43" s="12" t="s">
         <v>20</v>
       </c>
       <c r="E43" s="12" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="F43" s="22" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="G43" s="22"/>
       <c r="H43" s="12" t="s">
@@ -4555,17 +4593,17 @@
       </c>
       <c r="J43" s="12"/>
       <c r="K43" s="14" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="L43" s="14" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="M43" s="14" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="N43" s="15"/>
       <c r="O43" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="P43" s="15" t="s">
         <v>84</v>
@@ -4578,39 +4616,39 @@
     </row>
     <row r="44" spans="1:19" s="17" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A44" s="23" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="B44" s="12" t="s">
         <v>18</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D44" s="12" t="s">
         <v>20</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="F44" s="22" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="G44" s="22"/>
       <c r="H44" s="12" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="I44" s="12" t="s">
         <v>24</v>
       </c>
       <c r="J44" s="12"/>
       <c r="K44" s="14" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="L44" s="14" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="M44" s="14" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="N44" s="15"/>
       <c r="O44" s="14"/>
@@ -4623,33 +4661,33 @@
     </row>
     <row r="45" spans="1:19" s="17" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A45" s="12" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B45" s="12" t="s">
         <v>18</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D45" s="12" t="s">
         <v>31</v>
       </c>
       <c r="E45" s="12" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="F45" s="22" t="s">
         <v>79</v>
       </c>
       <c r="G45" s="22"/>
       <c r="H45" s="12" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="I45" s="12" t="s">
         <v>24</v>
       </c>
       <c r="J45" s="12"/>
       <c r="K45" s="14" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="L45" s="14" t="s">
         <v>65</v>
@@ -4668,36 +4706,36 @@
     </row>
     <row r="46" spans="1:19" s="17" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A46" s="12" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="B46" s="12" t="s">
         <v>18</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D46" s="12" t="s">
         <v>31</v>
       </c>
       <c r="E46" s="12" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="F46" s="22" t="s">
         <v>79</v>
       </c>
       <c r="G46" s="22"/>
       <c r="H46" s="12" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="I46" s="12" t="s">
         <v>24</v>
       </c>
       <c r="J46" s="12"/>
       <c r="K46" s="14" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="L46" s="14" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="M46" s="14" t="s">
         <v>90</v>
@@ -4713,39 +4751,39 @@
     </row>
     <row r="47" spans="1:19" s="17" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A47" s="12" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B47" s="12" t="s">
         <v>18</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D47" s="12" t="s">
         <v>31</v>
       </c>
       <c r="E47" s="12" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="F47" s="22" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="G47" s="22"/>
       <c r="H47" s="12" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="I47" s="12" t="s">
         <v>24</v>
       </c>
       <c r="J47" s="12"/>
       <c r="K47" s="14" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="L47" s="14" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="M47" s="14" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="N47" s="15"/>
       <c r="O47" s="14"/>
@@ -4758,39 +4796,39 @@
     </row>
     <row r="48" spans="1:19" s="17" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A48" s="12" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="B48" s="12" t="s">
         <v>18</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D48" s="12" t="s">
         <v>31</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="F48" s="22" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="G48" s="22"/>
       <c r="H48" s="12" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="I48" s="12" t="s">
         <v>24</v>
       </c>
       <c r="J48" s="12"/>
       <c r="K48" s="14" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="L48" s="14" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="M48" s="14" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="N48" s="15"/>
       <c r="O48" s="14"/>
@@ -4803,39 +4841,39 @@
     </row>
     <row r="49" spans="1:19" s="17" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A49" s="12" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="B49" s="12" t="s">
         <v>18</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D49" s="12" t="s">
         <v>31</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="F49" s="22" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="G49" s="22"/>
       <c r="H49" s="12" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="I49" s="12" t="s">
         <v>24</v>
       </c>
       <c r="J49" s="12"/>
       <c r="K49" s="14" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="L49" s="14" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="M49" s="14" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="N49" s="15"/>
       <c r="O49" s="14"/>
@@ -4848,39 +4886,39 @@
     </row>
     <row r="50" spans="1:19" s="17" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A50" s="12" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B50" s="12" t="s">
         <v>18</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D50" s="12" t="s">
         <v>31</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="F50" s="22" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="G50" s="22"/>
       <c r="H50" s="12" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="I50" s="12" t="s">
         <v>24</v>
       </c>
       <c r="J50" s="12"/>
       <c r="K50" s="14" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="L50" s="14" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="M50" s="14" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="N50" s="15"/>
       <c r="O50" s="14"/>
@@ -4893,39 +4931,39 @@
     </row>
     <row r="51" spans="1:19" s="17" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A51" s="12" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="B51" s="12" t="s">
         <v>18</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D51" s="12" t="s">
         <v>20</v>
       </c>
       <c r="E51" s="12" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="F51" s="22" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="G51" s="22"/>
       <c r="H51" s="12" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="I51" s="12" t="s">
         <v>24</v>
       </c>
       <c r="J51" s="12"/>
       <c r="K51" s="14" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="L51" s="14" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="M51" s="14" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="N51" s="15"/>
       <c r="O51" s="14"/>
@@ -4938,39 +4976,39 @@
     </row>
     <row r="52" spans="1:19" s="17" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A52" s="12" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="B52" s="12" t="s">
         <v>18</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D52" s="12" t="s">
         <v>31</v>
       </c>
       <c r="E52" s="12" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="F52" s="22" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="G52" s="22"/>
       <c r="H52" s="12" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="I52" s="12" t="s">
         <v>24</v>
       </c>
       <c r="J52" s="12"/>
       <c r="K52" s="14" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="L52" s="14" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="M52" s="14" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="N52" s="15"/>
       <c r="O52" s="14"/>
@@ -4983,39 +5021,39 @@
     </row>
     <row r="53" spans="1:19" s="17" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A53" s="12" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B53" s="12" t="s">
         <v>18</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D53" s="12" t="s">
         <v>31</v>
       </c>
       <c r="E53" s="12" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="F53" s="22" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="G53" s="22"/>
       <c r="H53" s="12" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="I53" s="12" t="s">
         <v>24</v>
       </c>
       <c r="J53" s="12"/>
       <c r="K53" s="14" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="L53" s="14" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="M53" s="14" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="N53" s="15"/>
       <c r="O53" s="14"/>
@@ -5024,45 +5062,45 @@
       </c>
       <c r="Q53" s="12"/>
       <c r="R53" s="21" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="S53" s="12"/>
     </row>
     <row r="54" spans="1:19" s="17" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A54" s="12" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B54" s="12" t="s">
         <v>18</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D54" s="12" t="s">
         <v>31</v>
       </c>
       <c r="E54" s="12" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="F54" s="22" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="G54" s="22"/>
       <c r="H54" s="12" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="I54" s="12" t="s">
         <v>24</v>
       </c>
       <c r="J54" s="12"/>
       <c r="K54" s="14" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="L54" s="14" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="M54" s="14" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="N54" s="15"/>
       <c r="O54" s="14"/>
@@ -5075,39 +5113,39 @@
     </row>
     <row r="55" spans="1:19" s="17" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A55" s="12" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="B55" s="12" t="s">
         <v>18</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D55" s="12" t="s">
         <v>31</v>
       </c>
       <c r="E55" s="12" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="F55" s="22" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="G55" s="22"/>
       <c r="H55" s="12" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="I55" s="12" t="s">
         <v>24</v>
       </c>
       <c r="J55" s="12"/>
       <c r="K55" s="14" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="L55" s="14" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="M55" s="14" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="N55" s="15"/>
       <c r="O55" s="14"/>
@@ -5120,41 +5158,41 @@
     </row>
     <row r="56" spans="1:19" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="12" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D56" s="12" t="s">
         <v>20</v>
       </c>
       <c r="E56" s="12" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="F56" s="22" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="G56" s="22"/>
       <c r="H56" s="12" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="I56" s="12" t="s">
         <v>63</v>
       </c>
       <c r="K56" s="14" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="L56" s="14" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="M56" s="14" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="O56" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="P56" s="15" t="s">
         <v>84</v>
@@ -5165,41 +5203,41 @@
     </row>
     <row r="57" spans="1:19" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="12" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D57" s="12" t="s">
         <v>20</v>
       </c>
       <c r="E57" s="12" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="F57" s="22" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="G57" s="22"/>
       <c r="H57" s="12" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="I57" s="12" t="s">
         <v>63</v>
       </c>
       <c r="K57" s="14" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="L57" s="14" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="M57" s="14" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="O57" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="P57" s="15" t="s">
         <v>84</v>
@@ -5210,41 +5248,41 @@
     </row>
     <row r="58" spans="1:19" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="12" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D58" s="12" t="s">
         <v>86</v>
       </c>
       <c r="E58" s="12" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="F58" s="22" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="G58" s="22"/>
       <c r="H58" s="12" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="I58" s="12" t="s">
         <v>63</v>
       </c>
       <c r="K58" s="14" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="L58" s="14" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="M58" s="14" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="O58" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="P58" s="15" t="s">
         <v>84</v>
@@ -5255,41 +5293,41 @@
     </row>
     <row r="59" spans="1:19" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="12" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D59" s="12" t="s">
         <v>86</v>
       </c>
       <c r="E59" s="12" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F59" s="22" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="G59" s="22"/>
       <c r="H59" s="12" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="I59" s="12" t="s">
         <v>63</v>
       </c>
       <c r="K59" s="14" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="L59" s="14" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="M59" s="14" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="O59" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="P59" s="15" t="s">
         <v>84</v>
@@ -5300,41 +5338,41 @@
     </row>
     <row r="60" spans="1:19" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="12" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D60" s="12" t="s">
         <v>20</v>
       </c>
       <c r="E60" s="12" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="F60" s="22" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="G60" s="22"/>
       <c r="H60" s="12" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="I60" s="12" t="s">
         <v>63</v>
       </c>
       <c r="K60" s="14" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="L60" s="14" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="M60" s="14" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="O60" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="P60" s="15" t="s">
         <v>84</v>
@@ -5345,41 +5383,41 @@
     </row>
     <row r="61" spans="1:19" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="12" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D61" s="12" t="s">
         <v>20</v>
       </c>
       <c r="E61" s="12" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="F61" s="22" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="G61" s="22"/>
       <c r="H61" s="12" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="I61" s="12" t="s">
         <v>63</v>
       </c>
       <c r="K61" s="14" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="L61" s="14" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="M61" s="14" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="O61" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="P61" s="15" t="s">
         <v>84</v>
@@ -5390,41 +5428,41 @@
     </row>
     <row r="62" spans="1:19" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="12" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D62" s="12" t="s">
         <v>20</v>
       </c>
       <c r="E62" s="12" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="F62" s="22" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="G62" s="22"/>
       <c r="H62" s="12" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="I62" s="12" t="s">
         <v>63</v>
       </c>
       <c r="K62" s="14" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="L62" s="14" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="M62" s="14" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="O62" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="P62" s="15" t="s">
         <v>84</v>
@@ -5435,41 +5473,41 @@
     </row>
     <row r="63" spans="1:19" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="12" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D63" s="12" t="s">
         <v>86</v>
       </c>
       <c r="E63" s="12" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="F63" s="22" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="G63" s="22"/>
       <c r="H63" s="12" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="I63" s="12" t="s">
         <v>63</v>
       </c>
       <c r="K63" s="14" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="L63" s="14" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="M63" s="14" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="O63" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="P63" s="15" t="s">
         <v>84</v>
@@ -5480,41 +5518,41 @@
     </row>
     <row r="64" spans="1:19" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="12" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D64" s="12" t="s">
         <v>86</v>
       </c>
       <c r="E64" s="12" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F64" s="22" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="G64" s="22"/>
       <c r="H64" s="12" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="I64" s="12" t="s">
         <v>63</v>
       </c>
       <c r="K64" s="14" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L64" s="14" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="M64" s="14" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="O64" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="P64" s="15" t="s">
         <v>84</v>
@@ -5525,41 +5563,41 @@
     </row>
     <row r="65" spans="1:18" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="12" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D65" s="12" t="s">
         <v>20</v>
       </c>
       <c r="E65" s="12" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="F65" s="22" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="G65" s="22"/>
       <c r="H65" s="12" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="I65" s="12" t="s">
         <v>63</v>
       </c>
       <c r="K65" s="14" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="L65" s="14" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="M65" s="14" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="O65" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="P65" s="15" t="s">
         <v>84</v>
@@ -5570,38 +5608,38 @@
     </row>
     <row r="66" spans="1:18" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="12" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="C66" s="18" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="D66" s="12" t="s">
         <v>31</v>
       </c>
       <c r="E66" s="12" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="F66" s="22" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="G66" s="22"/>
       <c r="H66" s="12" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="I66" s="12" t="s">
         <v>63</v>
       </c>
       <c r="L66" s="14" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="M66" s="14" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="O66" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="P66" s="15" t="s">
         <v>84</v>
@@ -5612,41 +5650,41 @@
     </row>
     <row r="67" spans="1:18" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="12" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="C67" s="18" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="D67" s="12" t="s">
         <v>20</v>
       </c>
       <c r="E67" s="12" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="F67" s="22" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="G67" s="22"/>
       <c r="H67" s="12" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="I67" s="12" t="s">
         <v>63</v>
       </c>
       <c r="K67" s="14" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="L67" s="14" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="M67" s="14" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="O67" s="14" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="P67" s="15" t="s">
         <v>84</v>
@@ -5657,41 +5695,41 @@
     </row>
     <row r="68" spans="1:18" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="12" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="C68" s="18" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="D68" s="12" t="s">
         <v>20</v>
       </c>
       <c r="E68" s="12" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="F68" s="22" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="G68" s="22"/>
       <c r="H68" s="12" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="I68" s="12" t="s">
         <v>63</v>
       </c>
       <c r="K68" s="14" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="L68" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="M68" s="14" t="s">
         <v>285</v>
       </c>
-      <c r="M68" s="14" t="s">
-        <v>291</v>
-      </c>
       <c r="O68" s="14" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="P68" s="15" t="s">
         <v>84</v>
@@ -5702,41 +5740,41 @@
     </row>
     <row r="69" spans="1:18" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="12" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="C69" s="18" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="D69" s="12" t="s">
         <v>20</v>
       </c>
       <c r="E69" s="12" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="F69" s="22" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="G69" s="22"/>
       <c r="H69" s="12" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="I69" s="12" t="s">
         <v>63</v>
       </c>
       <c r="K69" s="14" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="L69" s="14" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="M69" s="14" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="O69" s="14" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="P69" s="15" t="s">
         <v>84</v>
@@ -5747,41 +5785,41 @@
     </row>
     <row r="70" spans="1:18" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="12" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="C70" s="18" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="D70" s="12" t="s">
         <v>20</v>
       </c>
       <c r="E70" s="12" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="F70" s="22" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="G70" s="22"/>
       <c r="H70" s="12" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="I70" s="12" t="s">
         <v>63</v>
       </c>
       <c r="K70" s="14" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="L70" s="14" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="M70" s="14" t="s">
         <v>102</v>
       </c>
       <c r="O70" s="14" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="P70" s="15" t="s">
         <v>84</v>

--- a/test_case_data/bmc/bmc_base_info_2021513.xlsx
+++ b/test_case_data/bmc/bmc_base_info_2021513.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="384">
   <si>
     <t>caseNum</t>
   </si>
@@ -649,19 +649,7 @@
     <t>{"deviceName":"iPhone11","phone":"15999000000","deviceId":"d0a46a29019140a78cc13855f8c73761","bCityCode":"520100","encodedKeyboardPwd":"","oneTimeToken":"b769c61d-7180-46b3-8e32-01ac07e47eca"}</t>
   </si>
   <si>
-    <t>{"deviceName":"iPhone11","phone":"15999000000","deviceId":"","bCityCode":"520100","encodedKeyboardPwd":"25788f1860937a6513a9479292de94e8","oneTimeToken":"b769c61d-7180-46b3-8e32-01ac07e47eca"}</t>
-  </si>
-  <si>
     <t>{"success":true,"code":1000,"msg":"密码设置成功"}</t>
-  </si>
-  <si>
-    <t>{"deviceName":"","phone":"15999000000","deviceId":"d0a46a29019140a78cc13855f8c73761","bCityCode":"520100","encodedKeyboardPwd":"25788f1860937a6513a9479292de94e8","oneTimeToken":"b769c61d-7180-46b3-8e32-01ac07e47eca"}</t>
-  </si>
-  <si>
-    <t>{"deviceName":"iPhone11","phone":"15999000000","deviceId":"d0a46a29019140a78cc13855f8c73761","bCityCode":"","encodedKeyboardPwd":"25788f1860937a6513a9479292de94e8","oneTimeToken":"b769c61d-7180-46b3-8e32-01ac07e47eca"}</t>
-  </si>
-  <si>
-    <t>{"deviceName":"iPhone11","phone":"15999000000","deviceId":"d0a46a29019140a78cc13855f8c73761","bCityCode":"520100","encodedKeyboardPwd":"25788f1860937a6513a9479292de94e8","oneTimeToken":"b769c61d-7180-46b3-8e32-01ac07e47eca"}</t>
   </si>
   <si>
     <t>logipn001</t>
@@ -1114,12 +1102,6 @@
   </si>
   <si>
     <t>keyboardPwdsetAndLoginRegister003</t>
-  </si>
-  <si>
-    <t>keyboardPwdsetAndLoginRegister004</t>
-  </si>
-  <si>
-    <t>keyboardPwdsetAndLoginRegister005</t>
   </si>
   <si>
     <t>keyboardPwdsetAndLoginRegister006</t>
@@ -1242,10 +1224,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>{"phone":"15999000000","bizType":1,"bCityCode":"520100","bNetTag":"trf_mgt","verifyCode":""}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>{"phone":"15778000000","bCityCode":"520100"}</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -1275,10 +1253,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>gesturesetAndLoginRegister004</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>gesturesetAndLoginRegister005</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -1308,10 +1282,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>/v1/user/login/keyboardPwd/setAndLogin</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>/sys/captcha</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -1348,39 +1318,7 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>{"success":false,"code":1100001,"msg":"图片验证码超时","errorMsg":"图片验证码超时"}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>{"phone":"15999000099","bizType":1,"horPercent":34,"jtId":"b8d1effc-806a-4a9e-a11a-e4caeb8cc793","bCityCode":"520100","bNetTag":"trf_mgt"}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"phone":"15999000099","bizType":"","horPercent":34,"jtId":"b8d1effc-806a-4a9e-a11a-e4caeb8cc793","bCityCode":"520100","bNetTag":"trf_mgt"}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"phone":"15999000099","bizType":1,"horPercent":"","jtId":"b8d1effc-806a-4a9e-a11a-e4caeb8cc793","bCityCode":"520100","bNetTag":"trf_mgt"}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"phone":"15999000099","bizType":1,"horPercent":"1","jtId":"b8d1effc-806a-4a9e-a11a-e4caeb8cc793","bCityCode":"520100","bNetTag":"trf_mgt"}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"phone":"15999000099","bizType":1,"horPercent":34,"jtId":"","bCityCode":"520100","bNetTag":"trf_mgt"}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"phone":"15999000099","bizType":1,"horPercent":34,"jtId":"b8d1effc-806a-4a9e-a11a-e4caeb8cc793","bCityCode":"","bNetTag":"trf_mgt"}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"phone":"15999000099","bizType":1,"horPercent":34,"jtId":"b8d1effc-806a-4a9e-a11a-e4caeb8cc793","bCityCode":"520100","bNetTag":""}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"phone":"15999000099","bizType":1,"horPercent":31,"jtId":"aba76943-d85b-43b0-9052-6a6dab85dbce","bCityCode":"520100","bNetTag":""}</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -1434,10 +1372,6 @@
   </si>
   <si>
     <t>{"encodedGesture":"67e6d10010533eed4bbe9659863bf6ee","phone":"15999099999","deviceId":"","bCityCode":"520100","deviceName":"iPhone 11","oneTimeToken":"5ba7eeca-5638-431d-a532-a1a6e746f6af"}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"encodedGesture":"67e6d10010533eed4bbe9659863bf6ee","phone":"15999099999","deviceId":"d0a46a29019140a78cc13855f8c73761","bCityCode":"520100","deviceName":"","oneTimeToken":"5ba7eeca-5638-431d-a532-a1a6e746f6af"}</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -1473,6 +1407,143 @@
   </si>
   <si>
     <t>/user/login/verifyCode</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"phone":"15999000000","bizType":1,"bCityCode":"520100","bNetTag":"trf_mgt","verifyCode":""}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"encodedGesture":"67e6d10010533eed4bbe9659863bf6ee","phone":"15999099999","deviceId":"d0a46a29019140a78cc13855f8c73761","bCityCode":"520100","deviceName":"","oneTimeToken":"5ba7eeca-5638-431d-a532-a1a6e746f6af"}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>字符密码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>登录</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>/v1/user/login/keyboardPwd/setAndLogin</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>keyboardPwdsetAndLoginRegister005</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"deviceName":"iPhone11","phone":"15999999999","deviceId":"","bCityCode":"520100","encodedKeyboardPwd":"25788f1860937a6513a9479292de94e8","oneTimeToken":"b769c61d-7180-46b3-8e32-01ac07e47eca"}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>/v1/user/login/keyboardPwd/setAndLogin</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"success":false,"code":1100001,"msg":"图片验证码超时","errorMsg":"图片验证码超时"}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"phone":"15999000000","bizType":"","horPercent":34,"jtId":"b8d1effc-806a-4a9e-a11a-e4caeb8cc793","bCityCode":"520100","bNetTag":"trf_mgt"}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"phone":"15999000000","bizType":1,"horPercent":"","jtId":"b8d1effc-806a-4a9e-a11a-e4caeb8cc793","bCityCode":"520100","bNetTag":"trf_mgt"}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"phone":"15999000000","bizType":1,"horPercent":"1","jtId":"b8d1effc-806a-4a9e-a11a-e4caeb8cc793","bCityCode":"520100","bNetTag":"trf_mgt"}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"phone":"15999000000","bizType":1,"horPercent":34,"jtId":"","bCityCode":"520100","bNetTag":"trf_mgt"}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"phone":"15999000000","bizType":1,"horPercent":34,"jtId":"b8d1effc-806a-4a9e-a11a-e4caeb8cc793","bCityCode":"","bNetTag":"trf_mgt"}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"phone":"15999000000","bizType":1,"horPercent":34,"jtId":"b8d1effc-806a-4a9e-a11a-e4caeb8cc793","bCityCode":"520100","bNetTag":""}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"phone":"15999000000","bizType":1,"horPercent":31,"jtId":"aba76943-d85b-43b0-9052-6a6dab85dbce","bCityCode":"520100","bNetTag":""}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gesturesetAndLoginRegister004</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>keyboardPwdsetAndLoginRegister004</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{"deviceName":"","phone":"15999999999</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>","deviceId":"d0a46a29019140a78cc13855f8c73761","bCityCode":"520100","encodedKeyboardPwd":"25788f1860937a6513a9479292de94e8","oneTimeToken":"b769c61d-7180-46b3-8e32-01ac07e47eca"}</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{"deviceName":"iPhone11","phone":"15999999999</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>","deviceId":"d0a46a29019140a78cc13855f8c73761","bCityCode":"","encodedKeyboardPwd":"25788f1860937a6513a9479292de94e8","oneTimeToken":"b769c61d-7180-46b3-8e32-01ac07e47eca"}</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{"deviceName":"iPhone11","phone":"15999999999</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>","deviceId":"d0a46a29019140a78cc13855f8c73761","bCityCode":"520100","encodedKeyboardPwd":"25788f1860937a6513a9479292de94e8","oneTimeToken":"b769c61d-7180-46b3-8e32-01ac07e47eca"}</t>
+    </r>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -2490,8 +2561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" topLeftCell="E38" workbookViewId="0">
+      <selection activeCell="L43" sqref="L43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2518,7 +2589,7 @@
   <sheetData>
     <row r="1" spans="1:19" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
-        <v>372</v>
+        <v>355</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>67</v>
@@ -2574,13 +2645,13 @@
     </row>
     <row r="2" spans="1:19" s="17" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="12" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>76</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>20</v>
@@ -2589,7 +2660,7 @@
         <v>78</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="G2" s="11"/>
       <c r="H2" s="12" t="s">
@@ -2600,7 +2671,7 @@
       </c>
       <c r="J2" s="12"/>
       <c r="K2" s="11" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="L2" s="14" t="s">
         <v>81</v>
@@ -2610,7 +2681,7 @@
       </c>
       <c r="N2" s="15"/>
       <c r="O2" s="24" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="P2" s="15" t="s">
         <v>84</v>
@@ -2623,7 +2694,7 @@
     </row>
     <row r="3" spans="1:19" s="17" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="12" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>76</v>
@@ -2649,7 +2720,7 @@
       </c>
       <c r="J3" s="12"/>
       <c r="K3" s="11" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="L3" s="14" t="s">
         <v>81</v>
@@ -2672,7 +2743,7 @@
     </row>
     <row r="4" spans="1:19" s="17" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="12" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>76</v>
@@ -2696,7 +2767,7 @@
       </c>
       <c r="J4" s="12"/>
       <c r="K4" s="11" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="L4" s="14" t="s">
         <v>89</v>
@@ -2719,7 +2790,7 @@
     </row>
     <row r="5" spans="1:19" s="17" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="12" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>76</v>
@@ -2766,7 +2837,7 @@
     </row>
     <row r="6" spans="1:19" s="17" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="12" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>76</v>
@@ -2813,7 +2884,7 @@
     </row>
     <row r="7" spans="1:19" s="17" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="12" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>76</v>
@@ -2860,13 +2931,13 @@
     </row>
     <row r="8" spans="1:19" s="17" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="23" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>76</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="D8" s="12" t="s">
         <v>20</v>
@@ -2875,7 +2946,7 @@
         <v>99</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="G8" s="11"/>
       <c r="H8" s="12"/>
@@ -2884,7 +2955,7 @@
       </c>
       <c r="J8" s="12"/>
       <c r="K8" s="11" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="L8" s="14" t="s">
         <v>101</v>
@@ -2907,7 +2978,7 @@
     </row>
     <row r="9" spans="1:19" s="17" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="23" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>76</v>
@@ -2954,7 +3025,7 @@
     </row>
     <row r="10" spans="1:19" s="17" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="23" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>76</v>
@@ -3001,7 +3072,7 @@
     </row>
     <row r="11" spans="1:19" s="17" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="23" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>76</v>
@@ -3035,7 +3106,7 @@
       </c>
       <c r="N11" s="15"/>
       <c r="O11" s="24" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="P11" s="15" t="s">
         <v>84</v>
@@ -3048,13 +3119,13 @@
     </row>
     <row r="12" spans="1:19" s="17" customFormat="1" ht="57" x14ac:dyDescent="0.15">
       <c r="A12" s="23" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>76</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="D12" s="12" t="s">
         <v>20</v>
@@ -3063,7 +3134,7 @@
         <v>111</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>373</v>
+        <v>356</v>
       </c>
       <c r="G12" s="11"/>
       <c r="H12" s="12" t="s">
@@ -3074,7 +3145,7 @@
       </c>
       <c r="J12" s="12"/>
       <c r="K12" s="20" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="L12" s="14" t="s">
         <v>113</v>
@@ -3097,7 +3168,7 @@
     </row>
     <row r="13" spans="1:19" s="17" customFormat="1" ht="57" x14ac:dyDescent="0.15">
       <c r="A13" s="23" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>76</v>
@@ -3123,7 +3194,7 @@
       </c>
       <c r="J13" s="12"/>
       <c r="K13" s="20" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="L13" s="14" t="s">
         <v>117</v>
@@ -3146,7 +3217,7 @@
     </row>
     <row r="14" spans="1:19" s="17" customFormat="1" ht="57" x14ac:dyDescent="0.15">
       <c r="A14" s="23" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>76</v>
@@ -3195,7 +3266,7 @@
     </row>
     <row r="15" spans="1:19" s="17" customFormat="1" ht="57" x14ac:dyDescent="0.15">
       <c r="A15" s="23" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B15" s="12" t="s">
         <v>76</v>
@@ -3244,7 +3315,7 @@
     </row>
     <row r="16" spans="1:19" s="17" customFormat="1" ht="57" x14ac:dyDescent="0.15">
       <c r="A16" s="23" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="B16" s="12" t="s">
         <v>76</v>
@@ -3270,7 +3341,7 @@
       </c>
       <c r="J16" s="12"/>
       <c r="K16" s="20" t="s">
-        <v>361</v>
+        <v>372</v>
       </c>
       <c r="L16" s="14" t="s">
         <v>117</v>
@@ -3293,7 +3364,7 @@
     </row>
     <row r="17" spans="1:19" s="17" customFormat="1" ht="57" x14ac:dyDescent="0.15">
       <c r="A17" s="23" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="B17" s="12" t="s">
         <v>76</v>
@@ -3319,7 +3390,7 @@
       </c>
       <c r="J17" s="12"/>
       <c r="K17" s="20" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="L17" s="14" t="s">
         <v>117</v>
@@ -3342,7 +3413,7 @@
     </row>
     <row r="18" spans="1:19" s="17" customFormat="1" ht="57" x14ac:dyDescent="0.15">
       <c r="A18" s="23" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>76</v>
@@ -3354,7 +3425,7 @@
         <v>20</v>
       </c>
       <c r="E18" s="23" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="F18" s="11" t="s">
         <v>112</v>
@@ -3368,7 +3439,7 @@
       </c>
       <c r="J18" s="12"/>
       <c r="K18" s="20" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="L18" s="14" t="s">
         <v>117</v>
@@ -3391,7 +3462,7 @@
     </row>
     <row r="19" spans="1:19" s="17" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A19" s="23" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="B19" s="12" t="s">
         <v>76</v>
@@ -3406,24 +3477,24 @@
         <v>128</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="G19" s="11"/>
       <c r="H19" s="12" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="I19" s="12" t="s">
         <v>24</v>
       </c>
       <c r="J19" s="12"/>
       <c r="K19" s="20" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
       <c r="L19" s="14" t="s">
         <v>117</v>
       </c>
       <c r="M19" s="11" t="s">
-        <v>359</v>
+        <v>371</v>
       </c>
       <c r="N19" s="15"/>
       <c r="O19" t="s">
@@ -3440,7 +3511,7 @@
     </row>
     <row r="20" spans="1:19" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A20" s="23" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="B20" s="12" t="s">
         <v>76</v>
@@ -3466,7 +3537,7 @@
       </c>
       <c r="J20" s="12"/>
       <c r="K20" s="20" t="s">
-        <v>365</v>
+        <v>376</v>
       </c>
       <c r="L20" s="14" t="s">
         <v>113</v>
@@ -3489,7 +3560,7 @@
     </row>
     <row r="21" spans="1:19" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A21" s="23" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B21" s="12" t="s">
         <v>76</v>
@@ -3515,7 +3586,7 @@
       </c>
       <c r="J21" s="12"/>
       <c r="K21" s="20" t="s">
-        <v>366</v>
+        <v>377</v>
       </c>
       <c r="L21" s="14" t="s">
         <v>113</v>
@@ -3538,7 +3609,7 @@
     </row>
     <row r="22" spans="1:19" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A22" s="23" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B22" s="12" t="s">
         <v>76</v>
@@ -3564,7 +3635,7 @@
       </c>
       <c r="J22" s="12"/>
       <c r="K22" s="20" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="L22" s="14" t="s">
         <v>117</v>
@@ -3587,13 +3658,13 @@
     </row>
     <row r="23" spans="1:19" s="17" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A23" s="23" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="B23" s="12" t="s">
         <v>76</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="D23" s="12" t="s">
         <v>20</v>
@@ -3602,7 +3673,7 @@
         <v>133</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="G23" s="11"/>
       <c r="H23" s="12" t="s">
@@ -3613,13 +3684,13 @@
       </c>
       <c r="J23" s="12"/>
       <c r="K23" s="20" t="s">
-        <v>368</v>
+        <v>351</v>
       </c>
       <c r="L23" s="14" t="s">
         <v>135</v>
       </c>
       <c r="M23" s="11" t="s">
-        <v>370</v>
+        <v>353</v>
       </c>
       <c r="N23" s="15"/>
       <c r="O23" t="s">
@@ -3636,7 +3707,7 @@
     </row>
     <row r="24" spans="1:19" s="17" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A24" s="23" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="B24" s="12" t="s">
         <v>76</v>
@@ -3662,7 +3733,7 @@
       </c>
       <c r="J24" s="12"/>
       <c r="K24" s="20" t="s">
-        <v>369</v>
+        <v>352</v>
       </c>
       <c r="L24" s="14" t="s">
         <v>138</v>
@@ -3685,7 +3756,7 @@
     </row>
     <row r="25" spans="1:19" s="17" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A25" s="23" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="B25" s="12" t="s">
         <v>76</v>
@@ -3734,7 +3805,7 @@
     </row>
     <row r="26" spans="1:19" s="17" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A26" s="23" t="s">
-        <v>371</v>
+        <v>354</v>
       </c>
       <c r="B26" s="12" t="s">
         <v>76</v>
@@ -3760,7 +3831,7 @@
       </c>
       <c r="J26" s="12"/>
       <c r="K26" s="20" t="s">
-        <v>374</v>
+        <v>357</v>
       </c>
       <c r="L26" s="14" t="s">
         <v>144</v>
@@ -3783,7 +3854,7 @@
     </row>
     <row r="27" spans="1:19" s="17" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A27" s="23" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="B27" s="12" t="s">
         <v>76</v>
@@ -3798,7 +3869,7 @@
         <v>145</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="G27" s="22"/>
       <c r="H27" s="12" t="s">
@@ -3809,7 +3880,7 @@
       </c>
       <c r="J27" s="12"/>
       <c r="K27" s="20" t="s">
-        <v>375</v>
+        <v>358</v>
       </c>
       <c r="L27" s="14" t="s">
         <v>144</v>
@@ -3832,7 +3903,7 @@
     </row>
     <row r="28" spans="1:19" s="17" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A28" s="23" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B28" s="12" t="s">
         <v>76</v>
@@ -3881,7 +3952,7 @@
     </row>
     <row r="29" spans="1:19" s="17" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A29" s="23" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B29" s="12" t="s">
         <v>76</v>
@@ -3896,7 +3967,7 @@
         <v>149</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="G29" s="22"/>
       <c r="H29" s="12" t="s">
@@ -3907,7 +3978,7 @@
       </c>
       <c r="J29" s="12"/>
       <c r="K29" s="20" t="s">
-        <v>339</v>
+        <v>364</v>
       </c>
       <c r="L29" s="14" t="s">
         <v>138</v>
@@ -3930,13 +4001,13 @@
     </row>
     <row r="30" spans="1:19" s="17" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A30" s="23" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="B30" s="12" t="s">
         <v>76</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="D30" s="12" t="s">
         <v>20</v>
@@ -3945,7 +4016,7 @@
         <v>151</v>
       </c>
       <c r="F30" s="22" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="G30" s="22"/>
       <c r="H30" s="12" t="s">
@@ -3979,7 +4050,7 @@
     </row>
     <row r="31" spans="1:19" s="17" customFormat="1" ht="54" x14ac:dyDescent="0.15">
       <c r="A31" s="23" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="B31" s="12" t="s">
         <v>76</v>
@@ -4028,7 +4099,7 @@
     </row>
     <row r="32" spans="1:19" s="17" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A32" s="23" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B32" s="12" t="s">
         <v>76</v>
@@ -4077,7 +4148,7 @@
     </row>
     <row r="33" spans="1:19" s="17" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A33" s="23" t="s">
-        <v>344</v>
+        <v>379</v>
       </c>
       <c r="B33" s="12" t="s">
         <v>76</v>
@@ -4092,7 +4163,7 @@
         <v>161</v>
       </c>
       <c r="F33" s="22" t="s">
-        <v>376</v>
+        <v>359</v>
       </c>
       <c r="G33" s="22"/>
       <c r="H33" s="12" t="s">
@@ -4103,7 +4174,7 @@
       </c>
       <c r="J33" s="12"/>
       <c r="K33" s="14" t="s">
-        <v>377</v>
+        <v>360</v>
       </c>
       <c r="L33" s="14" t="s">
         <v>162</v>
@@ -4126,7 +4197,7 @@
     </row>
     <row r="34" spans="1:19" s="17" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A34" s="23" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="B34" s="12" t="s">
         <v>76</v>
@@ -4152,7 +4223,7 @@
       </c>
       <c r="J34" s="12"/>
       <c r="K34" s="26" t="s">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="L34" s="14" t="s">
         <v>162</v>
@@ -4175,7 +4246,7 @@
     </row>
     <row r="35" spans="1:19" s="17" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A35" s="23" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="B35" s="12" t="s">
         <v>76</v>
@@ -4201,7 +4272,7 @@
       </c>
       <c r="J35" s="12"/>
       <c r="K35" s="26" t="s">
-        <v>379</v>
+        <v>361</v>
       </c>
       <c r="L35" s="14" t="s">
         <v>162</v>
@@ -4224,7 +4295,7 @@
     </row>
     <row r="36" spans="1:19" s="17" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A36" s="23" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="B36" s="12" t="s">
         <v>76</v>
@@ -4239,7 +4310,7 @@
         <v>166</v>
       </c>
       <c r="F36" s="22" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="G36" s="22"/>
       <c r="H36" s="12" t="s">
@@ -4250,7 +4321,7 @@
       </c>
       <c r="J36" s="12"/>
       <c r="K36" s="26" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="L36" s="14" t="s">
         <v>162</v>
@@ -4273,13 +4344,13 @@
     </row>
     <row r="37" spans="1:19" s="17" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A37" s="23" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="B37" s="12" t="s">
         <v>76</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>167</v>
+        <v>366</v>
       </c>
       <c r="D37" s="12" t="s">
         <v>20</v>
@@ -4288,7 +4359,7 @@
         <v>151</v>
       </c>
       <c r="F37" s="22" t="s">
-        <v>349</v>
+        <v>367</v>
       </c>
       <c r="G37" s="22"/>
       <c r="H37" s="12" t="s">
@@ -4316,13 +4387,13 @@
       </c>
       <c r="Q37" s="12"/>
       <c r="R37" s="24" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="S37" s="12"/>
     </row>
     <row r="38" spans="1:19" s="17" customFormat="1" ht="54" x14ac:dyDescent="0.15">
       <c r="A38" s="23" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B38" s="12" t="s">
         <v>76</v>
@@ -4371,7 +4442,7 @@
     </row>
     <row r="39" spans="1:19" s="17" customFormat="1" ht="54" x14ac:dyDescent="0.15">
       <c r="A39" s="23" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B39" s="12" t="s">
         <v>76</v>
@@ -4420,7 +4491,7 @@
     </row>
     <row r="40" spans="1:19" s="17" customFormat="1" ht="54" x14ac:dyDescent="0.15">
       <c r="A40" s="23" t="s">
-        <v>320</v>
+        <v>380</v>
       </c>
       <c r="B40" s="12" t="s">
         <v>76</v>
@@ -4446,13 +4517,13 @@
       </c>
       <c r="J40" s="12"/>
       <c r="K40" s="14" t="s">
-        <v>175</v>
+        <v>369</v>
       </c>
       <c r="L40" s="14" t="s">
         <v>162</v>
       </c>
       <c r="M40" s="14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="N40" s="15"/>
       <c r="O40" t="s">
@@ -4469,7 +4540,7 @@
     </row>
     <row r="41" spans="1:19" s="17" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A41" s="23" t="s">
-        <v>321</v>
+        <v>368</v>
       </c>
       <c r="B41" s="12" t="s">
         <v>76</v>
@@ -4484,7 +4555,7 @@
         <v>164</v>
       </c>
       <c r="F41" s="22" t="s">
-        <v>168</v>
+        <v>370</v>
       </c>
       <c r="G41" s="22"/>
       <c r="H41" s="12" t="s">
@@ -4494,14 +4565,14 @@
         <v>24</v>
       </c>
       <c r="J41" s="12"/>
-      <c r="K41" s="14" t="s">
-        <v>177</v>
+      <c r="K41" s="26" t="s">
+        <v>381</v>
       </c>
       <c r="L41" s="14" t="s">
         <v>162</v>
       </c>
       <c r="M41" s="14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="N41" s="15"/>
       <c r="O41" t="s">
@@ -4518,7 +4589,7 @@
     </row>
     <row r="42" spans="1:19" s="17" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A42" s="23" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B42" s="12" t="s">
         <v>76</v>
@@ -4543,14 +4614,14 @@
         <v>24</v>
       </c>
       <c r="J42" s="12"/>
-      <c r="K42" s="14" t="s">
-        <v>178</v>
+      <c r="K42" s="26" t="s">
+        <v>382</v>
       </c>
       <c r="L42" s="14" t="s">
         <v>162</v>
       </c>
       <c r="M42" s="14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="N42" s="15"/>
       <c r="O42" t="s">
@@ -4567,7 +4638,7 @@
     </row>
     <row r="43" spans="1:19" s="17" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A43" s="23" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="B43" s="12" t="s">
         <v>76</v>
@@ -4592,14 +4663,14 @@
         <v>24</v>
       </c>
       <c r="J43" s="12"/>
-      <c r="K43" s="14" t="s">
-        <v>179</v>
+      <c r="K43" s="26" t="s">
+        <v>383</v>
       </c>
       <c r="L43" s="14" t="s">
         <v>162</v>
       </c>
       <c r="M43" s="14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="N43" s="15"/>
       <c r="O43" t="s">
@@ -4616,39 +4687,39 @@
     </row>
     <row r="44" spans="1:19" s="17" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A44" s="23" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B44" s="12" t="s">
         <v>18</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D44" s="12" t="s">
         <v>20</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F44" s="22" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G44" s="22"/>
       <c r="H44" s="12" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="I44" s="12" t="s">
         <v>24</v>
       </c>
       <c r="J44" s="12"/>
       <c r="K44" s="14" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="L44" s="14" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="M44" s="14" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="N44" s="15"/>
       <c r="O44" s="14"/>
@@ -4661,33 +4732,33 @@
     </row>
     <row r="45" spans="1:19" s="17" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A45" s="12" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B45" s="12" t="s">
         <v>18</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D45" s="12" t="s">
         <v>31</v>
       </c>
       <c r="E45" s="12" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F45" s="22" t="s">
         <v>79</v>
       </c>
       <c r="G45" s="22"/>
       <c r="H45" s="12" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="I45" s="12" t="s">
         <v>24</v>
       </c>
       <c r="J45" s="12"/>
       <c r="K45" s="14" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="L45" s="14" t="s">
         <v>65</v>
@@ -4706,36 +4777,36 @@
     </row>
     <row r="46" spans="1:19" s="17" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A46" s="12" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B46" s="12" t="s">
         <v>18</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D46" s="12" t="s">
         <v>31</v>
       </c>
       <c r="E46" s="12" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F46" s="22" t="s">
         <v>79</v>
       </c>
       <c r="G46" s="22"/>
       <c r="H46" s="12" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="I46" s="12" t="s">
         <v>24</v>
       </c>
       <c r="J46" s="12"/>
       <c r="K46" s="14" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="L46" s="14" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="M46" s="14" t="s">
         <v>90</v>
@@ -4751,39 +4822,39 @@
     </row>
     <row r="47" spans="1:19" s="17" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A47" s="12" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B47" s="12" t="s">
         <v>18</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D47" s="12" t="s">
         <v>31</v>
       </c>
       <c r="E47" s="12" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="F47" s="22" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G47" s="22"/>
       <c r="H47" s="12" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="I47" s="12" t="s">
         <v>24</v>
       </c>
       <c r="J47" s="12"/>
       <c r="K47" s="14" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="L47" s="14" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="M47" s="14" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="N47" s="15"/>
       <c r="O47" s="14"/>
@@ -4796,39 +4867,39 @@
     </row>
     <row r="48" spans="1:19" s="17" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A48" s="12" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B48" s="12" t="s">
         <v>18</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D48" s="12" t="s">
         <v>31</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F48" s="22" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G48" s="22"/>
       <c r="H48" s="12" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="I48" s="12" t="s">
         <v>24</v>
       </c>
       <c r="J48" s="12"/>
       <c r="K48" s="14" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="L48" s="14" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="M48" s="14" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="N48" s="15"/>
       <c r="O48" s="14"/>
@@ -4841,39 +4912,39 @@
     </row>
     <row r="49" spans="1:19" s="17" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A49" s="12" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B49" s="12" t="s">
         <v>18</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D49" s="12" t="s">
         <v>31</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F49" s="22" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G49" s="22"/>
       <c r="H49" s="12" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="I49" s="12" t="s">
         <v>24</v>
       </c>
       <c r="J49" s="12"/>
       <c r="K49" s="14" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="L49" s="14" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="M49" s="14" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="N49" s="15"/>
       <c r="O49" s="14"/>
@@ -4886,39 +4957,39 @@
     </row>
     <row r="50" spans="1:19" s="17" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A50" s="12" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B50" s="12" t="s">
         <v>18</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D50" s="12" t="s">
         <v>31</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="F50" s="22" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G50" s="22"/>
       <c r="H50" s="12" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="I50" s="12" t="s">
         <v>24</v>
       </c>
       <c r="J50" s="12"/>
       <c r="K50" s="14" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="L50" s="14" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="M50" s="14" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="N50" s="15"/>
       <c r="O50" s="14"/>
@@ -4931,39 +5002,39 @@
     </row>
     <row r="51" spans="1:19" s="17" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A51" s="12" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B51" s="12" t="s">
         <v>18</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D51" s="12" t="s">
         <v>20</v>
       </c>
       <c r="E51" s="12" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F51" s="22" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="G51" s="22"/>
       <c r="H51" s="12" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="I51" s="12" t="s">
         <v>24</v>
       </c>
       <c r="J51" s="12"/>
       <c r="K51" s="14" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="L51" s="14" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="M51" s="14" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="N51" s="15"/>
       <c r="O51" s="14"/>
@@ -4976,39 +5047,39 @@
     </row>
     <row r="52" spans="1:19" s="17" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A52" s="12" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B52" s="12" t="s">
         <v>18</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D52" s="12" t="s">
         <v>31</v>
       </c>
       <c r="E52" s="12" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F52" s="22" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="G52" s="22"/>
       <c r="H52" s="12" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="I52" s="12" t="s">
         <v>24</v>
       </c>
       <c r="J52" s="12"/>
       <c r="K52" s="14" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="L52" s="14" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="M52" s="14" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="N52" s="15"/>
       <c r="O52" s="14"/>
@@ -5021,39 +5092,39 @@
     </row>
     <row r="53" spans="1:19" s="17" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A53" s="12" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B53" s="12" t="s">
         <v>18</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D53" s="12" t="s">
         <v>31</v>
       </c>
       <c r="E53" s="12" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F53" s="22" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="G53" s="22"/>
       <c r="H53" s="12" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="I53" s="12" t="s">
         <v>24</v>
       </c>
       <c r="J53" s="12"/>
       <c r="K53" s="14" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="L53" s="14" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="M53" s="14" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="N53" s="15"/>
       <c r="O53" s="14"/>
@@ -5062,45 +5133,45 @@
       </c>
       <c r="Q53" s="12"/>
       <c r="R53" s="21" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="S53" s="12"/>
     </row>
     <row r="54" spans="1:19" s="17" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A54" s="12" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B54" s="12" t="s">
         <v>18</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D54" s="12" t="s">
         <v>31</v>
       </c>
       <c r="E54" s="12" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="F54" s="22" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="G54" s="22"/>
       <c r="H54" s="12" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="I54" s="12" t="s">
         <v>24</v>
       </c>
       <c r="J54" s="12"/>
       <c r="K54" s="14" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="L54" s="14" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="M54" s="14" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="N54" s="15"/>
       <c r="O54" s="14"/>
@@ -5113,39 +5184,39 @@
     </row>
     <row r="55" spans="1:19" s="17" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A55" s="12" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B55" s="12" t="s">
         <v>18</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D55" s="12" t="s">
         <v>31</v>
       </c>
       <c r="E55" s="12" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="F55" s="22" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="G55" s="22"/>
       <c r="H55" s="12" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="I55" s="12" t="s">
         <v>24</v>
       </c>
       <c r="J55" s="12"/>
       <c r="K55" s="14" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="L55" s="14" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="M55" s="14" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="N55" s="15"/>
       <c r="O55" s="14"/>
@@ -5158,41 +5229,41 @@
     </row>
     <row r="56" spans="1:19" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="12" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D56" s="12" t="s">
         <v>20</v>
       </c>
       <c r="E56" s="12" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F56" s="22" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="G56" s="22"/>
       <c r="H56" s="12" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="I56" s="12" t="s">
         <v>63</v>
       </c>
       <c r="K56" s="14" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="L56" s="14" t="s">
         <v>138</v>
       </c>
       <c r="M56" s="14" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="O56" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="P56" s="15" t="s">
         <v>84</v>
@@ -5203,41 +5274,41 @@
     </row>
     <row r="57" spans="1:19" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="12" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D57" s="12" t="s">
         <v>20</v>
       </c>
       <c r="E57" s="12" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="F57" s="22" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="G57" s="22"/>
       <c r="H57" s="12" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="I57" s="12" t="s">
         <v>63</v>
       </c>
       <c r="K57" s="14" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="L57" s="14" t="s">
         <v>138</v>
       </c>
       <c r="M57" s="14" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="O57" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="P57" s="15" t="s">
         <v>84</v>
@@ -5248,41 +5319,41 @@
     </row>
     <row r="58" spans="1:19" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="12" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D58" s="12" t="s">
         <v>86</v>
       </c>
       <c r="E58" s="12" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F58" s="22" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="G58" s="22"/>
       <c r="H58" s="12" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="I58" s="12" t="s">
         <v>63</v>
       </c>
       <c r="K58" s="14" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="L58" s="14" t="s">
         <v>138</v>
       </c>
       <c r="M58" s="14" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="O58" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="P58" s="15" t="s">
         <v>84</v>
@@ -5293,13 +5364,13 @@
     </row>
     <row r="59" spans="1:19" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="12" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D59" s="12" t="s">
         <v>86</v>
@@ -5308,26 +5379,26 @@
         <v>145</v>
       </c>
       <c r="F59" s="22" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="G59" s="22"/>
       <c r="H59" s="12" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="I59" s="12" t="s">
         <v>63</v>
       </c>
       <c r="K59" s="14" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="L59" s="14" t="s">
         <v>138</v>
       </c>
       <c r="M59" s="14" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="O59" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="P59" s="15" t="s">
         <v>84</v>
@@ -5338,41 +5409,41 @@
     </row>
     <row r="60" spans="1:19" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="12" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D60" s="12" t="s">
         <v>20</v>
       </c>
       <c r="E60" s="12" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="F60" s="22" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="G60" s="22"/>
       <c r="H60" s="12" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="I60" s="12" t="s">
         <v>63</v>
       </c>
       <c r="K60" s="14" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="L60" s="14" t="s">
         <v>138</v>
       </c>
       <c r="M60" s="14" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="O60" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="P60" s="15" t="s">
         <v>84</v>
@@ -5383,41 +5454,41 @@
     </row>
     <row r="61" spans="1:19" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="12" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D61" s="12" t="s">
         <v>20</v>
       </c>
       <c r="E61" s="12" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F61" s="22" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="G61" s="22"/>
       <c r="H61" s="12" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="I61" s="12" t="s">
         <v>63</v>
       </c>
       <c r="K61" s="14" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="L61" s="14" t="s">
         <v>138</v>
       </c>
       <c r="M61" s="14" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="O61" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="P61" s="15" t="s">
         <v>84</v>
@@ -5428,41 +5499,41 @@
     </row>
     <row r="62" spans="1:19" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="12" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D62" s="12" t="s">
         <v>20</v>
       </c>
       <c r="E62" s="12" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="F62" s="22" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="G62" s="22"/>
       <c r="H62" s="12" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="I62" s="12" t="s">
         <v>63</v>
       </c>
       <c r="K62" s="14" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="L62" s="14" t="s">
         <v>138</v>
       </c>
       <c r="M62" s="14" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="O62" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="P62" s="15" t="s">
         <v>84</v>
@@ -5473,41 +5544,41 @@
     </row>
     <row r="63" spans="1:19" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="12" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D63" s="12" t="s">
         <v>86</v>
       </c>
       <c r="E63" s="12" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F63" s="22" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="G63" s="22"/>
       <c r="H63" s="12" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="I63" s="12" t="s">
         <v>63</v>
       </c>
       <c r="K63" s="14" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="L63" s="14" t="s">
         <v>144</v>
       </c>
       <c r="M63" s="14" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="O63" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="P63" s="15" t="s">
         <v>84</v>
@@ -5518,13 +5589,13 @@
     </row>
     <row r="64" spans="1:19" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="12" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D64" s="12" t="s">
         <v>86</v>
@@ -5533,26 +5604,26 @@
         <v>145</v>
       </c>
       <c r="F64" s="22" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="G64" s="22"/>
       <c r="H64" s="12" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="I64" s="12" t="s">
         <v>63</v>
       </c>
       <c r="K64" s="14" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="L64" s="14" t="s">
         <v>144</v>
       </c>
       <c r="M64" s="14" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="O64" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="P64" s="15" t="s">
         <v>84</v>
@@ -5563,41 +5634,41 @@
     </row>
     <row r="65" spans="1:18" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="12" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D65" s="12" t="s">
         <v>20</v>
       </c>
       <c r="E65" s="12" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F65" s="22" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="G65" s="22"/>
       <c r="H65" s="12" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="I65" s="12" t="s">
         <v>63</v>
       </c>
       <c r="K65" s="14" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="L65" s="14" t="s">
         <v>144</v>
       </c>
       <c r="M65" s="14" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="O65" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="P65" s="15" t="s">
         <v>84</v>
@@ -5608,38 +5679,38 @@
     </row>
     <row r="66" spans="1:18" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="12" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C66" s="18" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D66" s="12" t="s">
         <v>31</v>
       </c>
       <c r="E66" s="12" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F66" s="22" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="G66" s="22"/>
       <c r="H66" s="12" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="I66" s="12" t="s">
         <v>63</v>
       </c>
       <c r="L66" s="14" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="M66" s="14" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="O66" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="P66" s="15" t="s">
         <v>84</v>
@@ -5650,41 +5721,41 @@
     </row>
     <row r="67" spans="1:18" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="12" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C67" s="18" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D67" s="12" t="s">
         <v>20</v>
       </c>
       <c r="E67" s="12" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="F67" s="22" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="G67" s="22"/>
       <c r="H67" s="12" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="I67" s="12" t="s">
         <v>63</v>
       </c>
       <c r="K67" s="14" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L67" s="14" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="M67" s="14" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="O67" s="14" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="P67" s="15" t="s">
         <v>84</v>
@@ -5695,41 +5766,41 @@
     </row>
     <row r="68" spans="1:18" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="12" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C68" s="18" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D68" s="12" t="s">
         <v>20</v>
       </c>
       <c r="E68" s="12" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F68" s="22" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="G68" s="22"/>
       <c r="H68" s="12" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="I68" s="12" t="s">
         <v>63</v>
       </c>
       <c r="K68" s="14" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="L68" s="14" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="M68" s="14" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="O68" s="14" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="P68" s="15" t="s">
         <v>84</v>
@@ -5740,41 +5811,41 @@
     </row>
     <row r="69" spans="1:18" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="12" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C69" s="18" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D69" s="12" t="s">
         <v>20</v>
       </c>
       <c r="E69" s="12" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="F69" s="22" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="G69" s="22"/>
       <c r="H69" s="12" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="I69" s="12" t="s">
         <v>63</v>
       </c>
       <c r="K69" s="14" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="L69" s="14" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="M69" s="14" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="O69" s="14" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="P69" s="15" t="s">
         <v>84</v>
@@ -5785,41 +5856,41 @@
     </row>
     <row r="70" spans="1:18" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="12" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C70" s="18" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D70" s="12" t="s">
         <v>20</v>
       </c>
       <c r="E70" s="12" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="F70" s="22" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="G70" s="22"/>
       <c r="H70" s="12" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="I70" s="12" t="s">
         <v>63</v>
       </c>
       <c r="K70" s="14" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="L70" s="14" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="M70" s="14" t="s">
         <v>102</v>
       </c>
       <c r="O70" s="14" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="P70" s="15" t="s">
         <v>84</v>

--- a/test_case_data/bmc/bmc_base_info_2021513.xlsx
+++ b/test_case_data/bmc/bmc_base_info_2021513.xlsx
@@ -640,13 +640,7 @@
     <t>http://yapi.hikcreate.com/project/31/interface/api/11027</t>
   </si>
   <si>
-    <t>{"deviceName":"iPhone11","phone":"15999000000","deviceId":"d0a46a29019140a78cc13855f8c73761","bCityCode":"520100","encodedKeyboardPwd":"25788f1860937a6513a9479292de94e8","oneTimeToken":""}</t>
-  </si>
-  <si>
     <t>不传加密后的字符密码，注册失败</t>
-  </si>
-  <si>
-    <t>{"deviceName":"iPhone11","phone":"15999000000","deviceId":"d0a46a29019140a78cc13855f8c73761","bCityCode":"520100","encodedKeyboardPwd":"","oneTimeToken":"b769c61d-7180-46b3-8e32-01ac07e47eca"}</t>
   </si>
   <si>
     <t>{"success":true,"code":1000,"msg":"密码设置成功"}</t>
@@ -1451,10 +1445,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>{"deviceName":"iPhone11","phone":"15999999999","deviceId":"","bCityCode":"520100","encodedKeyboardPwd":"25788f1860937a6513a9479292de94e8","oneTimeToken":"b769c61d-7180-46b3-8e32-01ac07e47eca"}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>/v1/user/login/keyboardPwd/setAndLogin</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -1543,6 +1533,41 @@
         <scheme val="minor"/>
       </rPr>
       <t>","deviceId":"d0a46a29019140a78cc13855f8c73761","bCityCode":"520100","encodedKeyboardPwd":"25788f1860937a6513a9479292de94e8","oneTimeToken":"b769c61d-7180-46b3-8e32-01ac07e47eca"}</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"deviceName":"iPhone11","phone":"15999999999","deviceId":"","bCityCode":"520100","encodedKeyboardPwd":"25788f1860937a6513a9479292de94e8","oneTimeToken":"b769c61d-7180-46b3-8e32-01ac07e47eca"}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"deviceName":"iPhone11","phone":"15999999999","deviceId":"d0a46a29019140a78cc13855f8c73761","bCityCode":"520100","encodedKeyboardPwd":"","oneTimeToken":"b769c61d-7180-46b3-8e32-01ac07e47eca"}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{"deviceName":"iPhone11","phone":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>15999999999</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>","deviceId":"d0a46a29019140a78cc13855f8c73761","bCityCode":"520100","encodedKeyboardPwd":"25788f1860937a6513a9479292de94e8","oneTimeToken":""}</t>
     </r>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -2561,8 +2586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E38" workbookViewId="0">
-      <selection activeCell="L43" sqref="L43"/>
+    <sheetView tabSelected="1" topLeftCell="B36" workbookViewId="0">
+      <selection activeCell="K43" sqref="K43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2589,7 +2614,7 @@
   <sheetData>
     <row r="1" spans="1:19" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>67</v>
@@ -2645,13 +2670,13 @@
     </row>
     <row r="2" spans="1:19" s="17" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="12" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>76</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>20</v>
@@ -2660,7 +2685,7 @@
         <v>78</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="G2" s="11"/>
       <c r="H2" s="12" t="s">
@@ -2671,7 +2696,7 @@
       </c>
       <c r="J2" s="12"/>
       <c r="K2" s="11" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="L2" s="14" t="s">
         <v>81</v>
@@ -2681,7 +2706,7 @@
       </c>
       <c r="N2" s="15"/>
       <c r="O2" s="24" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="P2" s="15" t="s">
         <v>84</v>
@@ -2694,7 +2719,7 @@
     </row>
     <row r="3" spans="1:19" s="17" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="12" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>76</v>
@@ -2720,7 +2745,7 @@
       </c>
       <c r="J3" s="12"/>
       <c r="K3" s="11" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="L3" s="14" t="s">
         <v>81</v>
@@ -2743,7 +2768,7 @@
     </row>
     <row r="4" spans="1:19" s="17" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="12" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>76</v>
@@ -2767,7 +2792,7 @@
       </c>
       <c r="J4" s="12"/>
       <c r="K4" s="11" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="L4" s="14" t="s">
         <v>89</v>
@@ -2790,7 +2815,7 @@
     </row>
     <row r="5" spans="1:19" s="17" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="12" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>76</v>
@@ -2837,7 +2862,7 @@
     </row>
     <row r="6" spans="1:19" s="17" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="12" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>76</v>
@@ -2884,7 +2909,7 @@
     </row>
     <row r="7" spans="1:19" s="17" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="12" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>76</v>
@@ -2931,13 +2956,13 @@
     </row>
     <row r="8" spans="1:19" s="17" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="23" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>76</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D8" s="12" t="s">
         <v>20</v>
@@ -2946,7 +2971,7 @@
         <v>99</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="G8" s="11"/>
       <c r="H8" s="12"/>
@@ -2955,7 +2980,7 @@
       </c>
       <c r="J8" s="12"/>
       <c r="K8" s="11" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="L8" s="14" t="s">
         <v>101</v>
@@ -2978,7 +3003,7 @@
     </row>
     <row r="9" spans="1:19" s="17" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="23" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>76</v>
@@ -3025,7 +3050,7 @@
     </row>
     <row r="10" spans="1:19" s="17" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="23" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>76</v>
@@ -3072,7 +3097,7 @@
     </row>
     <row r="11" spans="1:19" s="17" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="23" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>76</v>
@@ -3106,7 +3131,7 @@
       </c>
       <c r="N11" s="15"/>
       <c r="O11" s="24" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="P11" s="15" t="s">
         <v>84</v>
@@ -3119,13 +3144,13 @@
     </row>
     <row r="12" spans="1:19" s="17" customFormat="1" ht="57" x14ac:dyDescent="0.15">
       <c r="A12" s="23" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>76</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D12" s="12" t="s">
         <v>20</v>
@@ -3134,7 +3159,7 @@
         <v>111</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G12" s="11"/>
       <c r="H12" s="12" t="s">
@@ -3145,7 +3170,7 @@
       </c>
       <c r="J12" s="12"/>
       <c r="K12" s="20" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="L12" s="14" t="s">
         <v>113</v>
@@ -3168,7 +3193,7 @@
     </row>
     <row r="13" spans="1:19" s="17" customFormat="1" ht="57" x14ac:dyDescent="0.15">
       <c r="A13" s="23" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>76</v>
@@ -3194,7 +3219,7 @@
       </c>
       <c r="J13" s="12"/>
       <c r="K13" s="20" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="L13" s="14" t="s">
         <v>117</v>
@@ -3217,7 +3242,7 @@
     </row>
     <row r="14" spans="1:19" s="17" customFormat="1" ht="57" x14ac:dyDescent="0.15">
       <c r="A14" s="23" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>76</v>
@@ -3266,7 +3291,7 @@
     </row>
     <row r="15" spans="1:19" s="17" customFormat="1" ht="57" x14ac:dyDescent="0.15">
       <c r="A15" s="23" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B15" s="12" t="s">
         <v>76</v>
@@ -3315,7 +3340,7 @@
     </row>
     <row r="16" spans="1:19" s="17" customFormat="1" ht="57" x14ac:dyDescent="0.15">
       <c r="A16" s="23" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B16" s="12" t="s">
         <v>76</v>
@@ -3341,7 +3366,7 @@
       </c>
       <c r="J16" s="12"/>
       <c r="K16" s="20" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="L16" s="14" t="s">
         <v>117</v>
@@ -3364,7 +3389,7 @@
     </row>
     <row r="17" spans="1:19" s="17" customFormat="1" ht="57" x14ac:dyDescent="0.15">
       <c r="A17" s="23" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B17" s="12" t="s">
         <v>76</v>
@@ -3390,7 +3415,7 @@
       </c>
       <c r="J17" s="12"/>
       <c r="K17" s="20" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="L17" s="14" t="s">
         <v>117</v>
@@ -3413,7 +3438,7 @@
     </row>
     <row r="18" spans="1:19" s="17" customFormat="1" ht="57" x14ac:dyDescent="0.15">
       <c r="A18" s="23" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>76</v>
@@ -3425,7 +3450,7 @@
         <v>20</v>
       </c>
       <c r="E18" s="23" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="F18" s="11" t="s">
         <v>112</v>
@@ -3439,7 +3464,7 @@
       </c>
       <c r="J18" s="12"/>
       <c r="K18" s="20" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="L18" s="14" t="s">
         <v>117</v>
@@ -3462,7 +3487,7 @@
     </row>
     <row r="19" spans="1:19" s="17" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A19" s="23" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B19" s="12" t="s">
         <v>76</v>
@@ -3477,24 +3502,24 @@
         <v>128</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G19" s="11"/>
       <c r="H19" s="12" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="I19" s="12" t="s">
         <v>24</v>
       </c>
       <c r="J19" s="12"/>
       <c r="K19" s="20" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="L19" s="14" t="s">
         <v>117</v>
       </c>
       <c r="M19" s="11" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="N19" s="15"/>
       <c r="O19" t="s">
@@ -3511,7 +3536,7 @@
     </row>
     <row r="20" spans="1:19" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A20" s="23" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B20" s="12" t="s">
         <v>76</v>
@@ -3537,7 +3562,7 @@
       </c>
       <c r="J20" s="12"/>
       <c r="K20" s="20" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="L20" s="14" t="s">
         <v>113</v>
@@ -3560,7 +3585,7 @@
     </row>
     <row r="21" spans="1:19" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A21" s="23" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B21" s="12" t="s">
         <v>76</v>
@@ -3586,7 +3611,7 @@
       </c>
       <c r="J21" s="12"/>
       <c r="K21" s="20" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="L21" s="14" t="s">
         <v>113</v>
@@ -3609,7 +3634,7 @@
     </row>
     <row r="22" spans="1:19" s="17" customFormat="1" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A22" s="23" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B22" s="12" t="s">
         <v>76</v>
@@ -3635,7 +3660,7 @@
       </c>
       <c r="J22" s="12"/>
       <c r="K22" s="20" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="L22" s="14" t="s">
         <v>117</v>
@@ -3658,13 +3683,13 @@
     </row>
     <row r="23" spans="1:19" s="17" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A23" s="23" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B23" s="12" t="s">
         <v>76</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D23" s="12" t="s">
         <v>20</v>
@@ -3673,7 +3698,7 @@
         <v>133</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G23" s="11"/>
       <c r="H23" s="12" t="s">
@@ -3684,13 +3709,13 @@
       </c>
       <c r="J23" s="12"/>
       <c r="K23" s="20" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="L23" s="14" t="s">
         <v>135</v>
       </c>
       <c r="M23" s="11" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="N23" s="15"/>
       <c r="O23" t="s">
@@ -3707,7 +3732,7 @@
     </row>
     <row r="24" spans="1:19" s="17" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A24" s="23" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B24" s="12" t="s">
         <v>76</v>
@@ -3733,7 +3758,7 @@
       </c>
       <c r="J24" s="12"/>
       <c r="K24" s="20" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L24" s="14" t="s">
         <v>138</v>
@@ -3756,7 +3781,7 @@
     </row>
     <row r="25" spans="1:19" s="17" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A25" s="23" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B25" s="12" t="s">
         <v>76</v>
@@ -3805,7 +3830,7 @@
     </row>
     <row r="26" spans="1:19" s="17" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A26" s="23" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B26" s="12" t="s">
         <v>76</v>
@@ -3831,7 +3856,7 @@
       </c>
       <c r="J26" s="12"/>
       <c r="K26" s="20" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="L26" s="14" t="s">
         <v>144</v>
@@ -3854,7 +3879,7 @@
     </row>
     <row r="27" spans="1:19" s="17" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A27" s="23" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B27" s="12" t="s">
         <v>76</v>
@@ -3869,7 +3894,7 @@
         <v>145</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G27" s="22"/>
       <c r="H27" s="12" t="s">
@@ -3880,7 +3905,7 @@
       </c>
       <c r="J27" s="12"/>
       <c r="K27" s="20" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="L27" s="14" t="s">
         <v>144</v>
@@ -3903,7 +3928,7 @@
     </row>
     <row r="28" spans="1:19" s="17" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A28" s="23" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B28" s="12" t="s">
         <v>76</v>
@@ -3952,7 +3977,7 @@
     </row>
     <row r="29" spans="1:19" s="17" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A29" s="23" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B29" s="12" t="s">
         <v>76</v>
@@ -3967,7 +3992,7 @@
         <v>149</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="G29" s="22"/>
       <c r="H29" s="12" t="s">
@@ -3978,7 +4003,7 @@
       </c>
       <c r="J29" s="12"/>
       <c r="K29" s="20" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="L29" s="14" t="s">
         <v>138</v>
@@ -4001,13 +4026,13 @@
     </row>
     <row r="30" spans="1:19" s="17" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A30" s="23" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B30" s="12" t="s">
         <v>76</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D30" s="12" t="s">
         <v>20</v>
@@ -4016,7 +4041,7 @@
         <v>151</v>
       </c>
       <c r="F30" s="22" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G30" s="22"/>
       <c r="H30" s="12" t="s">
@@ -4050,7 +4075,7 @@
     </row>
     <row r="31" spans="1:19" s="17" customFormat="1" ht="54" x14ac:dyDescent="0.15">
       <c r="A31" s="23" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B31" s="12" t="s">
         <v>76</v>
@@ -4099,7 +4124,7 @@
     </row>
     <row r="32" spans="1:19" s="17" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A32" s="23" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B32" s="12" t="s">
         <v>76</v>
@@ -4148,7 +4173,7 @@
     </row>
     <row r="33" spans="1:19" s="17" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A33" s="23" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B33" s="12" t="s">
         <v>76</v>
@@ -4163,7 +4188,7 @@
         <v>161</v>
       </c>
       <c r="F33" s="22" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="G33" s="22"/>
       <c r="H33" s="12" t="s">
@@ -4174,7 +4199,7 @@
       </c>
       <c r="J33" s="12"/>
       <c r="K33" s="14" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="L33" s="14" t="s">
         <v>162</v>
@@ -4197,7 +4222,7 @@
     </row>
     <row r="34" spans="1:19" s="17" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A34" s="23" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B34" s="12" t="s">
         <v>76</v>
@@ -4223,7 +4248,7 @@
       </c>
       <c r="J34" s="12"/>
       <c r="K34" s="26" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="L34" s="14" t="s">
         <v>162</v>
@@ -4246,7 +4271,7 @@
     </row>
     <row r="35" spans="1:19" s="17" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A35" s="23" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B35" s="12" t="s">
         <v>76</v>
@@ -4272,7 +4297,7 @@
       </c>
       <c r="J35" s="12"/>
       <c r="K35" s="26" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="L35" s="14" t="s">
         <v>162</v>
@@ -4295,7 +4320,7 @@
     </row>
     <row r="36" spans="1:19" s="17" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A36" s="23" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B36" s="12" t="s">
         <v>76</v>
@@ -4310,7 +4335,7 @@
         <v>166</v>
       </c>
       <c r="F36" s="22" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="G36" s="22"/>
       <c r="H36" s="12" t="s">
@@ -4321,7 +4346,7 @@
       </c>
       <c r="J36" s="12"/>
       <c r="K36" s="26" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="L36" s="14" t="s">
         <v>162</v>
@@ -4344,13 +4369,13 @@
     </row>
     <row r="37" spans="1:19" s="17" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A37" s="23" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B37" s="12" t="s">
         <v>76</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D37" s="12" t="s">
         <v>20</v>
@@ -4359,7 +4384,7 @@
         <v>151</v>
       </c>
       <c r="F37" s="22" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="G37" s="22"/>
       <c r="H37" s="12" t="s">
@@ -4387,13 +4412,13 @@
       </c>
       <c r="Q37" s="12"/>
       <c r="R37" s="24" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="S37" s="12"/>
     </row>
     <row r="38" spans="1:19" s="17" customFormat="1" ht="54" x14ac:dyDescent="0.15">
       <c r="A38" s="23" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B38" s="12" t="s">
         <v>76</v>
@@ -4418,8 +4443,8 @@
         <v>24</v>
       </c>
       <c r="J38" s="12"/>
-      <c r="K38" s="14" t="s">
-        <v>172</v>
+      <c r="K38" s="26" t="s">
+        <v>383</v>
       </c>
       <c r="L38" s="14" t="s">
         <v>154</v>
@@ -4442,7 +4467,7 @@
     </row>
     <row r="39" spans="1:19" s="17" customFormat="1" ht="54" x14ac:dyDescent="0.15">
       <c r="A39" s="23" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B39" s="12" t="s">
         <v>76</v>
@@ -4454,7 +4479,7 @@
         <v>20</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F39" s="22" t="s">
         <v>168</v>
@@ -4468,7 +4493,7 @@
       </c>
       <c r="J39" s="12"/>
       <c r="K39" s="14" t="s">
-        <v>174</v>
+        <v>382</v>
       </c>
       <c r="L39" s="14" t="s">
         <v>154</v>
@@ -4491,7 +4516,7 @@
     </row>
     <row r="40" spans="1:19" s="17" customFormat="1" ht="54" x14ac:dyDescent="0.15">
       <c r="A40" s="23" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B40" s="12" t="s">
         <v>76</v>
@@ -4517,13 +4542,13 @@
       </c>
       <c r="J40" s="12"/>
       <c r="K40" s="14" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
       <c r="L40" s="14" t="s">
         <v>162</v>
       </c>
       <c r="M40" s="14" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="N40" s="15"/>
       <c r="O40" t="s">
@@ -4540,7 +4565,7 @@
     </row>
     <row r="41" spans="1:19" s="17" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A41" s="23" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B41" s="12" t="s">
         <v>76</v>
@@ -4555,7 +4580,7 @@
         <v>164</v>
       </c>
       <c r="F41" s="22" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="G41" s="22"/>
       <c r="H41" s="12" t="s">
@@ -4566,13 +4591,13 @@
       </c>
       <c r="J41" s="12"/>
       <c r="K41" s="26" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="L41" s="14" t="s">
         <v>162</v>
       </c>
       <c r="M41" s="14" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="N41" s="15"/>
       <c r="O41" t="s">
@@ -4589,7 +4614,7 @@
     </row>
     <row r="42" spans="1:19" s="17" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A42" s="23" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B42" s="12" t="s">
         <v>76</v>
@@ -4615,13 +4640,13 @@
       </c>
       <c r="J42" s="12"/>
       <c r="K42" s="26" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="L42" s="14" t="s">
         <v>162</v>
       </c>
       <c r="M42" s="14" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="N42" s="15"/>
       <c r="O42" t="s">
@@ -4638,7 +4663,7 @@
     </row>
     <row r="43" spans="1:19" s="17" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A43" s="23" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B43" s="12" t="s">
         <v>76</v>
@@ -4664,13 +4689,13 @@
       </c>
       <c r="J43" s="12"/>
       <c r="K43" s="26" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="L43" s="14" t="s">
         <v>162</v>
       </c>
       <c r="M43" s="14" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="N43" s="15"/>
       <c r="O43" t="s">
@@ -4687,39 +4712,39 @@
     </row>
     <row r="44" spans="1:19" s="17" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A44" s="23" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B44" s="12" t="s">
         <v>18</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D44" s="12" t="s">
         <v>20</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F44" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G44" s="22"/>
       <c r="H44" s="12" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I44" s="12" t="s">
         <v>24</v>
       </c>
       <c r="J44" s="12"/>
       <c r="K44" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="L44" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="M44" s="14" t="s">
         <v>181</v>
-      </c>
-      <c r="L44" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="M44" s="14" t="s">
-        <v>183</v>
       </c>
       <c r="N44" s="15"/>
       <c r="O44" s="14"/>
@@ -4732,33 +4757,33 @@
     </row>
     <row r="45" spans="1:19" s="17" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A45" s="12" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B45" s="12" t="s">
         <v>18</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D45" s="12" t="s">
         <v>31</v>
       </c>
       <c r="E45" s="12" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F45" s="22" t="s">
         <v>79</v>
       </c>
       <c r="G45" s="22"/>
       <c r="H45" s="12" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I45" s="12" t="s">
         <v>24</v>
       </c>
       <c r="J45" s="12"/>
       <c r="K45" s="14" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L45" s="14" t="s">
         <v>65</v>
@@ -4777,36 +4802,36 @@
     </row>
     <row r="46" spans="1:19" s="17" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A46" s="12" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B46" s="12" t="s">
         <v>18</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D46" s="12" t="s">
         <v>31</v>
       </c>
       <c r="E46" s="12" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F46" s="22" t="s">
         <v>79</v>
       </c>
       <c r="G46" s="22"/>
       <c r="H46" s="12" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I46" s="12" t="s">
         <v>24</v>
       </c>
       <c r="J46" s="12"/>
       <c r="K46" s="14" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="L46" s="14" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="M46" s="14" t="s">
         <v>90</v>
@@ -4822,39 +4847,39 @@
     </row>
     <row r="47" spans="1:19" s="17" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A47" s="12" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B47" s="12" t="s">
         <v>18</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D47" s="12" t="s">
         <v>31</v>
       </c>
       <c r="E47" s="12" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F47" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G47" s="22"/>
       <c r="H47" s="12" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I47" s="12" t="s">
         <v>24</v>
       </c>
       <c r="J47" s="12"/>
       <c r="K47" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="L47" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="M47" s="14" t="s">
         <v>193</v>
-      </c>
-      <c r="L47" s="14" t="s">
-        <v>194</v>
-      </c>
-      <c r="M47" s="14" t="s">
-        <v>195</v>
       </c>
       <c r="N47" s="15"/>
       <c r="O47" s="14"/>
@@ -4867,39 +4892,39 @@
     </row>
     <row r="48" spans="1:19" s="17" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A48" s="12" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B48" s="12" t="s">
         <v>18</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D48" s="12" t="s">
         <v>31</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F48" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G48" s="22"/>
       <c r="H48" s="12" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I48" s="12" t="s">
         <v>24</v>
       </c>
       <c r="J48" s="12"/>
       <c r="K48" s="14" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L48" s="14" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="M48" s="14" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="N48" s="15"/>
       <c r="O48" s="14"/>
@@ -4912,39 +4937,39 @@
     </row>
     <row r="49" spans="1:19" s="17" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A49" s="12" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B49" s="12" t="s">
         <v>18</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D49" s="12" t="s">
         <v>31</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F49" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G49" s="22"/>
       <c r="H49" s="12" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I49" s="12" t="s">
         <v>24</v>
       </c>
       <c r="J49" s="12"/>
       <c r="K49" s="14" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="L49" s="14" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="M49" s="14" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="N49" s="15"/>
       <c r="O49" s="14"/>
@@ -4957,39 +4982,39 @@
     </row>
     <row r="50" spans="1:19" s="17" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A50" s="12" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B50" s="12" t="s">
         <v>18</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D50" s="12" t="s">
         <v>31</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F50" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G50" s="22"/>
       <c r="H50" s="12" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I50" s="12" t="s">
         <v>24</v>
       </c>
       <c r="J50" s="12"/>
       <c r="K50" s="14" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="L50" s="14" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="M50" s="14" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="N50" s="15"/>
       <c r="O50" s="14"/>
@@ -5002,39 +5027,39 @@
     </row>
     <row r="51" spans="1:19" s="17" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A51" s="12" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B51" s="12" t="s">
         <v>18</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D51" s="12" t="s">
         <v>20</v>
       </c>
       <c r="E51" s="12" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F51" s="22" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G51" s="22"/>
       <c r="H51" s="12" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I51" s="12" t="s">
         <v>24</v>
       </c>
       <c r="J51" s="12"/>
       <c r="K51" s="14" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="L51" s="14" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="M51" s="14" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="N51" s="15"/>
       <c r="O51" s="14"/>
@@ -5047,39 +5072,39 @@
     </row>
     <row r="52" spans="1:19" s="17" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A52" s="12" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B52" s="12" t="s">
         <v>18</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D52" s="12" t="s">
         <v>31</v>
       </c>
       <c r="E52" s="12" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F52" s="22" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G52" s="22"/>
       <c r="H52" s="12" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I52" s="12" t="s">
         <v>24</v>
       </c>
       <c r="J52" s="12"/>
       <c r="K52" s="14" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="L52" s="14" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="M52" s="14" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="N52" s="15"/>
       <c r="O52" s="14"/>
@@ -5092,39 +5117,39 @@
     </row>
     <row r="53" spans="1:19" s="17" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A53" s="12" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B53" s="12" t="s">
         <v>18</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D53" s="12" t="s">
         <v>31</v>
       </c>
       <c r="E53" s="12" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F53" s="22" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G53" s="22"/>
       <c r="H53" s="12" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I53" s="12" t="s">
         <v>24</v>
       </c>
       <c r="J53" s="12"/>
       <c r="K53" s="14" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="L53" s="14" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="M53" s="14" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="N53" s="15"/>
       <c r="O53" s="14"/>
@@ -5133,45 +5158,45 @@
       </c>
       <c r="Q53" s="12"/>
       <c r="R53" s="21" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="S53" s="12"/>
     </row>
     <row r="54" spans="1:19" s="17" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A54" s="12" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B54" s="12" t="s">
         <v>18</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D54" s="12" t="s">
         <v>31</v>
       </c>
       <c r="E54" s="12" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F54" s="22" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G54" s="22"/>
       <c r="H54" s="12" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I54" s="12" t="s">
         <v>24</v>
       </c>
       <c r="J54" s="12"/>
       <c r="K54" s="14" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="L54" s="14" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="M54" s="14" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="N54" s="15"/>
       <c r="O54" s="14"/>
@@ -5184,39 +5209,39 @@
     </row>
     <row r="55" spans="1:19" s="17" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A55" s="12" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B55" s="12" t="s">
         <v>18</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D55" s="12" t="s">
         <v>31</v>
       </c>
       <c r="E55" s="12" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F55" s="22" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G55" s="22"/>
       <c r="H55" s="12" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I55" s="12" t="s">
         <v>24</v>
       </c>
       <c r="J55" s="12"/>
       <c r="K55" s="14" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="L55" s="14" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="M55" s="14" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="N55" s="15"/>
       <c r="O55" s="14"/>
@@ -5229,41 +5254,41 @@
     </row>
     <row r="56" spans="1:19" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="B56" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="C56" s="12" t="s">
         <v>228</v>
-      </c>
-      <c r="B56" s="12" t="s">
-        <v>229</v>
-      </c>
-      <c r="C56" s="12" t="s">
-        <v>230</v>
       </c>
       <c r="D56" s="12" t="s">
         <v>20</v>
       </c>
       <c r="E56" s="12" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F56" s="22" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G56" s="22"/>
       <c r="H56" s="12" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="I56" s="12" t="s">
         <v>63</v>
       </c>
       <c r="K56" s="14" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="L56" s="14" t="s">
         <v>138</v>
       </c>
       <c r="M56" s="14" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="O56" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="P56" s="15" t="s">
         <v>84</v>
@@ -5274,41 +5299,41 @@
     </row>
     <row r="57" spans="1:19" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="12" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D57" s="12" t="s">
         <v>20</v>
       </c>
       <c r="E57" s="12" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F57" s="22" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G57" s="22"/>
       <c r="H57" s="12" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="I57" s="12" t="s">
         <v>63</v>
       </c>
       <c r="K57" s="14" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="L57" s="14" t="s">
         <v>138</v>
       </c>
       <c r="M57" s="14" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="O57" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="P57" s="15" t="s">
         <v>84</v>
@@ -5319,41 +5344,41 @@
     </row>
     <row r="58" spans="1:19" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="12" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D58" s="12" t="s">
         <v>86</v>
       </c>
       <c r="E58" s="12" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F58" s="22" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G58" s="22"/>
       <c r="H58" s="12" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="I58" s="12" t="s">
         <v>63</v>
       </c>
       <c r="K58" s="14" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="L58" s="14" t="s">
         <v>138</v>
       </c>
       <c r="M58" s="14" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O58" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="P58" s="15" t="s">
         <v>84</v>
@@ -5364,13 +5389,13 @@
     </row>
     <row r="59" spans="1:19" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="12" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D59" s="12" t="s">
         <v>86</v>
@@ -5379,26 +5404,26 @@
         <v>145</v>
       </c>
       <c r="F59" s="22" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G59" s="22"/>
       <c r="H59" s="12" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="I59" s="12" t="s">
         <v>63</v>
       </c>
       <c r="K59" s="14" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="L59" s="14" t="s">
         <v>138</v>
       </c>
       <c r="M59" s="14" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O59" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="P59" s="15" t="s">
         <v>84</v>
@@ -5409,41 +5434,41 @@
     </row>
     <row r="60" spans="1:19" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="12" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D60" s="12" t="s">
         <v>20</v>
       </c>
       <c r="E60" s="12" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F60" s="22" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G60" s="22"/>
       <c r="H60" s="12" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="I60" s="12" t="s">
         <v>63</v>
       </c>
       <c r="K60" s="14" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="L60" s="14" t="s">
         <v>138</v>
       </c>
       <c r="M60" s="14" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O60" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="P60" s="15" t="s">
         <v>84</v>
@@ -5454,41 +5479,41 @@
     </row>
     <row r="61" spans="1:19" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="12" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D61" s="12" t="s">
         <v>20</v>
       </c>
       <c r="E61" s="12" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F61" s="22" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G61" s="22"/>
       <c r="H61" s="12" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="I61" s="12" t="s">
         <v>63</v>
       </c>
       <c r="K61" s="14" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="L61" s="14" t="s">
         <v>138</v>
       </c>
       <c r="M61" s="14" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="O61" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="P61" s="15" t="s">
         <v>84</v>
@@ -5499,41 +5524,41 @@
     </row>
     <row r="62" spans="1:19" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="12" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D62" s="12" t="s">
         <v>20</v>
       </c>
       <c r="E62" s="12" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F62" s="22" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G62" s="22"/>
       <c r="H62" s="12" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="I62" s="12" t="s">
         <v>63</v>
       </c>
       <c r="K62" s="14" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="L62" s="14" t="s">
         <v>138</v>
       </c>
       <c r="M62" s="14" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="O62" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="P62" s="15" t="s">
         <v>84</v>
@@ -5544,41 +5569,41 @@
     </row>
     <row r="63" spans="1:19" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="12" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D63" s="12" t="s">
         <v>86</v>
       </c>
       <c r="E63" s="12" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F63" s="22" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G63" s="22"/>
       <c r="H63" s="12" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="I63" s="12" t="s">
         <v>63</v>
       </c>
       <c r="K63" s="14" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="L63" s="14" t="s">
         <v>144</v>
       </c>
       <c r="M63" s="14" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="O63" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="P63" s="15" t="s">
         <v>84</v>
@@ -5589,13 +5614,13 @@
     </row>
     <row r="64" spans="1:19" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="12" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D64" s="12" t="s">
         <v>86</v>
@@ -5604,26 +5629,26 @@
         <v>145</v>
       </c>
       <c r="F64" s="22" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G64" s="22"/>
       <c r="H64" s="12" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="I64" s="12" t="s">
         <v>63</v>
       </c>
       <c r="K64" s="14" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="L64" s="14" t="s">
         <v>144</v>
       </c>
       <c r="M64" s="14" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="O64" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="P64" s="15" t="s">
         <v>84</v>
@@ -5634,41 +5659,41 @@
     </row>
     <row r="65" spans="1:18" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="12" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D65" s="12" t="s">
         <v>20</v>
       </c>
       <c r="E65" s="12" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F65" s="22" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G65" s="22"/>
       <c r="H65" s="12" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="I65" s="12" t="s">
         <v>63</v>
       </c>
       <c r="K65" s="14" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="L65" s="14" t="s">
         <v>144</v>
       </c>
       <c r="M65" s="14" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="O65" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="P65" s="15" t="s">
         <v>84</v>
@@ -5679,38 +5704,38 @@
     </row>
     <row r="66" spans="1:18" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="12" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C66" s="18" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D66" s="12" t="s">
         <v>31</v>
       </c>
       <c r="E66" s="12" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F66" s="22" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G66" s="22"/>
       <c r="H66" s="12" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="I66" s="12" t="s">
         <v>63</v>
       </c>
       <c r="L66" s="14" t="s">
+        <v>265</v>
+      </c>
+      <c r="M66" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="O66" t="s">
         <v>267</v>
-      </c>
-      <c r="M66" s="14" t="s">
-        <v>268</v>
-      </c>
-      <c r="O66" t="s">
-        <v>269</v>
       </c>
       <c r="P66" s="15" t="s">
         <v>84</v>
@@ -5721,41 +5746,41 @@
     </row>
     <row r="67" spans="1:18" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="12" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C67" s="18" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D67" s="12" t="s">
         <v>20</v>
       </c>
       <c r="E67" s="12" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F67" s="22" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G67" s="22"/>
       <c r="H67" s="12" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="I67" s="12" t="s">
         <v>63</v>
       </c>
       <c r="K67" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="L67" s="14" t="s">
+        <v>273</v>
+      </c>
+      <c r="M67" s="14" t="s">
         <v>274</v>
       </c>
-      <c r="L67" s="14" t="s">
+      <c r="O67" s="14" t="s">
         <v>275</v>
-      </c>
-      <c r="M67" s="14" t="s">
-        <v>276</v>
-      </c>
-      <c r="O67" s="14" t="s">
-        <v>277</v>
       </c>
       <c r="P67" s="15" t="s">
         <v>84</v>
@@ -5766,41 +5791,41 @@
     </row>
     <row r="68" spans="1:18" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="12" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C68" s="18" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D68" s="12" t="s">
         <v>20</v>
       </c>
       <c r="E68" s="12" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F68" s="22" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G68" s="22"/>
       <c r="H68" s="12" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="I68" s="12" t="s">
         <v>63</v>
       </c>
       <c r="K68" s="14" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="L68" s="14" t="s">
+        <v>273</v>
+      </c>
+      <c r="M68" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="O68" s="14" t="s">
         <v>275</v>
-      </c>
-      <c r="M68" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="O68" s="14" t="s">
-        <v>277</v>
       </c>
       <c r="P68" s="15" t="s">
         <v>84</v>
@@ -5811,41 +5836,41 @@
     </row>
     <row r="69" spans="1:18" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="12" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C69" s="18" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D69" s="12" t="s">
         <v>20</v>
       </c>
       <c r="E69" s="12" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F69" s="22" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G69" s="22"/>
       <c r="H69" s="12" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="I69" s="12" t="s">
         <v>63</v>
       </c>
       <c r="K69" s="14" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="L69" s="14" t="s">
+        <v>273</v>
+      </c>
+      <c r="M69" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="O69" s="14" t="s">
         <v>275</v>
-      </c>
-      <c r="M69" s="14" t="s">
-        <v>285</v>
-      </c>
-      <c r="O69" s="14" t="s">
-        <v>277</v>
       </c>
       <c r="P69" s="15" t="s">
         <v>84</v>
@@ -5856,41 +5881,41 @@
     </row>
     <row r="70" spans="1:18" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="12" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C70" s="18" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D70" s="12" t="s">
         <v>20</v>
       </c>
       <c r="E70" s="12" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F70" s="22" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G70" s="22"/>
       <c r="H70" s="12" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="I70" s="12" t="s">
         <v>63</v>
       </c>
       <c r="K70" s="14" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="L70" s="14" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="M70" s="14" t="s">
         <v>102</v>
       </c>
       <c r="O70" s="14" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="P70" s="15" t="s">
         <v>84</v>
@@ -5913,6 +5938,39 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="1"/>
+  <pixelatorList sheetStid="4"/>
+  <pixelatorList sheetStid="6"/>
+  <pixelatorList sheetStid="11"/>
+  <pixelatorList sheetStid="5"/>
+  <pixelatorList sheetStid="12"/>
+  <pixelatorList sheetStid="9"/>
+  <pixelatorList sheetStid="8"/>
+  <pixelatorList sheetStid="10"/>
+  <pixelatorList sheetStid="13"/>
+  <pixelatorList sheetStid="14"/>
+  <pixelatorList sheetStid="15"/>
+</pixelators>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
+  <rangeList sheetStid="1" master=""/>
+  <rangeList sheetStid="4" master=""/>
+  <rangeList sheetStid="6" master=""/>
+  <rangeList sheetStid="11" master=""/>
+  <rangeList sheetStid="5" master=""/>
+  <rangeList sheetStid="12" master=""/>
+  <rangeList sheetStid="9" master=""/>
+  <rangeList sheetStid="8" master=""/>
+  <rangeList sheetStid="10" master=""/>
+  <rangeList sheetStid="13" master=""/>
+  <rangeList sheetStid="14" master=""/>
+</allowEditUser>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <woProps xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <woSheetsProps>
     <woSheetProps sheetStid="1" interlineOnOff="0" interlineColor="0" isDbSheet="0"/>
@@ -5934,45 +5992,12 @@
 </woProps>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
-  <rangeList sheetStid="1" master=""/>
-  <rangeList sheetStid="4" master=""/>
-  <rangeList sheetStid="6" master=""/>
-  <rangeList sheetStid="11" master=""/>
-  <rangeList sheetStid="5" master=""/>
-  <rangeList sheetStid="12" master=""/>
-  <rangeList sheetStid="9" master=""/>
-  <rangeList sheetStid="8" master=""/>
-  <rangeList sheetStid="10" master=""/>
-  <rangeList sheetStid="13" master=""/>
-  <rangeList sheetStid="14" master=""/>
-</allowEditUser>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="1"/>
-  <pixelatorList sheetStid="4"/>
-  <pixelatorList sheetStid="6"/>
-  <pixelatorList sheetStid="11"/>
-  <pixelatorList sheetStid="5"/>
-  <pixelatorList sheetStid="12"/>
-  <pixelatorList sheetStid="9"/>
-  <pixelatorList sheetStid="8"/>
-  <pixelatorList sheetStid="10"/>
-  <pixelatorList sheetStid="13"/>
-  <pixelatorList sheetStid="14"/>
-  <pixelatorList sheetStid="15"/>
-</pixelators>
-</file>
-
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C82605-B75B-4693-9329-32AAD527C692}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -5990,7 +6015,7 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C82605-B75B-4693-9329-32AAD527C692}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
